--- a/files/strings.xlsx
+++ b/files/strings.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xplo/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/storex/dLab/andStudio/lime-strings/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E75D17-F3B1-5C41-A767-310A105AF32D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA05CD54-C9EB-8C45-8799-0B4C9D2A9D73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2A2A4A0D-8F67-1149-8B79-481C2E1F4E29}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2A2A4A0D-8F67-1149-8B79-481C2E1F4E29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="1063">
   <si>
     <t>bangla</t>
   </si>
@@ -981,180 +977,6 @@
     <t>অ্যাপটি প্রাথমিক অবস্থায় ফিরিয়ে নিতে এখানে ক্লিক করুন</t>
   </si>
   <si>
-    <t>got it</t>
-  </si>
-  <si>
-    <t>about us</t>
-  </si>
-  <si>
-    <t>hot key</t>
-  </si>
-  <si>
-    <t>shake mode</t>
-  </si>
-  <si>
-    <t>more apps</t>
-  </si>
-  <si>
-    <t>free apps</t>
-  </si>
-  <si>
-    <t>app store</t>
-  </si>
-  <si>
-    <t>gps settings</t>
-  </si>
-  <si>
-    <t>home screen widget</t>
-  </si>
-  <si>
-    <t>image capture</t>
-  </si>
-  <si>
-    <t>video recording</t>
-  </si>
-  <si>
-    <t>hot key sensivity</t>
-  </si>
-  <si>
-    <t>reset all</t>
-  </si>
-  <si>
-    <t>ask help</t>
-  </si>
-  <si>
-    <t>report show</t>
-  </si>
-  <si>
-    <t>report submit</t>
-  </si>
-  <si>
-    <t>not sent</t>
-  </si>
-  <si>
-    <t>sent failed</t>
-  </si>
-  <si>
-    <t>not complete</t>
-  </si>
-  <si>
-    <t>main title</t>
-  </si>
-  <si>
-    <t>keep logged id</t>
-  </si>
-  <si>
-    <t>password show</t>
-  </si>
-  <si>
-    <t>password remember</t>
-  </si>
-  <si>
-    <t>password change</t>
-  </si>
-  <si>
-    <t>password old</t>
-  </si>
-  <si>
-    <t>password new</t>
-  </si>
-  <si>
-    <t>password new again</t>
-  </si>
-  <si>
-    <t>give id pass please</t>
-  </si>
-  <si>
-    <t>please try again later</t>
-  </si>
-  <si>
-    <t>please try again</t>
-  </si>
-  <si>
-    <t>please try again with proper credential</t>
-  </si>
-  <si>
-    <t>login failed</t>
-  </si>
-  <si>
-    <t>your profile</t>
-  </si>
-  <si>
-    <t>your name</t>
-  </si>
-  <si>
-    <t>mobile no</t>
-  </si>
-  <si>
-    <t>phone no</t>
-  </si>
-  <si>
-    <t>copy nokol</t>
-  </si>
-  <si>
-    <t>year sal</t>
-  </si>
-  <si>
-    <t>good evining</t>
-  </si>
-  <si>
-    <t>good morning</t>
-  </si>
-  <si>
-    <t>complain box</t>
-  </si>
-  <si>
-    <t>tell a friend</t>
-  </si>
-  <si>
-    <t>sending info</t>
-  </si>
-  <si>
-    <t>data sending</t>
-  </si>
-  <si>
-    <t>press ok button</t>
-  </si>
-  <si>
-    <t>write your name please</t>
-  </si>
-  <si>
-    <t>no data available</t>
-  </si>
-  <si>
-    <t>warning send data</t>
-  </si>
-  <si>
-    <t>press here</t>
-  </si>
-  <si>
-    <t>ok internet</t>
-  </si>
-  <si>
-    <t>server ok</t>
-  </si>
-  <si>
-    <t>app close warning</t>
-  </si>
-  <si>
-    <t>re try</t>
-  </si>
-  <si>
-    <t>profile update msg</t>
-  </si>
-  <si>
-    <t>share app</t>
-  </si>
-  <si>
-    <t>call helpline</t>
-  </si>
-  <si>
-    <t>click to know more</t>
-  </si>
-  <si>
-    <t>reset all msg</t>
-  </si>
-  <si>
     <t>Bangla</t>
   </si>
   <si>
@@ -1654,12 +1476,1755 @@
   </si>
   <si>
     <t>Update your profile</t>
+  </si>
+  <si>
+    <t>all_channels</t>
+  </si>
+  <si>
+    <t>app_name</t>
+  </si>
+  <si>
+    <t>auto_renewal</t>
+  </si>
+  <si>
+    <t>become_a_premium_member</t>
+  </si>
+  <si>
+    <t>buy_this</t>
+  </si>
+  <si>
+    <t>cast</t>
+  </si>
+  <si>
+    <t>catchup_tv</t>
+  </si>
+  <si>
+    <t>change_language</t>
+  </si>
+  <si>
+    <t>choose_payment_method</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>confirmation</t>
+  </si>
+  <si>
+    <t>content_selector</t>
+  </si>
+  <si>
+    <t>continue_watching</t>
+  </si>
+  <si>
+    <t>country_code_bd</t>
+  </si>
+  <si>
+    <t>current_plan</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>didnt_receive_otp</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>dot</t>
+  </si>
+  <si>
+    <t>dummy_dialog_text</t>
+  </si>
+  <si>
+    <t>dummy_dialog_title</t>
+  </si>
+  <si>
+    <t>dummy_phone_no_without_code</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>enjoy_unlimited_internet</t>
+  </si>
+  <si>
+    <t>enjoy_unlimited</t>
+  </si>
+  <si>
+    <t>expand_collapse_android_widgets</t>
+  </si>
+  <si>
+    <t>faq</t>
+  </si>
+  <si>
+    <t>favorite_videos</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>force_update_msg</t>
+  </si>
+  <si>
+    <t>free_access_1000_n_natoks_movies_more_2</t>
+  </si>
+  <si>
+    <t>free_access_1000_n_natoks_movies_more</t>
+  </si>
+  <si>
+    <t>frequently_asked_questions</t>
+  </si>
+  <si>
+    <t>get_otp</t>
+  </si>
+  <si>
+    <t>hi_there</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>live_tv</t>
+  </si>
+  <si>
+    <t>login_register_with_mobile_number</t>
+  </si>
+  <si>
+    <t>login_required_message</t>
+  </si>
+  <si>
+    <t>login_success_msg</t>
+  </si>
+  <si>
+    <t>login_to_use</t>
+  </si>
+  <si>
+    <t>msg_no_internet</t>
+  </si>
+  <si>
+    <t>my_account</t>
+  </si>
+  <si>
+    <t>my_favourite</t>
+  </si>
+  <si>
+    <t>my_rating</t>
+  </si>
+  <si>
+    <t>natok_movies_more</t>
+  </si>
+  <si>
+    <t>navigation_drawer_close</t>
+  </si>
+  <si>
+    <t>navigation_drawer_open</t>
+  </si>
+  <si>
+    <t>network_error_msg</t>
+  </si>
+  <si>
+    <t>network_error</t>
+  </si>
+  <si>
+    <t>no_action_plan</t>
+  </si>
+  <si>
+    <t>no_payment_history</t>
+  </si>
+  <si>
+    <t>no_result_for_your_search</t>
+  </si>
+  <si>
+    <t>no_results_for_your_search</t>
+  </si>
+  <si>
+    <t>normal_update_msg</t>
+  </si>
+  <si>
+    <t>now_watching</t>
+  </si>
+  <si>
+    <t>other_payment_options</t>
+  </si>
+  <si>
+    <t>otp_edt_view_hint_msg</t>
+  </si>
+  <si>
+    <t>otp_sent_msg</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>package_description</t>
+  </si>
+  <si>
+    <t>package_not_found</t>
+  </si>
+  <si>
+    <t>pay_with_mobile_operator</t>
+  </si>
+  <si>
+    <t>pay_with</t>
+  </si>
+  <si>
+    <t>payment_history</t>
+  </si>
+  <si>
+    <t>please_login_register</t>
+  </si>
+  <si>
+    <t>please_login</t>
+  </si>
+  <si>
+    <t>premium</t>
+  </si>
+  <si>
+    <t>privacy_policy</t>
+  </si>
+  <si>
+    <t>profile_info_update_success_msg</t>
+  </si>
+  <si>
+    <t>program_guide</t>
+  </si>
+  <si>
+    <t>rate_now</t>
+  </si>
+  <si>
+    <t>recommended_for_you</t>
+  </si>
+  <si>
+    <t>recommended</t>
+  </si>
+  <si>
+    <t>release_on</t>
+  </si>
+  <si>
+    <t>remind_me</t>
+  </si>
+  <si>
+    <t>required_proper_data_connection_msg</t>
+  </si>
+  <si>
+    <t>retry</t>
+  </si>
+  <si>
+    <t>search_input_empty_msg</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>select_profile_img</t>
+  </si>
+  <si>
+    <t>select_your_plan</t>
+  </si>
+  <si>
+    <t>send_feedback</t>
+  </si>
+  <si>
+    <t>sending_otp_message_after_click_next</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>showing_all</t>
+  </si>
+  <si>
+    <t>sign_in</t>
+  </si>
+  <si>
+    <t>sign_out</t>
+  </si>
+  <si>
+    <t>some_error</t>
+  </si>
+  <si>
+    <t>somthing_went_wrong</t>
+  </si>
+  <si>
+    <t>speech_not_supported</t>
+  </si>
+  <si>
+    <t>speech_prompt</t>
+  </si>
+  <si>
+    <t>subscription_failure_message</t>
+  </si>
+  <si>
+    <t>subscription_found_msg</t>
+  </si>
+  <si>
+    <t>subscription_success_msg</t>
+  </si>
+  <si>
+    <t>subscription</t>
+  </si>
+  <si>
+    <t>take_me_home</t>
+  </si>
+  <si>
+    <t>text_login_and</t>
+  </si>
+  <si>
+    <t>text_login_i_agree_to</t>
+  </si>
+  <si>
+    <t>text_login_privacy_policy</t>
+  </si>
+  <si>
+    <t>text_login_terms_of_use</t>
+  </si>
+  <si>
+    <t>text_terms_and_condition</t>
+  </si>
+  <si>
+    <t>this_video_is_not_available</t>
+  </si>
+  <si>
+    <t>title_enter_phone_number</t>
+  </si>
+  <si>
+    <t>title_verify_phone_number</t>
+  </si>
+  <si>
+    <t>unable_pick_img_msg</t>
+  </si>
+  <si>
+    <t>unlimited_videos_on_demand_watch_anywhere_watch_anytime_2</t>
+  </si>
+  <si>
+    <t>unlimited_videos_on_demand_watch_anywhere_watch_anytime</t>
+  </si>
+  <si>
+    <t>upcomming_programs</t>
+  </si>
+  <si>
+    <t>update_now</t>
+  </si>
+  <si>
+    <t>update_profile</t>
+  </si>
+  <si>
+    <t>update_required</t>
+  </si>
+  <si>
+    <t>user_default_name</t>
+  </si>
+  <si>
+    <t>watch_now</t>
+  </si>
+  <si>
+    <t>watch_specific_episode</t>
+  </si>
+  <si>
+    <t>watching_catch_up</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>you_have_no_favourite_item</t>
+  </si>
+  <si>
+    <t>you_have_no_more_favourite_item</t>
+  </si>
+  <si>
+    <t>আপনার অনুসন্ধানের জন্য কোনো ফলাফল নেই</t>
+  </si>
+  <si>
+    <t>&lt;/string</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Watch &lt;strong</t>
+  </si>
+  <si>
+    <t>anywhere&lt;/strong</t>
+  </si>
+  <si>
+    <t>. Watch &lt;strong</t>
+  </si>
+  <si>
+    <t>anytime&lt;/strong</t>
+  </si>
+  <si>
+    <t>]]</t>
+  </si>
+  <si>
+    <t>সব চ্যানেল</t>
+  </si>
+  <si>
+    <t>অ্যাপ টি বন্ধ করার জন্য আবার ক্লিক করুন</t>
+  </si>
+  <si>
+    <t>AndroidBuildVariant</t>
+  </si>
+  <si>
+    <t>অটো রিনিউ</t>
+  </si>
+  <si>
+    <t>পিছনে</t>
+  </si>
+  <si>
+    <t>প্রিমিয়াম সদস্য হন</t>
+  </si>
+  <si>
+    <t>ক্যানসেল</t>
+  </si>
+  <si>
+    <t>পরবর্তী</t>
+  </si>
+  <si>
+    <t>রিসেন্ড ওটিপি</t>
+  </si>
+  <si>
+    <t>সব দেখুন</t>
+  </si>
+  <si>
+    <t>সাবস্ক্রাইব</t>
+  </si>
+  <si>
+    <t>আনসাবস্ক্রাইব</t>
+  </si>
+  <si>
+    <t>এটা কিনুন</t>
+  </si>
+  <si>
+    <t>বাতিল</t>
+  </si>
+  <si>
+    <t>না ধন্যবাদ</t>
+  </si>
+  <si>
+    <t>কাস্ট</t>
+  </si>
+  <si>
+    <t>ক্যাচ আপ টিভি</t>
+  </si>
+  <si>
+    <t>ভাষা পরিবর্তন করুন</t>
+  </si>
+  <si>
+    <t>পেমেন্ট পদ্ধতি নির্বাচন করুন</t>
+  </si>
+  <si>
+    <t>কনফার্ম</t>
+  </si>
+  <si>
+    <t>নিশ্চিত করণ</t>
+  </si>
+  <si>
+    <t>সব দেখুন :</t>
+  </si>
+  <si>
+    <t>কণ্টিনিউ ওয়াচিং</t>
+  </si>
+  <si>
+    <t>বর্তমান প্ল্যান</t>
+  </si>
+  <si>
+    <t>জন্ম তারিখ</t>
+  </si>
+  <si>
+    <t>বিবরণ</t>
+  </si>
+  <si>
+    <t>বিস্তারিত</t>
+  </si>
+  <si>
+    <t>ওটিপি পাননি?</t>
+  </si>
+  <si>
+    <t>•</t>
+  </si>
+  <si>
+    <t>আপনার কাছ থেকে ২০টাকা চার্জ কেটে রাখা হবে এবং বর্তমান সাবস্ক্রিপশনের সময়সীমা শেষ হয়ে গেলে পরবর্তীতে সয়ংক্রিয়ভাবে নতুন করে আপনার সাবস্ক্রিপশন চালু হয়ে যাবে।</t>
+  </si>
+  <si>
+    <t>পেমেন্ট</t>
+  </si>
+  <si>
+    <t>এডিট</t>
+  </si>
+  <si>
+    <t>মেয়াদোত্তীর্ণ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">আনলিমিটেড ইন্টারনেট উপভোগ করুন </t>
+  </si>
+  <si>
+    <t>সঠিক ফোন নম্বর লিখুন</t>
+  </si>
+  <si>
+    <t>মোবাইল নম্বর প্রদান করুন</t>
+  </si>
+  <si>
+    <t>ভ্যালিড ওটিপি দিন</t>
+  </si>
+  <si>
+    <t>মোবাইল নম্বর সঠিক নয়</t>
+  </si>
+  <si>
+    <t>Expand/Collapse Android Widgets</t>
+  </si>
+  <si>
+    <t>গুরুত্বপূর্ণ প্রশ্নাবলী</t>
+  </si>
+  <si>
+    <t>পছন্দ করা ভিডিও</t>
+  </si>
+  <si>
+    <t>ফেভারিট</t>
+  </si>
+  <si>
+    <t>নারী</t>
+  </si>
+  <si>
+    <t>প্রথম নাম</t>
+  </si>
+  <si>
+    <t>নতুন ফিচারসহ এসেছে নতুন ভার্সন, সাথে থাকতে হলে অ্যাপটি অবশ্যই আপডেট করতে হবে।</t>
+  </si>
+  <si>
+    <t>span style=</t>
+  </si>
+  <si>
+    <t>ওটিপি নিন</t>
+  </si>
+  <si>
+    <t>কোন হিস্ট্রি নেই</t>
+  </si>
+  <si>
+    <t>আপনাকে শুভেচ্ছা!</t>
+  </si>
+  <si>
+    <t>ওয়াচ হিস্ট্রি</t>
+  </si>
+  <si>
+    <t>ছবি আপলোড ব্যর্থ হয়েছে</t>
+  </si>
+  <si>
+    <t>ছবি সফলভাবে আপলোড করা হয়েছে</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> দয়া করে সঠিক কোড লিখুন</t>
+  </si>
+  <si>
+    <t>শেষ নাম</t>
+  </si>
+  <si>
+    <t>লাইভ টিভি</t>
+  </si>
+  <si>
+    <t>লোডিং.......</t>
+  </si>
+  <si>
+    <t>অনুগ্রহ করে মোবাইল দিয়ে লগিন/রেজিস্টার করুন</t>
+  </si>
+  <si>
+    <t>মোবাইল দিয়ে লগিন/রেজিস্টার</t>
+  </si>
+  <si>
+    <t>মোবাইল নাম্বার দিয়ে লগইন করুন</t>
+  </si>
+  <si>
+    <t>লগইন সফল হয়েছে</t>
+  </si>
+  <si>
+    <t>এই সুবিধাটি ব্যবহার করার জন্য লগইন করুন</t>
+  </si>
+  <si>
+    <t>লগইন</t>
+  </si>
+  <si>
+    <t>ইন্টারনেটে সংযোগ প্রদান করা সম্ভব হচ্ছেনা</t>
+  </si>
+  <si>
+    <t>আমার অ্যাকাউন্ট</t>
+  </si>
+  <si>
+    <t>আমার রেটিং</t>
+  </si>
+  <si>
+    <t xml:space="preserve">নাটক, মুভি এবং অন্নান্য </t>
+  </si>
+  <si>
+    <t>Navigation Menu Close</t>
+  </si>
+  <si>
+    <t>Navigation Menu Open</t>
+  </si>
+  <si>
+    <t>দয়া করে আপনার ইন্টারনেট সংযোগ চেক করুন।</t>
+  </si>
+  <si>
+    <t>আমরা একটি অপ্রত্যাশিত সমস্যার সম্মুখীন হয়েছি।</t>
+  </si>
+  <si>
+    <t>কোন প্ল্যান সক্রিয় নেই</t>
+  </si>
+  <si>
+    <t>কোন পেমেন্ট হিস্ট্রি নেই</t>
+  </si>
+  <si>
+    <t>কোন সার্চ রেসাল্ট নেই!</t>
+  </si>
+  <si>
+    <t>নতুন ফিচারসহ এসেছে নতুন ভার্সন, ভালো অভিজ্ঞতা পেতে অ্যাপটি আপডেট করতে পারেন।</t>
+  </si>
+  <si>
+    <t>এখন দেখছেন</t>
+  </si>
+  <si>
+    <t>পেমেন্ট এর অন্যান্য পদ্ধতিসমূহ</t>
+  </si>
+  <si>
+    <t>৮ ডিজিট ফোন নাম্বার.</t>
+  </si>
+  <si>
+    <t>ভেরিফিকেশন কোড পাঠানো হয়েছে</t>
+  </si>
+  <si>
+    <t>প্রকাশক :\u0020</t>
+  </si>
+  <si>
+    <t>প্যাকেজের বর্ণনা</t>
+  </si>
+  <si>
+    <t>প্যাকেজ পাওয়া যায় নি</t>
+  </si>
+  <si>
+    <t>আপনার মোবাইল অপারেটরের সাহায্যে পেমেন্ট করুন</t>
+  </si>
+  <si>
+    <t xml:space="preserve">পে উইথ: </t>
+  </si>
+  <si>
+    <t>পেমেন্ট হিস্ট্রি</t>
+  </si>
+  <si>
+    <t>অনুগ্রহ ক্রমে আপনার নাম্বার দিয়ে লগইন/রেজিস্ট্রেশন করুন.</t>
+  </si>
+  <si>
+    <t>লগইন করুন</t>
+  </si>
+  <si>
+    <t>এক্সক্লুসিভ</t>
+  </si>
+  <si>
+    <t>গোপনীয়তা নীতি</t>
+  </si>
+  <si>
+    <t>প্রোফাইল সফলভাবে আপডেট করা হয়েছে</t>
+  </si>
+  <si>
+    <t>একাউন্ট</t>
+  </si>
+  <si>
+    <t>অনুষ্ঠান সূচি</t>
+  </si>
+  <si>
+    <t>রেটিং দিন</t>
+  </si>
+  <si>
+    <t>আরো দেখতে পারেনঃ</t>
+  </si>
+  <si>
+    <t>মুক্তি</t>
+  </si>
+  <si>
+    <t>মনে করিয়ে দিন</t>
+  </si>
+  <si>
+    <t>You are not using desire data connection</t>
+  </si>
+  <si>
+    <t>পুনরায় চেষ্টা করুন</t>
+  </si>
+  <si>
+    <t>যেকোন ভিডিও খুঁজুন এখানে</t>
+  </si>
+  <si>
+    <t>সার্চ</t>
+  </si>
+  <si>
+    <t>প্রোফাইল পিকচার বাছাই করুন</t>
+  </si>
+  <si>
+    <t>প্ল্যান নির্বাচন করুন</t>
+  </si>
+  <si>
+    <t>মতামত পাঠান</t>
+  </si>
+  <si>
+    <t>আপনার অ্যাকাউন্ট যাচাই করতে পরবর্তী ক্লিক করুন। আপনার নম্বর যাচাই করতে একটি এসএমএস পাঠানো যেতে পারে। বার্তা এবং ডাটা হার প্রযোজ্য হতে পারে.</t>
+  </si>
+  <si>
+    <t>লিঙ্গ</t>
+  </si>
+  <si>
+    <t>সবগুলো দেখানো হচ্ছে</t>
+  </si>
+  <si>
+    <t>সাইন আউট</t>
+  </si>
+  <si>
+    <t xml:space="preserve">কিছু একটা ভুল হয়েছে! </t>
+  </si>
+  <si>
+    <t>কিছু একটা ভুল হয়েছে, দয়া করে কিছুক্ষণ পর আবার চেষ্টা করুন।</t>
+  </si>
+  <si>
+    <t>দুঃখিত! যে তথ্য দেওয়া হয়েছে তা আপনার ডিভাইসটি সমর্থন করে না।</t>
+  </si>
+  <si>
+    <t>কিছু বলুন।&amp;#8230;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">দুঃখিত আমরা এই মুহূর্তে আপনাকে সাবস্ক্রাইব করতে পারিনি। অনুগ্রহ করে একটু পরে আবার চেষ্টা করুন </t>
+  </si>
+  <si>
+    <t>আপনি ইতিমধ্যে সাবস্ক্রাইব করেছেন, আপনাকে আর সাবস্ক্রাইব করতে হবে না।</t>
+  </si>
+  <si>
+    <t>আপনি সফলভাবে সাবস্ক্রাইব করেছেন</t>
+  </si>
+  <si>
+    <t>সাবস্ক্রিপশন</t>
+  </si>
+  <si>
+    <t>হোমে ফিরে যান</t>
+  </si>
+  <si>
+    <t>এবং</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ক্লিক করে আমি যাতে সম্মতি দিচ্ছি- </t>
+  </si>
+  <si>
+    <t>ব্যবহারের শর্তাবলী</t>
+  </si>
+  <si>
+    <t>ক্লিক করে আমি যাতে সম্মতি দিচ্ছি-ব্যবহারের শর্তাবলী এবং গোপনীয়তা নীতি</t>
+  </si>
+  <si>
+    <t>এই ভিডিও পাওয়া নি</t>
+  </si>
+  <si>
+    <t>আপনার ফোন নম্বর লিখুন</t>
+  </si>
+  <si>
+    <t>আপনার ওটিপি লিখুন</t>
+  </si>
+  <si>
+    <t>আবার চেষ্টা করুন</t>
+  </si>
+  <si>
+    <t>এখানে লিখুন</t>
+  </si>
+  <si>
+    <t>ছবিটি নিতে অক্ষম, দয়া করে ছবি নির্বাচন করতে গুগল ফটোস অ্যাপ ব্যবহার করুন।</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>br</t>
+  </si>
+  <si>
+    <t>আপনার সাবস্ক্রিপশনটি স্বয়ংক্রিয় ভাবে পরবর্তী মাস/বছরে নবায়ন করা হবে না।</t>
+  </si>
+  <si>
+    <t>আসন্ন প্রোগ্রাম</t>
+  </si>
+  <si>
+    <t>আপডেট করুন</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>লাইভ দেখুন</t>
+  </si>
+  <si>
+    <t>এখন দেখুন</t>
+  </si>
+  <si>
+    <t>ওয়াচ স্পেসিফিক এপিসোড</t>
+  </si>
+  <si>
+    <t>দেখছেন ক্যাচ আপ টিভি</t>
+  </si>
+  <si>
+    <t>লাইভ দেখছেন</t>
+  </si>
+  <si>
+    <t>অনুগ্রহ করে সঠিক অপারেটরটি নির্বাচন করুন</t>
+  </si>
+  <si>
+    <t>XXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>আপনার কোন পছন্দ করা ভিডিও নেই</t>
+  </si>
+  <si>
+    <t xml:space="preserve">আপনার আর কোন পছন্দ করা ভিডিও নেই </t>
+  </si>
+  <si>
+    <t xml:space="preserve">about </t>
+  </si>
+  <si>
+    <t>all channels</t>
+  </si>
+  <si>
+    <t>app exit warning message</t>
+  </si>
+  <si>
+    <t>app name</t>
+  </si>
+  <si>
+    <t>auto renewal</t>
+  </si>
+  <si>
+    <t>become a premium member</t>
+  </si>
+  <si>
+    <t>button cancel</t>
+  </si>
+  <si>
+    <t>button next</t>
+  </si>
+  <si>
+    <t>button resend otp code</t>
+  </si>
+  <si>
+    <t>button see all</t>
+  </si>
+  <si>
+    <t>button subscribe</t>
+  </si>
+  <si>
+    <t>button unsubscribe</t>
+  </si>
+  <si>
+    <t>buy this</t>
+  </si>
+  <si>
+    <t>cancel 2</t>
+  </si>
+  <si>
+    <t>catchup tv</t>
+  </si>
+  <si>
+    <t>change language</t>
+  </si>
+  <si>
+    <t>choose payment method</t>
+  </si>
+  <si>
+    <t>content selector</t>
+  </si>
+  <si>
+    <t>continue watching</t>
+  </si>
+  <si>
+    <t>country code bd</t>
+  </si>
+  <si>
+    <t>current plan</t>
+  </si>
+  <si>
+    <t>date of birth</t>
+  </si>
+  <si>
+    <t>didnt receive otp</t>
+  </si>
+  <si>
+    <t>dummy dialog text</t>
+  </si>
+  <si>
+    <t>dummy dialog title</t>
+  </si>
+  <si>
+    <t>dummy phone no without code</t>
+  </si>
+  <si>
+    <t>ends on</t>
+  </si>
+  <si>
+    <t>enjoy unlimited internet</t>
+  </si>
+  <si>
+    <t>enjoy unlimited</t>
+  </si>
+  <si>
+    <t>enter correct phone num msg</t>
+  </si>
+  <si>
+    <t>enter mobile number</t>
+  </si>
+  <si>
+    <t>enter valid otp msg</t>
+  </si>
+  <si>
+    <t>error invaild otp</t>
+  </si>
+  <si>
+    <t>error invalid phone no</t>
+  </si>
+  <si>
+    <t>expand collapse android widgets</t>
+  </si>
+  <si>
+    <t>favorite videos</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>force update msg</t>
+  </si>
+  <si>
+    <t>free access 1000 n natoks movies more 2</t>
+  </si>
+  <si>
+    <t>free access 1000 n natoks movies more</t>
+  </si>
+  <si>
+    <t>frequently asked questions</t>
+  </si>
+  <si>
+    <t>get otp</t>
+  </si>
+  <si>
+    <t>have no watch history</t>
+  </si>
+  <si>
+    <t>hi there</t>
+  </si>
+  <si>
+    <t>image upload failure msg</t>
+  </si>
+  <si>
+    <t>image upload success msg</t>
+  </si>
+  <si>
+    <t>invalid otp msg</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>live tv</t>
+  </si>
+  <si>
+    <t>login method button top header txt</t>
+  </si>
+  <si>
+    <t>login register with mobile number</t>
+  </si>
+  <si>
+    <t>login required message</t>
+  </si>
+  <si>
+    <t>login success msg</t>
+  </si>
+  <si>
+    <t>login to use</t>
+  </si>
+  <si>
+    <t>msg no internet</t>
+  </si>
+  <si>
+    <t>my account</t>
+  </si>
+  <si>
+    <t>my favourite</t>
+  </si>
+  <si>
+    <t>my rating</t>
+  </si>
+  <si>
+    <t>natok movies more</t>
+  </si>
+  <si>
+    <t>navigation drawer close</t>
+  </si>
+  <si>
+    <t>navigation drawer open</t>
+  </si>
+  <si>
+    <t>network error msg</t>
+  </si>
+  <si>
+    <t>network error</t>
+  </si>
+  <si>
+    <t>no action plan</t>
+  </si>
+  <si>
+    <t>no payment history</t>
+  </si>
+  <si>
+    <t>no result for your search</t>
+  </si>
+  <si>
+    <t>no results for your search</t>
+  </si>
+  <si>
+    <t>normal update msg</t>
+  </si>
+  <si>
+    <t>now watching</t>
+  </si>
+  <si>
+    <t>other payment options</t>
+  </si>
+  <si>
+    <t>otp edt view hint msg</t>
+  </si>
+  <si>
+    <t>otp sent msg</t>
+  </si>
+  <si>
+    <t>package description</t>
+  </si>
+  <si>
+    <t>package not found</t>
+  </si>
+  <si>
+    <t>pay with mobile operator</t>
+  </si>
+  <si>
+    <t>pay with</t>
+  </si>
+  <si>
+    <t>payment history</t>
+  </si>
+  <si>
+    <t>please login register</t>
+  </si>
+  <si>
+    <t>please login</t>
+  </si>
+  <si>
+    <t>privacy policy</t>
+  </si>
+  <si>
+    <t>profile info update success msg</t>
+  </si>
+  <si>
+    <t>program guide</t>
+  </si>
+  <si>
+    <t>rate now</t>
+  </si>
+  <si>
+    <t>recommended for you</t>
+  </si>
+  <si>
+    <t>release on</t>
+  </si>
+  <si>
+    <t>remind me</t>
+  </si>
+  <si>
+    <t>required proper data connection msg</t>
+  </si>
+  <si>
+    <t>search input empty msg</t>
+  </si>
+  <si>
+    <t>select profile img</t>
+  </si>
+  <si>
+    <t>select your plan</t>
+  </si>
+  <si>
+    <t>send feedback</t>
+  </si>
+  <si>
+    <t>sending otp message after click next</t>
+  </si>
+  <si>
+    <t>showing all</t>
+  </si>
+  <si>
+    <t>sign in</t>
+  </si>
+  <si>
+    <t>sign out</t>
+  </si>
+  <si>
+    <t>some error</t>
+  </si>
+  <si>
+    <t>somthing went wrong</t>
+  </si>
+  <si>
+    <t>speech not supported</t>
+  </si>
+  <si>
+    <t>speech prompt</t>
+  </si>
+  <si>
+    <t>subscription failure message</t>
+  </si>
+  <si>
+    <t>subscription found msg</t>
+  </si>
+  <si>
+    <t>subscription success msg</t>
+  </si>
+  <si>
+    <t>take me home</t>
+  </si>
+  <si>
+    <t>terms amp conditions</t>
+  </si>
+  <si>
+    <t>text login and</t>
+  </si>
+  <si>
+    <t>text login i agree to</t>
+  </si>
+  <si>
+    <t>text login privacy policy</t>
+  </si>
+  <si>
+    <t>text login terms of use</t>
+  </si>
+  <si>
+    <t>text terms and condition</t>
+  </si>
+  <si>
+    <t>this video is not available</t>
+  </si>
+  <si>
+    <t>title enter phone number</t>
+  </si>
+  <si>
+    <t>title verify phone number</t>
+  </si>
+  <si>
+    <t>try again</t>
+  </si>
+  <si>
+    <t>type here</t>
+  </si>
+  <si>
+    <t>unable pick img msg</t>
+  </si>
+  <si>
+    <t>unlimited videos on demand watch anywhere watch anytime 2</t>
+  </si>
+  <si>
+    <t>unlimited videos on demand watch anywhere watch anytime</t>
+  </si>
+  <si>
+    <t>unsubscription confirmation msg</t>
+  </si>
+  <si>
+    <t>upcomming programs</t>
+  </si>
+  <si>
+    <t>update now</t>
+  </si>
+  <si>
+    <t>update profile</t>
+  </si>
+  <si>
+    <t>update required</t>
+  </si>
+  <si>
+    <t>upload change photo</t>
+  </si>
+  <si>
+    <t>user default name</t>
+  </si>
+  <si>
+    <t>watch live now</t>
+  </si>
+  <si>
+    <t>watch now</t>
+  </si>
+  <si>
+    <t>watch specific episode</t>
+  </si>
+  <si>
+    <t>watching catch up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">watching live on </t>
+  </si>
+  <si>
+    <t>wrong payment gateway selection msg</t>
+  </si>
+  <si>
+    <t>you have no favourite item</t>
+  </si>
+  <si>
+    <t>you have no more favourite item</t>
+  </si>
+  <si>
+    <t>All Channels</t>
+  </si>
+  <si>
+    <t>App Name</t>
+  </si>
+  <si>
+    <t>Auto Renewal</t>
+  </si>
+  <si>
+    <t>Become A Premium Member</t>
+  </si>
+  <si>
+    <t>Buy This</t>
+  </si>
+  <si>
+    <t>Cast</t>
+  </si>
+  <si>
+    <t>Catchup Tv</t>
+  </si>
+  <si>
+    <t>Change Language</t>
+  </si>
+  <si>
+    <t>Choose Payment Method</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>Confirmation</t>
+  </si>
+  <si>
+    <t>Content Selector</t>
+  </si>
+  <si>
+    <t>Continue Watching</t>
+  </si>
+  <si>
+    <t>Current Plan</t>
+  </si>
+  <si>
+    <t>Date Of Birth</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Dot</t>
+  </si>
+  <si>
+    <t>Dummy Dialog Text</t>
+  </si>
+  <si>
+    <t>Dummy Dialog Title</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Enjoy Unlimited Internet</t>
+  </si>
+  <si>
+    <t>Enjoy Unlimited</t>
+  </si>
+  <si>
+    <t>Enter Mobile Number</t>
+  </si>
+  <si>
+    <t>Error Invaild Otp</t>
+  </si>
+  <si>
+    <t>Error Invalid Phone No</t>
+  </si>
+  <si>
+    <t>Expand Collapse Android Widgets</t>
+  </si>
+  <si>
+    <t>Faq</t>
+  </si>
+  <si>
+    <t>Favorite Videos</t>
+  </si>
+  <si>
+    <t>Favorite</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Free Access 1000 N Natoks Movies More 2</t>
+  </si>
+  <si>
+    <t>Free Access 1000 N Natoks Movies More</t>
+  </si>
+  <si>
+    <t>Frequently Asked Questions</t>
+  </si>
+  <si>
+    <t>Get Otp</t>
+  </si>
+  <si>
+    <t>Hi There</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Live Tv</t>
+  </si>
+  <si>
+    <t>Login Register With Mobile Number</t>
+  </si>
+  <si>
+    <t>Login Required Message</t>
+  </si>
+  <si>
+    <t>Login Success Msg</t>
+  </si>
+  <si>
+    <t>Login To Use</t>
+  </si>
+  <si>
+    <t>Msg No Internet</t>
+  </si>
+  <si>
+    <t>My Account</t>
+  </si>
+  <si>
+    <t>My Favourite</t>
+  </si>
+  <si>
+    <t>My Rating</t>
+  </si>
+  <si>
+    <t>Natok Movies More</t>
+  </si>
+  <si>
+    <t>Navigation Drawer Close</t>
+  </si>
+  <si>
+    <t>Navigation Drawer Open</t>
+  </si>
+  <si>
+    <t>Network Error Msg</t>
+  </si>
+  <si>
+    <t>Network Error</t>
+  </si>
+  <si>
+    <t>No Action Plan</t>
+  </si>
+  <si>
+    <t>No Payment History</t>
+  </si>
+  <si>
+    <t>No Result For Your Search</t>
+  </si>
+  <si>
+    <t>No Results For Your Search</t>
+  </si>
+  <si>
+    <t>Normal Update Msg</t>
+  </si>
+  <si>
+    <t>Now Watching</t>
+  </si>
+  <si>
+    <t>Other Payment Options</t>
+  </si>
+  <si>
+    <t>Otp Edt View Hint Msg</t>
+  </si>
+  <si>
+    <t>Otp Sent Msg</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Package Description</t>
+  </si>
+  <si>
+    <t>Package Not Found</t>
+  </si>
+  <si>
+    <t>Pay With Mobile Operator</t>
+  </si>
+  <si>
+    <t>Pay With</t>
+  </si>
+  <si>
+    <t>Payment History</t>
+  </si>
+  <si>
+    <t>Please Login Register</t>
+  </si>
+  <si>
+    <t>Please Login</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Privacy Policy</t>
+  </si>
+  <si>
+    <t>Profile Info Update Success Msg</t>
+  </si>
+  <si>
+    <t>Program Guide</t>
+  </si>
+  <si>
+    <t>Rate Now</t>
+  </si>
+  <si>
+    <t>Recommended For You</t>
+  </si>
+  <si>
+    <t>Recommended</t>
+  </si>
+  <si>
+    <t>Release On</t>
+  </si>
+  <si>
+    <t>Remind Me</t>
+  </si>
+  <si>
+    <t>Required Proper Data Connection Msg</t>
+  </si>
+  <si>
+    <t>Retry</t>
+  </si>
+  <si>
+    <t>Search Input Empty Msg</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Select Profile Img</t>
+  </si>
+  <si>
+    <t>Select Your Plan</t>
+  </si>
+  <si>
+    <t>Send Feedback</t>
+  </si>
+  <si>
+    <t>Sending Otp Message After Click Next</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Showing All</t>
+  </si>
+  <si>
+    <t>Sign In</t>
+  </si>
+  <si>
+    <t>Sign Out</t>
+  </si>
+  <si>
+    <t>Some Error</t>
+  </si>
+  <si>
+    <t>Somthing Went Wrong</t>
+  </si>
+  <si>
+    <t>Speech Not Supported</t>
+  </si>
+  <si>
+    <t>Speech Prompt</t>
+  </si>
+  <si>
+    <t>Subscription Failure Message</t>
+  </si>
+  <si>
+    <t>Subscription Found Msg</t>
+  </si>
+  <si>
+    <t>Subscription Success Msg</t>
+  </si>
+  <si>
+    <t>Subscription</t>
+  </si>
+  <si>
+    <t>Take Me Home</t>
+  </si>
+  <si>
+    <t>Text Login And</t>
+  </si>
+  <si>
+    <t>Text Login I Agree To</t>
+  </si>
+  <si>
+    <t>Text Login Privacy Policy</t>
+  </si>
+  <si>
+    <t>Text Login Terms Of Use</t>
+  </si>
+  <si>
+    <t>Text Terms And Condition</t>
+  </si>
+  <si>
+    <t>This Video Is Not Available</t>
+  </si>
+  <si>
+    <t>Title Enter Phone Number</t>
+  </si>
+  <si>
+    <t>Title Verify Phone Number</t>
+  </si>
+  <si>
+    <t>Unable Pick Img Msg</t>
+  </si>
+  <si>
+    <t>Unlimited Videos On Demand Watch Anywhere Watch Anytime 2</t>
+  </si>
+  <si>
+    <t>Unlimited Videos On Demand Watch Anywhere Watch Anytime</t>
+  </si>
+  <si>
+    <t>Upcomming Programs</t>
+  </si>
+  <si>
+    <t>Update Now</t>
+  </si>
+  <si>
+    <t>Update Profile</t>
+  </si>
+  <si>
+    <t>Update Required</t>
+  </si>
+  <si>
+    <t>User Default Name</t>
+  </si>
+  <si>
+    <t>Watch Now</t>
+  </si>
+  <si>
+    <t>Watch Specific Episode</t>
+  </si>
+  <si>
+    <t>Watching Catch Up</t>
+  </si>
+  <si>
+    <t>You Have No Favourite Item</t>
+  </si>
+  <si>
+    <t>You Have No More Favourite Item</t>
+  </si>
+  <si>
+    <t>click_again_to_close_app</t>
+  </si>
+  <si>
+    <t>Click again to close app</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>resend_otp</t>
+  </si>
+  <si>
+    <t>Resend Otp</t>
+  </si>
+  <si>
+    <t>see_all</t>
+  </si>
+  <si>
+    <t>See All</t>
+  </si>
+  <si>
+    <t>subscribe</t>
+  </si>
+  <si>
+    <t>Subscribe</t>
+  </si>
+  <si>
+    <t>unsubscribe</t>
+  </si>
+  <si>
+    <t>login_method_top_header_txt</t>
+  </si>
+  <si>
+    <t>Unsubscribe</t>
+  </si>
+  <si>
+    <t>Login Method Top Header Txt</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>no_thanks</t>
+  </si>
+  <si>
+    <t>No thanks</t>
+  </si>
+  <si>
+    <t>Didnt Receive Otp?</t>
+  </si>
+  <si>
+    <t>expired</t>
+  </si>
+  <si>
+    <t>Expired</t>
+  </si>
+  <si>
+    <t xml:space="preserve">আনলিমিটেড উপভোগ করুন </t>
+  </si>
+  <si>
+    <t>Enter Correct Phone Number</t>
+  </si>
+  <si>
+    <t>enter_valid_otp</t>
+  </si>
+  <si>
+    <t>Enter Valid Otp</t>
+  </si>
+  <si>
+    <t>invaild_otp</t>
+  </si>
+  <si>
+    <t>invalid_phone_no</t>
+  </si>
+  <si>
+    <t>enter_phone_number</t>
+  </si>
+  <si>
+    <t>enter_correct_phone_number</t>
+  </si>
+  <si>
+    <t>no_history</t>
+  </si>
+  <si>
+    <t>No History</t>
+  </si>
+  <si>
+    <t>image_upload_failed</t>
+  </si>
+  <si>
+    <t>image_upload_successful</t>
+  </si>
+  <si>
+    <t>Image Upload Failed</t>
+  </si>
+  <si>
+    <t>Image Uploaded Succesfully</t>
+  </si>
+  <si>
+    <t>write_valid_otp</t>
+  </si>
+  <si>
+    <t>Write valid otp</t>
+  </si>
+  <si>
+    <t>Please select right operator</t>
+  </si>
+  <si>
+    <t>please_select_right_operator</t>
+  </si>
+  <si>
+    <t>watching_live</t>
+  </si>
+  <si>
+    <t>Watching Live</t>
+  </si>
+  <si>
+    <t>watch_live</t>
+  </si>
+  <si>
+    <t>Watch Live</t>
+  </si>
+  <si>
+    <t>change_photo</t>
+  </si>
+  <si>
+    <t>Change Photo</t>
+  </si>
+  <si>
+    <t>ছবি পরিবর্তন করুন</t>
+  </si>
+  <si>
+    <t>আপডেট প্রয়োজন</t>
+  </si>
+  <si>
+    <t xml:space="preserve">আপডেট প্রোফাইল </t>
+  </si>
+  <si>
+    <t>no_auto_subscription</t>
+  </si>
+  <si>
+    <t>Your Subscription will now renew automatically</t>
+  </si>
+  <si>
+    <t>write_here</t>
+  </si>
+  <si>
+    <t>Write Here</t>
+  </si>
+  <si>
+    <t>terms_and_conditions</t>
+  </si>
+  <si>
+    <t>Terms and Conditions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-5000445]0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1689,8 +3254,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2007,7 +3573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3F0CAB-B764-494E-8312-86738EB4583E}">
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="160" workbookViewId="0">
+    <sheetView topLeftCell="A108" zoomScale="138" workbookViewId="0">
       <selection activeCell="C159" sqref="C159"/>
     </sheetView>
   </sheetViews>
@@ -2022,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>374</v>
+        <v>316</v>
       </c>
       <c r="C1" t="s">
         <v>156</v>
@@ -2033,7 +3599,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
       <c r="C2" t="s">
         <v>157</v>
@@ -2044,7 +3610,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="C3" t="s">
         <v>158</v>
@@ -2055,7 +3621,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="C4" t="s">
         <v>159</v>
@@ -2066,7 +3632,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="C5" t="s">
         <v>160</v>
@@ -2077,7 +3643,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
       <c r="C6" t="s">
         <v>161</v>
@@ -2088,7 +3654,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="C7" t="s">
         <v>162</v>
@@ -2099,7 +3665,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>381</v>
+        <v>323</v>
       </c>
       <c r="C8" t="s">
         <v>163</v>
@@ -2110,7 +3676,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>324</v>
       </c>
       <c r="C9" t="s">
         <v>164</v>
@@ -2121,7 +3687,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>383</v>
+        <v>325</v>
       </c>
       <c r="C10" t="s">
         <v>165</v>
@@ -2132,7 +3698,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>384</v>
+        <v>326</v>
       </c>
       <c r="C11" t="s">
         <v>166</v>
@@ -2143,7 +3709,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>385</v>
+        <v>327</v>
       </c>
       <c r="C12" t="s">
         <v>167</v>
@@ -2154,7 +3720,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>386</v>
+        <v>328</v>
       </c>
       <c r="C13" t="s">
         <v>168</v>
@@ -2165,7 +3731,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>387</v>
+        <v>329</v>
       </c>
       <c r="C14" t="s">
         <v>169</v>
@@ -2176,7 +3742,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>388</v>
+        <v>330</v>
       </c>
       <c r="C15" t="s">
         <v>170</v>
@@ -2187,7 +3753,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="C16" t="s">
         <v>171</v>
@@ -2198,7 +3764,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="C17" t="s">
         <v>172</v>
@@ -2209,7 +3775,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>391</v>
+        <v>333</v>
       </c>
       <c r="C18" t="s">
         <v>173</v>
@@ -2220,7 +3786,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>392</v>
+        <v>334</v>
       </c>
       <c r="C19" t="s">
         <v>174</v>
@@ -2231,7 +3797,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>393</v>
+        <v>335</v>
       </c>
       <c r="C20" t="s">
         <v>175</v>
@@ -2242,7 +3808,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>394</v>
+        <v>336</v>
       </c>
       <c r="C21" t="s">
         <v>176</v>
@@ -2253,7 +3819,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="C22" t="s">
         <v>177</v>
@@ -2264,7 +3830,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>396</v>
+        <v>338</v>
       </c>
       <c r="C23" t="s">
         <v>178</v>
@@ -2275,7 +3841,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>397</v>
+        <v>339</v>
       </c>
       <c r="C24" t="s">
         <v>179</v>
@@ -2286,7 +3852,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>398</v>
+        <v>340</v>
       </c>
       <c r="C25" t="s">
         <v>180</v>
@@ -2297,7 +3863,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>399</v>
+        <v>341</v>
       </c>
       <c r="C26" t="s">
         <v>181</v>
@@ -2308,7 +3874,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>400</v>
+        <v>342</v>
       </c>
       <c r="C27" t="s">
         <v>182</v>
@@ -2319,7 +3885,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>401</v>
+        <v>343</v>
       </c>
       <c r="C28" t="s">
         <v>183</v>
@@ -2330,7 +3896,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>402</v>
+        <v>344</v>
       </c>
       <c r="C29" t="s">
         <v>184</v>
@@ -2341,7 +3907,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>403</v>
+        <v>345</v>
       </c>
       <c r="C30" t="s">
         <v>185</v>
@@ -2352,7 +3918,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>404</v>
+        <v>346</v>
       </c>
       <c r="C31" t="s">
         <v>186</v>
@@ -2363,7 +3929,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>405</v>
+        <v>347</v>
       </c>
       <c r="C32" t="s">
         <v>187</v>
@@ -2374,7 +3940,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>406</v>
+        <v>348</v>
       </c>
       <c r="C33" t="s">
         <v>188</v>
@@ -2385,7 +3951,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>407</v>
+        <v>349</v>
       </c>
       <c r="C34" t="s">
         <v>189</v>
@@ -2396,7 +3962,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="C35" t="s">
         <v>190</v>
@@ -2407,7 +3973,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>409</v>
+        <v>351</v>
       </c>
       <c r="C36" t="s">
         <v>191</v>
@@ -2418,7 +3984,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>410</v>
+        <v>352</v>
       </c>
       <c r="C37" t="s">
         <v>192</v>
@@ -2429,7 +3995,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="C38" t="s">
         <v>193</v>
@@ -2440,7 +4006,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>412</v>
+        <v>354</v>
       </c>
       <c r="C39" t="s">
         <v>194</v>
@@ -2451,7 +4017,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="C40" t="s">
         <v>195</v>
@@ -2462,7 +4028,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="C41" t="s">
         <v>196</v>
@@ -2473,7 +4039,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>415</v>
+        <v>357</v>
       </c>
       <c r="C42" t="s">
         <v>197</v>
@@ -2484,7 +4050,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="C43" t="s">
         <v>198</v>
@@ -2495,7 +4061,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>417</v>
+        <v>359</v>
       </c>
       <c r="C44" t="s">
         <v>199</v>
@@ -2506,7 +4072,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>418</v>
+        <v>360</v>
       </c>
       <c r="C45" t="s">
         <v>200</v>
@@ -2517,7 +4083,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>419</v>
+        <v>361</v>
       </c>
       <c r="C46" t="s">
         <v>201</v>
@@ -2528,7 +4094,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="C47" t="s">
         <v>202</v>
@@ -2539,7 +4105,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="C48" t="s">
         <v>203</v>
@@ -2550,7 +4116,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>422</v>
+        <v>364</v>
       </c>
       <c r="C49" t="s">
         <v>204</v>
@@ -2561,7 +4127,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>423</v>
+        <v>365</v>
       </c>
       <c r="C50" t="s">
         <v>205</v>
@@ -2572,7 +4138,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>424</v>
+        <v>366</v>
       </c>
       <c r="C51" t="s">
         <v>206</v>
@@ -2583,7 +4149,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="C52" t="s">
         <v>207</v>
@@ -2594,7 +4160,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>426</v>
+        <v>368</v>
       </c>
       <c r="C53" t="s">
         <v>208</v>
@@ -2605,7 +4171,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
       <c r="C54" t="s">
         <v>209</v>
@@ -2616,7 +4182,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>428</v>
+        <v>370</v>
       </c>
       <c r="C55" t="s">
         <v>210</v>
@@ -2627,7 +4193,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="C56" t="s">
         <v>211</v>
@@ -2638,7 +4204,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>430</v>
+        <v>372</v>
       </c>
       <c r="C57" t="s">
         <v>212</v>
@@ -2649,7 +4215,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>431</v>
+        <v>373</v>
       </c>
       <c r="C58" t="s">
         <v>213</v>
@@ -2660,7 +4226,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>432</v>
+        <v>374</v>
       </c>
       <c r="C59" t="s">
         <v>214</v>
@@ -2671,7 +4237,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>433</v>
+        <v>375</v>
       </c>
       <c r="C60" t="s">
         <v>215</v>
@@ -2682,7 +4248,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>434</v>
+        <v>376</v>
       </c>
       <c r="C61" t="s">
         <v>216</v>
@@ -2693,7 +4259,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>435</v>
+        <v>377</v>
       </c>
       <c r="C62" t="s">
         <v>217</v>
@@ -2704,7 +4270,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>436</v>
+        <v>378</v>
       </c>
       <c r="C63" t="s">
         <v>218</v>
@@ -2715,7 +4281,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>437</v>
+        <v>379</v>
       </c>
       <c r="C64" t="s">
         <v>219</v>
@@ -2726,7 +4292,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="C65" t="s">
         <v>220</v>
@@ -2737,7 +4303,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>439</v>
+        <v>381</v>
       </c>
       <c r="C66" t="s">
         <v>221</v>
@@ -2748,7 +4314,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>440</v>
+        <v>382</v>
       </c>
       <c r="C67" t="s">
         <v>222</v>
@@ -2759,7 +4325,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>441</v>
+        <v>383</v>
       </c>
       <c r="C68" t="s">
         <v>223</v>
@@ -2770,7 +4336,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>442</v>
+        <v>384</v>
       </c>
       <c r="C69" t="s">
         <v>224</v>
@@ -2781,7 +4347,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>443</v>
+        <v>385</v>
       </c>
       <c r="C70" t="s">
         <v>225</v>
@@ -2792,7 +4358,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>444</v>
+        <v>386</v>
       </c>
       <c r="C71" t="s">
         <v>226</v>
@@ -2803,7 +4369,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>445</v>
+        <v>387</v>
       </c>
       <c r="C72" t="s">
         <v>227</v>
@@ -2814,7 +4380,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>446</v>
+        <v>388</v>
       </c>
       <c r="C73" t="s">
         <v>228</v>
@@ -2825,7 +4391,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>447</v>
+        <v>389</v>
       </c>
       <c r="C74" t="s">
         <v>229</v>
@@ -2836,7 +4402,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>524</v>
+        <v>466</v>
       </c>
       <c r="C75" t="s">
         <v>230</v>
@@ -2847,7 +4413,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>525</v>
+        <v>467</v>
       </c>
       <c r="C76" t="s">
         <v>231</v>
@@ -2858,7 +4424,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>526</v>
+        <v>468</v>
       </c>
       <c r="C77" t="s">
         <v>232</v>
@@ -2869,7 +4435,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>527</v>
+        <v>469</v>
       </c>
       <c r="C78" t="s">
         <v>233</v>
@@ -2880,7 +4446,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>528</v>
+        <v>470</v>
       </c>
       <c r="C79" t="s">
         <v>234</v>
@@ -2891,7 +4457,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>529</v>
+        <v>471</v>
       </c>
       <c r="C80" t="s">
         <v>235</v>
@@ -2902,7 +4468,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>448</v>
+        <v>390</v>
       </c>
       <c r="C81" t="s">
         <v>236</v>
@@ -2913,7 +4479,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>449</v>
+        <v>391</v>
       </c>
       <c r="C82" t="s">
         <v>237</v>
@@ -2924,7 +4490,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>450</v>
+        <v>392</v>
       </c>
       <c r="C83" t="s">
         <v>238</v>
@@ -2935,7 +4501,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>451</v>
+        <v>393</v>
       </c>
       <c r="C84" t="s">
         <v>239</v>
@@ -2946,7 +4512,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>452</v>
+        <v>394</v>
       </c>
       <c r="C85" t="s">
         <v>240</v>
@@ -2957,7 +4523,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>453</v>
+        <v>395</v>
       </c>
       <c r="C86" t="s">
         <v>241</v>
@@ -2968,7 +4534,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>454</v>
+        <v>396</v>
       </c>
       <c r="C87" t="s">
         <v>242</v>
@@ -2979,7 +4545,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>455</v>
+        <v>397</v>
       </c>
       <c r="C88" t="s">
         <v>243</v>
@@ -2990,7 +4556,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>456</v>
+        <v>398</v>
       </c>
       <c r="C89" t="s">
         <v>244</v>
@@ -3001,7 +4567,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>457</v>
+        <v>399</v>
       </c>
       <c r="C90" t="s">
         <v>245</v>
@@ -3012,7 +4578,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>458</v>
+        <v>400</v>
       </c>
       <c r="C91" t="s">
         <v>246</v>
@@ -3023,7 +4589,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>459</v>
+        <v>401</v>
       </c>
       <c r="C92" t="s">
         <v>247</v>
@@ -3034,7 +4600,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>460</v>
+        <v>402</v>
       </c>
       <c r="C93" t="s">
         <v>248</v>
@@ -3045,7 +4611,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>461</v>
+        <v>403</v>
       </c>
       <c r="C94" t="s">
         <v>249</v>
@@ -3056,7 +4622,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>462</v>
+        <v>404</v>
       </c>
       <c r="C95" t="s">
         <v>250</v>
@@ -3067,7 +4633,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>463</v>
+        <v>405</v>
       </c>
       <c r="C96" t="s">
         <v>251</v>
@@ -3078,7 +4644,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>464</v>
+        <v>406</v>
       </c>
       <c r="C97" t="s">
         <v>252</v>
@@ -3089,7 +4655,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>465</v>
+        <v>407</v>
       </c>
       <c r="C98" t="s">
         <v>253</v>
@@ -3100,7 +4666,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>466</v>
+        <v>408</v>
       </c>
       <c r="C99" t="s">
         <v>254</v>
@@ -3111,7 +4677,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>467</v>
+        <v>409</v>
       </c>
       <c r="C100" t="s">
         <v>255</v>
@@ -3122,7 +4688,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>468</v>
+        <v>410</v>
       </c>
       <c r="C101" t="s">
         <v>256</v>
@@ -3133,7 +4699,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>469</v>
+        <v>411</v>
       </c>
       <c r="C102" t="s">
         <v>257</v>
@@ -3144,7 +4710,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>470</v>
+        <v>412</v>
       </c>
       <c r="C103" t="s">
         <v>258</v>
@@ -3155,7 +4721,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>471</v>
+        <v>413</v>
       </c>
       <c r="C104" t="s">
         <v>259</v>
@@ -3166,7 +4732,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>472</v>
+        <v>414</v>
       </c>
       <c r="C105" t="s">
         <v>260</v>
@@ -3177,7 +4743,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>473</v>
+        <v>415</v>
       </c>
       <c r="C106" t="s">
         <v>261</v>
@@ -3188,7 +4754,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>474</v>
+        <v>416</v>
       </c>
       <c r="C107" t="s">
         <v>262</v>
@@ -3199,7 +4765,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>475</v>
+        <v>417</v>
       </c>
       <c r="C108" t="s">
         <v>263</v>
@@ -3210,7 +4776,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>476</v>
+        <v>418</v>
       </c>
       <c r="C109" t="s">
         <v>264</v>
@@ -3221,7 +4787,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>477</v>
+        <v>419</v>
       </c>
       <c r="C110" t="s">
         <v>265</v>
@@ -3232,7 +4798,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>478</v>
+        <v>420</v>
       </c>
       <c r="C111" t="s">
         <v>266</v>
@@ -3243,7 +4809,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>479</v>
+        <v>421</v>
       </c>
       <c r="C112" t="s">
         <v>267</v>
@@ -3254,7 +4820,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>480</v>
+        <v>422</v>
       </c>
       <c r="C113" t="s">
         <v>268</v>
@@ -3265,7 +4831,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>481</v>
+        <v>423</v>
       </c>
       <c r="C114" t="s">
         <v>269</v>
@@ -3276,7 +4842,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>482</v>
+        <v>424</v>
       </c>
       <c r="C115" t="s">
         <v>270</v>
@@ -3287,7 +4853,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>483</v>
+        <v>425</v>
       </c>
       <c r="C116" t="s">
         <v>271</v>
@@ -3298,7 +4864,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>484</v>
+        <v>426</v>
       </c>
       <c r="C117" t="s">
         <v>272</v>
@@ -3309,7 +4875,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>485</v>
+        <v>427</v>
       </c>
       <c r="C118" t="s">
         <v>273</v>
@@ -3320,7 +4886,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>486</v>
+        <v>428</v>
       </c>
       <c r="C119" t="s">
         <v>274</v>
@@ -3331,7 +4897,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>487</v>
+        <v>429</v>
       </c>
       <c r="C120" t="s">
         <v>275</v>
@@ -3342,7 +4908,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>488</v>
+        <v>430</v>
       </c>
       <c r="C121" t="s">
         <v>276</v>
@@ -3353,7 +4919,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>489</v>
+        <v>431</v>
       </c>
       <c r="C122" t="s">
         <v>277</v>
@@ -3364,7 +4930,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>490</v>
+        <v>432</v>
       </c>
       <c r="C123" t="s">
         <v>278</v>
@@ -3375,7 +4941,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>491</v>
+        <v>433</v>
       </c>
       <c r="C124" t="s">
         <v>279</v>
@@ -3386,7 +4952,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>492</v>
+        <v>434</v>
       </c>
       <c r="C125" t="s">
         <v>280</v>
@@ -3397,7 +4963,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>493</v>
+        <v>435</v>
       </c>
       <c r="C126" t="s">
         <v>281</v>
@@ -3408,7 +4974,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>494</v>
+        <v>436</v>
       </c>
       <c r="C127" t="s">
         <v>282</v>
@@ -3419,7 +4985,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>495</v>
+        <v>437</v>
       </c>
       <c r="C128" t="s">
         <v>283</v>
@@ -3430,7 +4996,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>496</v>
+        <v>438</v>
       </c>
       <c r="C129" t="s">
         <v>284</v>
@@ -3441,7 +5007,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>497</v>
+        <v>439</v>
       </c>
       <c r="C130" t="s">
         <v>285</v>
@@ -3452,7 +5018,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>498</v>
+        <v>440</v>
       </c>
       <c r="C131" t="s">
         <v>286</v>
@@ -3463,7 +5029,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>499</v>
+        <v>441</v>
       </c>
       <c r="C132" t="s">
         <v>287</v>
@@ -3474,7 +5040,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>500</v>
+        <v>442</v>
       </c>
       <c r="C133" t="s">
         <v>288</v>
@@ -3485,7 +5051,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>501</v>
+        <v>443</v>
       </c>
       <c r="C134" t="s">
         <v>289</v>
@@ -3496,7 +5062,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>502</v>
+        <v>444</v>
       </c>
       <c r="C135" t="s">
         <v>290</v>
@@ -3507,7 +5073,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>503</v>
+        <v>445</v>
       </c>
       <c r="C136" t="s">
         <v>291</v>
@@ -3518,7 +5084,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>504</v>
+        <v>446</v>
       </c>
       <c r="C137" t="s">
         <v>292</v>
@@ -3529,7 +5095,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>505</v>
+        <v>447</v>
       </c>
       <c r="C138" t="s">
         <v>293</v>
@@ -3540,7 +5106,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="C139" t="s">
         <v>294</v>
@@ -3551,7 +5117,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>507</v>
+        <v>449</v>
       </c>
       <c r="C140" t="s">
         <v>295</v>
@@ -3562,7 +5128,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>508</v>
+        <v>450</v>
       </c>
       <c r="C141" t="s">
         <v>296</v>
@@ -3573,7 +5139,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>509</v>
+        <v>451</v>
       </c>
       <c r="C142" t="s">
         <v>297</v>
@@ -3584,7 +5150,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>510</v>
+        <v>452</v>
       </c>
       <c r="C143" t="s">
         <v>298</v>
@@ -3595,7 +5161,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>511</v>
+        <v>453</v>
       </c>
       <c r="C144" t="s">
         <v>299</v>
@@ -3606,7 +5172,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>512</v>
+        <v>454</v>
       </c>
       <c r="C145" t="s">
         <v>300</v>
@@ -3617,7 +5183,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>513</v>
+        <v>455</v>
       </c>
       <c r="C146" t="s">
         <v>301</v>
@@ -3628,7 +5194,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>514</v>
+        <v>456</v>
       </c>
       <c r="C147" t="s">
         <v>302</v>
@@ -3639,10 +5205,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>515</v>
+        <v>457</v>
       </c>
       <c r="C148" t="s">
-        <v>530</v>
+        <v>472</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -3650,7 +5216,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>516</v>
+        <v>458</v>
       </c>
       <c r="C149" t="s">
         <v>303</v>
@@ -3661,7 +5227,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>517</v>
+        <v>459</v>
       </c>
       <c r="C150" t="s">
         <v>304</v>
@@ -3669,10 +5235,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>531</v>
+        <v>473</v>
       </c>
       <c r="B151" t="s">
-        <v>532</v>
+        <v>474</v>
       </c>
       <c r="C151" t="s">
         <v>305</v>
@@ -3683,7 +5249,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>518</v>
+        <v>460</v>
       </c>
       <c r="C152" t="s">
         <v>306</v>
@@ -3691,10 +5257,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>533</v>
+        <v>475</v>
       </c>
       <c r="B153" t="s">
-        <v>534</v>
+        <v>476</v>
       </c>
       <c r="C153" t="s">
         <v>307</v>
@@ -3705,7 +5271,7 @@
         <v>151</v>
       </c>
       <c r="B154" t="s">
-        <v>519</v>
+        <v>461</v>
       </c>
       <c r="C154" t="s">
         <v>308</v>
@@ -3713,10 +5279,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>536</v>
+        <v>478</v>
       </c>
       <c r="B155" t="s">
-        <v>535</v>
+        <v>477</v>
       </c>
       <c r="C155" t="s">
         <v>309</v>
@@ -3724,10 +5290,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>537</v>
+        <v>479</v>
       </c>
       <c r="B156" t="s">
-        <v>538</v>
+        <v>480</v>
       </c>
       <c r="C156" t="s">
         <v>310</v>
@@ -3735,10 +5301,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>539</v>
+        <v>481</v>
       </c>
       <c r="B157" t="s">
-        <v>540</v>
+        <v>482</v>
       </c>
       <c r="C157" t="s">
         <v>311</v>
@@ -3749,7 +5315,7 @@
         <v>152</v>
       </c>
       <c r="B158" t="s">
-        <v>520</v>
+        <v>462</v>
       </c>
       <c r="C158" t="s">
         <v>312</v>
@@ -3760,7 +5326,7 @@
         <v>153</v>
       </c>
       <c r="B159" t="s">
-        <v>521</v>
+        <v>463</v>
       </c>
       <c r="C159" t="s">
         <v>313</v>
@@ -3771,7 +5337,7 @@
         <v>154</v>
       </c>
       <c r="B160" t="s">
-        <v>522</v>
+        <v>464</v>
       </c>
       <c r="C160" t="s">
         <v>314</v>
@@ -3782,7 +5348,7 @@
         <v>155</v>
       </c>
       <c r="B161" t="s">
-        <v>523</v>
+        <v>465</v>
       </c>
       <c r="C161" t="s">
         <v>315</v>
@@ -3795,1482 +5361,3428 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CF7B10-8A83-C844-9233-3895305C52AA}">
-  <dimension ref="A1:B163"/>
+  <dimension ref="A1:K165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="71.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C3" t="s">
+        <v>888</v>
+      </c>
+      <c r="D3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C4" t="s">
+        <v>889</v>
+      </c>
+      <c r="D4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D5" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C6" t="s">
+        <v>890</v>
+      </c>
+      <c r="D6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D8" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D10" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D11" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D12" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D13" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>487</v>
+      </c>
+      <c r="C14" t="s">
+        <v>891</v>
+      </c>
+      <c r="D14" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>348</v>
+      </c>
+      <c r="D15" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D16" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>488</v>
+      </c>
+      <c r="C17" t="s">
+        <v>892</v>
+      </c>
+      <c r="D17" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>489</v>
+      </c>
+      <c r="C18" t="s">
+        <v>893</v>
+      </c>
+      <c r="D18" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>490</v>
+      </c>
+      <c r="C19" t="s">
+        <v>894</v>
+      </c>
+      <c r="D19" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>491</v>
+      </c>
+      <c r="C20" t="s">
+        <v>895</v>
+      </c>
+      <c r="D20" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>492</v>
+      </c>
+      <c r="C21" t="s">
+        <v>896</v>
+      </c>
+      <c r="D21" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>493</v>
+      </c>
+      <c r="C22" t="s">
+        <v>897</v>
+      </c>
+      <c r="D22" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>494</v>
+      </c>
+      <c r="C23" t="s">
+        <v>898</v>
+      </c>
+      <c r="D23" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>495</v>
+      </c>
+      <c r="C24" t="s">
+        <v>899</v>
+      </c>
+      <c r="D24" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>496</v>
+      </c>
+      <c r="C25">
+        <v>880</v>
+      </c>
+      <c r="D25" s="1">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>497</v>
+      </c>
+      <c r="C26" t="s">
+        <v>900</v>
+      </c>
+      <c r="D26" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>498</v>
+      </c>
+      <c r="C27" t="s">
+        <v>901</v>
+      </c>
+      <c r="D27" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>499</v>
+      </c>
+      <c r="C28" t="s">
+        <v>902</v>
+      </c>
+      <c r="D28" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>500</v>
+      </c>
+      <c r="C29" t="s">
+        <v>903</v>
+      </c>
+      <c r="D29" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>501</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D30" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>503</v>
+      </c>
+      <c r="C31" t="s">
+        <v>904</v>
+      </c>
+      <c r="D31" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>504</v>
+      </c>
+      <c r="C32" t="s">
+        <v>905</v>
+      </c>
+      <c r="D32" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C33" t="s">
+        <v>906</v>
+      </c>
+      <c r="D33" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>506</v>
+      </c>
+      <c r="C34">
+        <v>1834927083</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1834548739</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>507</v>
+      </c>
+      <c r="C35" t="s">
+        <v>907</v>
+      </c>
+      <c r="D35" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D36" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>508</v>
+      </c>
+      <c r="C37" t="s">
+        <v>908</v>
+      </c>
+      <c r="D37" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>509</v>
+      </c>
+      <c r="C38" t="s">
+        <v>909</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D39" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C40" t="s">
+        <v>910</v>
+      </c>
+      <c r="D40" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D41" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C42" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C43" t="s">
+        <v>912</v>
+      </c>
+      <c r="D43" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>510</v>
+      </c>
+      <c r="C44" t="s">
+        <v>913</v>
+      </c>
+      <c r="D44" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>511</v>
+      </c>
+      <c r="C45" t="s">
+        <v>914</v>
+      </c>
+      <c r="D45" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>512</v>
+      </c>
+      <c r="C46" t="s">
+        <v>915</v>
+      </c>
+      <c r="D46" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>513</v>
+      </c>
+      <c r="C47" t="s">
+        <v>916</v>
+      </c>
+      <c r="D47" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>403</v>
+      </c>
+      <c r="D48" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>514</v>
+      </c>
+      <c r="C49" t="s">
+        <v>917</v>
+      </c>
+      <c r="D49" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>515</v>
+      </c>
+      <c r="D50" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>516</v>
+      </c>
+      <c r="C51" t="s">
+        <v>918</v>
+      </c>
+      <c r="E51" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>517</v>
+      </c>
+      <c r="C52" t="s">
+        <v>919</v>
+      </c>
+      <c r="E52" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
+        <v>518</v>
+      </c>
+      <c r="C53" t="s">
+        <v>920</v>
+      </c>
+      <c r="D53" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>519</v>
+      </c>
+      <c r="C54" t="s">
+        <v>921</v>
+      </c>
+      <c r="D54" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D55" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>520</v>
+      </c>
+      <c r="C56" t="s">
+        <v>922</v>
+      </c>
+      <c r="D56" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>521</v>
+      </c>
+      <c r="C57" t="s">
+        <v>923</v>
+      </c>
+      <c r="D57" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" t="s">
+        <v>415</v>
+      </c>
+      <c r="D58" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D59" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D60" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D61" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>522</v>
+      </c>
+      <c r="C62" t="s">
+        <v>924</v>
+      </c>
+      <c r="D62" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>523</v>
+      </c>
+      <c r="C63" t="s">
+        <v>925</v>
+      </c>
+      <c r="D63" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>524</v>
+      </c>
+      <c r="C64" t="s">
+        <v>926</v>
+      </c>
+      <c r="D64" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" t="s">
+        <v>454</v>
+      </c>
+      <c r="D65" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D66" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>525</v>
+      </c>
+      <c r="C67" t="s">
+        <v>927</v>
+      </c>
+      <c r="D67" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>526</v>
+      </c>
+      <c r="C68" t="s">
+        <v>928</v>
+      </c>
+      <c r="D68" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>527</v>
+      </c>
+      <c r="C69" t="s">
+        <v>929</v>
+      </c>
+      <c r="D69" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>528</v>
+      </c>
+      <c r="C70" t="s">
+        <v>930</v>
+      </c>
+      <c r="D70" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C71" t="s">
+        <v>379</v>
+      </c>
+      <c r="D71" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" t="s">
+        <v>402</v>
+      </c>
+      <c r="D72" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>529</v>
+      </c>
+      <c r="C73" t="s">
+        <v>931</v>
+      </c>
+      <c r="D73" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>530</v>
+      </c>
+      <c r="C74" t="s">
+        <v>932</v>
+      </c>
+      <c r="D74" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>531</v>
+      </c>
+      <c r="C75" t="s">
+        <v>933</v>
+      </c>
+      <c r="D75" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>532</v>
+      </c>
+      <c r="C76" t="s">
+        <v>934</v>
+      </c>
+      <c r="D76" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>533</v>
+      </c>
+      <c r="C77" t="s">
+        <v>935</v>
+      </c>
+      <c r="D77" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>534</v>
+      </c>
+      <c r="C78" t="s">
+        <v>936</v>
+      </c>
+      <c r="D78" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>535</v>
+      </c>
+      <c r="C79" t="s">
+        <v>937</v>
+      </c>
+      <c r="D79" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>536</v>
+      </c>
+      <c r="C80" t="s">
+        <v>938</v>
+      </c>
+      <c r="D80" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>537</v>
+      </c>
+      <c r="C81" t="s">
+        <v>939</v>
+      </c>
+      <c r="D81" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>538</v>
+      </c>
+      <c r="C82" t="s">
+        <v>940</v>
+      </c>
+      <c r="D82" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>539</v>
+      </c>
+      <c r="C83" t="s">
+        <v>941</v>
+      </c>
+      <c r="D83" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>540</v>
+      </c>
+      <c r="C84" t="s">
+        <v>942</v>
+      </c>
+      <c r="D84" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>541</v>
+      </c>
+      <c r="C85" t="s">
+        <v>943</v>
+      </c>
+      <c r="D85" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>542</v>
+      </c>
+      <c r="C86" t="s">
+        <v>944</v>
+      </c>
+      <c r="D86" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>543</v>
+      </c>
+      <c r="C87" t="s">
+        <v>945</v>
+      </c>
+      <c r="D87" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>320</v>
+      </c>
+      <c r="D88" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>544</v>
+      </c>
+      <c r="C89" t="s">
+        <v>946</v>
+      </c>
+      <c r="D89" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>545</v>
+      </c>
+      <c r="C90" t="s">
+        <v>947</v>
+      </c>
+      <c r="D90" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>546</v>
+      </c>
+      <c r="C91" t="s">
+        <v>948</v>
+      </c>
+      <c r="D91" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>547</v>
+      </c>
+      <c r="C92" t="s">
+        <v>949</v>
+      </c>
+      <c r="D92" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>548</v>
+      </c>
+      <c r="C93" t="s">
+        <v>950</v>
+      </c>
+      <c r="D93" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>549</v>
+      </c>
+      <c r="C94" t="s">
+        <v>951</v>
+      </c>
+      <c r="D94" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>550</v>
+      </c>
+      <c r="C95" t="s">
+        <v>952</v>
+      </c>
+      <c r="D95" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>551</v>
+      </c>
+      <c r="C96" t="s">
+        <v>953</v>
+      </c>
+      <c r="D96" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>552</v>
+      </c>
+      <c r="C97" t="s">
+        <v>954</v>
+      </c>
+      <c r="D97" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>553</v>
+      </c>
+      <c r="C98" t="s">
+        <v>955</v>
+      </c>
+      <c r="D98" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>554</v>
+      </c>
+      <c r="C99" t="s">
+        <v>956</v>
+      </c>
+      <c r="D99" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>555</v>
+      </c>
+      <c r="C100" t="s">
+        <v>957</v>
+      </c>
+      <c r="D100" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>556</v>
+      </c>
+      <c r="C101" t="s">
+        <v>958</v>
+      </c>
+      <c r="D101" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>557</v>
+      </c>
+      <c r="C102" t="s">
+        <v>959</v>
+      </c>
+      <c r="D102" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" t="s">
+        <v>334</v>
+      </c>
+      <c r="D103" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>558</v>
+      </c>
+      <c r="C104" t="s">
+        <v>960</v>
+      </c>
+      <c r="D104" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>559</v>
+      </c>
+      <c r="C105" t="s">
+        <v>961</v>
+      </c>
+      <c r="D105" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>560</v>
+      </c>
+      <c r="C106" t="s">
+        <v>962</v>
+      </c>
+      <c r="D106" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>561</v>
+      </c>
+      <c r="C107" t="s">
+        <v>963</v>
+      </c>
+      <c r="D107" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>562</v>
+      </c>
+      <c r="C108" t="s">
+        <v>964</v>
+      </c>
+      <c r="D108" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>563</v>
+      </c>
+      <c r="C109" t="s">
+        <v>965</v>
+      </c>
+      <c r="D109" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>564</v>
+      </c>
+      <c r="C110" t="s">
+        <v>966</v>
+      </c>
+      <c r="D110" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>565</v>
+      </c>
+      <c r="C111" t="s">
+        <v>967</v>
+      </c>
+      <c r="D111" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>566</v>
+      </c>
+      <c r="C112" t="s">
+        <v>968</v>
+      </c>
+      <c r="D112" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>567</v>
+      </c>
+      <c r="C113" t="s">
+        <v>969</v>
+      </c>
+      <c r="D113" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>568</v>
+      </c>
+      <c r="C114" t="s">
+        <v>970</v>
+      </c>
+      <c r="D114" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>569</v>
+      </c>
+      <c r="C115" t="s">
+        <v>971</v>
+      </c>
+      <c r="D115" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>570</v>
+      </c>
+      <c r="C116" t="s">
+        <v>972</v>
+      </c>
+      <c r="D116" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>571</v>
+      </c>
+      <c r="C117" t="s">
+        <v>973</v>
+      </c>
+      <c r="D117" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>572</v>
+      </c>
+      <c r="C118" t="s">
+        <v>974</v>
+      </c>
+      <c r="D118" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>573</v>
+      </c>
+      <c r="C119" t="s">
+        <v>975</v>
+      </c>
+      <c r="D119" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>574</v>
+      </c>
+      <c r="C120" t="s">
+        <v>976</v>
+      </c>
+      <c r="D120" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>575</v>
+      </c>
+      <c r="C121" t="s">
+        <v>977</v>
+      </c>
+      <c r="D121" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>576</v>
+      </c>
+      <c r="C122" t="s">
+        <v>978</v>
+      </c>
+      <c r="D122" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>577</v>
+      </c>
+      <c r="C123" t="s">
+        <v>979</v>
+      </c>
+      <c r="D123" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>578</v>
+      </c>
+      <c r="C124" t="s">
+        <v>980</v>
+      </c>
+      <c r="D124" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>579</v>
+      </c>
+      <c r="C125" t="s">
+        <v>981</v>
+      </c>
+      <c r="D125" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>580</v>
+      </c>
+      <c r="C126" t="s">
+        <v>982</v>
+      </c>
+      <c r="D126" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>581</v>
+      </c>
+      <c r="C127" t="s">
+        <v>983</v>
+      </c>
+      <c r="D127" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>582</v>
+      </c>
+      <c r="C128" t="s">
+        <v>984</v>
+      </c>
+      <c r="D128" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>583</v>
+      </c>
+      <c r="C129" t="s">
+        <v>985</v>
+      </c>
+      <c r="D129" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>584</v>
+      </c>
+      <c r="C130" t="s">
+        <v>986</v>
+      </c>
+      <c r="D130" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" t="s">
+        <v>338</v>
+      </c>
+      <c r="D131" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>585</v>
+      </c>
+      <c r="C132" t="s">
+        <v>987</v>
+      </c>
+      <c r="D132" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>586</v>
+      </c>
+      <c r="C134" t="s">
+        <v>988</v>
+      </c>
+      <c r="D134" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>587</v>
+      </c>
+      <c r="C135" t="s">
+        <v>989</v>
+      </c>
+      <c r="D135" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>588</v>
+      </c>
+      <c r="C136" t="s">
+        <v>990</v>
+      </c>
+      <c r="D136" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>589</v>
+      </c>
+      <c r="C137" t="s">
+        <v>991</v>
+      </c>
+      <c r="D137" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>590</v>
+      </c>
+      <c r="C138" t="s">
+        <v>992</v>
+      </c>
+      <c r="D138" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>591</v>
+      </c>
+      <c r="C139" t="s">
+        <v>993</v>
+      </c>
+      <c r="D139" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>592</v>
+      </c>
+      <c r="C140" t="s">
+        <v>994</v>
+      </c>
+      <c r="D140" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>593</v>
+      </c>
+      <c r="C141" t="s">
+        <v>995</v>
+      </c>
+      <c r="D141" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142" t="s">
+        <v>51</v>
+      </c>
+      <c r="C142" t="s">
+        <v>367</v>
+      </c>
+      <c r="D142" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>479</v>
+      </c>
+      <c r="C143" t="s">
+        <v>480</v>
+      </c>
+      <c r="D143" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D144" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
+        <v>594</v>
+      </c>
+      <c r="C145" t="s">
+        <v>996</v>
+      </c>
+      <c r="D145" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146" t="s">
+        <v>595</v>
+      </c>
+      <c r="C146" t="s">
+        <v>997</v>
+      </c>
+      <c r="E146" t="s">
+        <v>740</v>
+      </c>
+      <c r="F146" t="s">
+        <v>610</v>
+      </c>
+      <c r="G146" t="s">
+        <v>611</v>
+      </c>
+      <c r="H146" t="s">
+        <v>612</v>
+      </c>
+      <c r="I146" t="s">
+        <v>613</v>
+      </c>
+      <c r="J146" t="s">
+        <v>614</v>
+      </c>
+      <c r="K146" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>596</v>
+      </c>
+      <c r="C147" t="s">
+        <v>998</v>
+      </c>
+      <c r="E147" t="s">
+        <v>741</v>
+      </c>
+      <c r="F147" t="s">
+        <v>612</v>
+      </c>
+      <c r="G147" t="s">
+        <v>613</v>
+      </c>
+      <c r="H147" t="s">
+        <v>614</v>
+      </c>
+      <c r="I147" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D148" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>597</v>
+      </c>
+      <c r="C149" t="s">
+        <v>999</v>
+      </c>
+      <c r="D149" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150" t="s">
+        <v>598</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D150" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>599</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>600</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>44</v>
+      </c>
+      <c r="C153" t="s">
+        <v>360</v>
+      </c>
+      <c r="D153" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155" t="s">
+        <v>601</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D155" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" t="s">
+        <v>325</v>
+      </c>
+      <c r="D156" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D157" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>602</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D158" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159" t="s">
+        <v>603</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D159" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160" t="s">
+        <v>604</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D160" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D161" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D162" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>605</v>
+      </c>
+      <c r="C163" t="s">
+        <v>752</v>
+      </c>
+      <c r="D163" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>606</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D164" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>607</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D165" t="s">
+        <v>754</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED7931A-D0A1-A744-A873-C9F6059F675B}">
+  <dimension ref="A1:B166"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>755</v>
       </c>
       <c r="B1" t="str">
         <f>PROPER(A1)</f>
-        <v>Bangla</v>
+        <v xml:space="preserve">About </v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>756</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B65" si="0">PROPER(A2)</f>
-        <v>Banglish</v>
+        <v>All Channels</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>757</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>English</v>
+        <v>App Exit Warning Message</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>758</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>Got It</v>
+        <v>App Name</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>759</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>Ok</v>
+        <v>Auto Renewal</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>Alert</v>
+        <v>Back</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>760</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>On</v>
+        <v>Become A Premium Member</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>761</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>Off</v>
+        <v>Button Cancel</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>762</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>Settings</v>
+        <v>Button Next</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>763</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>Version</v>
+        <v>Button Resend Otp Code</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>764</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>Share</v>
+        <v>Button See All</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>765</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>Feedback</v>
+        <v>Button Subscribe</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>317</v>
+        <v>766</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>About Us</v>
+        <v>Button Unsubscribe</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>767</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>About</v>
+        <v>Buy This</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>768</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>Favourite</v>
+        <v>Cancel 2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
-        <v>Yes</v>
+        <v>Cancel</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>488</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
-        <v>No</v>
+        <v>Cast</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>769</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>Customization</v>
+        <v>Catchup Tv</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>770</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
-        <v>Profile</v>
+        <v>Change Language</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>318</v>
+        <v>771</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
-        <v>Hot Key</v>
+        <v>Choose Payment Method</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>492</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
-        <v>Shake</v>
+        <v>Confirm</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>319</v>
+        <v>493</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
-        <v>Shake Mode</v>
+        <v>Confirmation</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>772</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
-        <v>Support</v>
+        <v>Content Selector</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>773</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
-        <v>Names</v>
+        <v>Continue Watching</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>774</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
-        <v>Name</v>
+        <v>Country Code Bd</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>775</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
-        <v>App</v>
+        <v>Current Plan</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>320</v>
+        <v>776</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
-        <v>More Apps</v>
+        <v>Date Of Birth</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>321</v>
+        <v>499</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
-        <v>Free Apps</v>
+        <v>Description</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>322</v>
+        <v>500</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
-        <v>App Store</v>
+        <v>Details</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>777</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
-        <v>Submit</v>
+        <v>Didnt Receive Otp</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>502</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
-        <v>Start</v>
+        <v>Director</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>503</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
-        <v>End</v>
+        <v>Dot</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>778</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
-        <v>Cancel</v>
+        <v>Dummy Dialog Text</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>323</v>
+        <v>779</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
-        <v>Gps Settings</v>
+        <v>Dummy Dialog Title</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>324</v>
+        <v>780</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
-        <v>Home Screen Widget</v>
+        <v>Dummy Phone No Without Code</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>507</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
-        <v>Widget</v>
+        <v>Edit</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>325</v>
+        <v>781</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
-        <v>Image Capture</v>
+        <v>Ends On</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>326</v>
+        <v>782</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
-        <v>Video Recording</v>
+        <v>Enjoy Unlimited Internet</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>327</v>
+        <v>783</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
-        <v>Hot Key Sensivity</v>
+        <v>Enjoy Unlimited</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>784</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
-        <v>Basic</v>
+        <v>Enter Correct Phone Num Msg</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>785</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
-        <v>Reset</v>
+        <v>Enter Mobile Number</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>328</v>
+        <v>786</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
-        <v>Reset All</v>
+        <v>Enter Valid Otp Msg</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>787</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
-        <v>Save</v>
+        <v>Error Invaild Otp</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>788</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
-        <v>Back</v>
+        <v>Error Invalid Phone No</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>789</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
-        <v>Update</v>
+        <v>Expand Collapse Android Widgets</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>511</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
-        <v>Help</v>
+        <v>Faq</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>329</v>
+        <v>790</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>Ask Help</v>
+        <v>Favorite Videos</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>513</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
-        <v>Instruction</v>
+        <v>Favorite</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
-        <v>Report</v>
+        <v>Female</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>330</v>
+        <v>791</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
-        <v>Report Show</v>
+        <v>First Name</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>331</v>
+        <v>792</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
-        <v>Report Submit</v>
+        <v>Force Update Msg</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>793</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
-        <v>Title</v>
+        <v>Free Access 1000 N Natoks Movies More 2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>794</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
-        <v>Record</v>
+        <v>Free Access 1000 N Natoks Movies More</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>795</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
-        <v>Map</v>
+        <v>Frequently Asked Questions</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>796</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
-        <v>Tips</v>
+        <v>Get Otp</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>797</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
-        <v>Menu</v>
+        <v>Have No Watch History</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>798</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
-        <v>Others</v>
+        <v>Hi There</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>521</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
-        <v>Sent</v>
+        <v>History</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>332</v>
+        <v>105</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
-        <v>Not Sent</v>
+        <v>Home</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>333</v>
+        <v>799</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
-        <v>Sent Failed</v>
+        <v>Image Upload Failure Msg</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>800</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
-        <v>Complete</v>
+        <v>Image Upload Success Msg</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>334</v>
+        <v>801</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
-        <v>Not Complete</v>
+        <v>Invalid Otp Msg</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>335</v>
+        <v>522</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
-        <v>Main Title</v>
+        <v>Language</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>802</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
-        <v>Login</v>
+        <v>Last Name</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>803</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
-        <v>Logout</v>
+        <v>Live Tv</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" ref="B66:B129" si="1">PROPER(A66)</f>
-        <v>Signup</v>
+        <v>Loading</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>804</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="1"/>
-        <v>Signin</v>
+        <v>Login Method Button Top Header Txt</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>805</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="1"/>
-        <v>Signout</v>
+        <v>Login Register With Mobile Number</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>336</v>
+        <v>806</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="1"/>
-        <v>Keep Logged Id</v>
+        <v>Login Required Message</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>807</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="1"/>
-        <v>Id</v>
+        <v>Login Success Msg</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>808</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="1"/>
-        <v>User</v>
+        <v>Login To Use</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="1"/>
-        <v>Userid</v>
+        <v>Login</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="1"/>
-        <v>Username</v>
+        <v>Male</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>809</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="1"/>
-        <v>Password</v>
+        <v>Msg No Internet</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>337</v>
+        <v>810</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="1"/>
-        <v>Password Show</v>
+        <v>My Account</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>338</v>
+        <v>811</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="1"/>
-        <v>Password Remember</v>
+        <v>My Favourite</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>339</v>
+        <v>812</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="1"/>
-        <v>Password Change</v>
+        <v>My Rating</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>340</v>
+        <v>813</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="1"/>
-        <v>Password Old</v>
+        <v>Natok Movies More</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>341</v>
+        <v>814</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="1"/>
-        <v>Password New</v>
+        <v>Navigation Drawer Close</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>342</v>
+        <v>815</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="1"/>
-        <v>Password New Again</v>
+        <v>Navigation Drawer Open</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>816</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="1"/>
-        <v>Enter</v>
+        <v>Network Error Msg</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>817</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="1"/>
-        <v>Again</v>
+        <v>Network Error</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>343</v>
+        <v>818</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="1"/>
-        <v>Give Id Pass Please</v>
+        <v>No Action Plan</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>344</v>
+        <v>819</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="1"/>
-        <v>Please Try Again Later</v>
+        <v>No Payment History</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>345</v>
+        <v>820</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="1"/>
-        <v>Please Try Again</v>
+        <v>No Result For Your Search</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>346</v>
+        <v>821</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="1"/>
-        <v>Please Try Again With Proper Credential</v>
+        <v>No Results For Your Search</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>347</v>
+        <v>822</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="1"/>
-        <v>Login Failed</v>
+        <v>Normal Update Msg</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>348</v>
+        <v>823</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="1"/>
-        <v>Your Profile</v>
+        <v>Now Watching</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>349</v>
+        <v>4</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="1"/>
-        <v>Your Name</v>
+        <v>Ok</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>824</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="1"/>
-        <v>Server</v>
+        <v>Other Payment Options</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>825</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="1"/>
-        <v>Boy</v>
+        <v>Otp Edt View Hint Msg</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>826</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="1"/>
-        <v>Girl</v>
+        <v>Otp Sent Msg</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>547</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="1"/>
-        <v>Male</v>
+        <v>Owner</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>827</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="1"/>
-        <v>Female</v>
+        <v>Package Description</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>828</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="1"/>
-        <v>Information</v>
+        <v>Package Not Found</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>829</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="1"/>
-        <v>Comments</v>
+        <v>Pay With Mobile Operator</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>830</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="1"/>
-        <v>Total</v>
+        <v>Pay With</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>831</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="1"/>
-        <v>Special</v>
+        <v>Payment History</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>832</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="1"/>
-        <v>Position</v>
+        <v>Please Login Register</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>833</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="1"/>
-        <v>Mobile</v>
+        <v>Please Login</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>350</v>
+        <v>555</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="1"/>
-        <v>Mobile No</v>
+        <v>Premium</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>834</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="1"/>
-        <v>Phone</v>
+        <v>Privacy Policy</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>351</v>
+        <v>835</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="1"/>
-        <v>Phone No</v>
+        <v>Profile Info Update Success Msg</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="1"/>
-        <v>Picture</v>
+        <v>Profile</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>836</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="1"/>
-        <v>Form</v>
+        <v>Program Guide</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>837</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="1"/>
-        <v>Home</v>
+        <v>Rate Now</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>838</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="1"/>
-        <v>Gift</v>
+        <v>Recommended For You</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>561</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="1"/>
-        <v>Percentage</v>
+        <v>Recommended</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>839</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="1"/>
-        <v>Board</v>
+        <v>Release On</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>840</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="1"/>
-        <v>Pass</v>
+        <v>Remind Me</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>841</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="1"/>
-        <v>Fail</v>
+        <v>Required Proper Data Connection Msg</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>565</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="1"/>
-        <v>Copy</v>
+        <v>Retry</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>352</v>
+        <v>842</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="1"/>
-        <v>Copy Nokol</v>
+        <v>Search Input Empty Msg</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>567</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="1"/>
-        <v>Photocopy</v>
+        <v>Search</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>843</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="1"/>
-        <v>Test</v>
+        <v>Select Profile Img</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>844</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="1"/>
-        <v>Good</v>
+        <v>Select Your Plan</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>845</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="1"/>
-        <v>Bad</v>
+        <v>Send Feedback</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>846</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="1"/>
-        <v>Worse</v>
+        <v>Sending Otp Message After Click Next</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>572</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="1"/>
-        <v>Best</v>
+        <v>Setting</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>573</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="1"/>
-        <v>Easy</v>
+        <v>Sex</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>847</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="1"/>
-        <v>Medium</v>
+        <v>Showing All</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>848</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="1"/>
-        <v>Hard</v>
+        <v>Sign In</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>849</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="1"/>
-        <v>Extreme</v>
+        <v>Sign Out</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>850</v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="1"/>
-        <v>Normal</v>
+        <v>Some Error</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>851</v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="1"/>
-        <v>Small</v>
+        <v>Somthing Went Wrong</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>852</v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="1"/>
-        <v>Big</v>
+        <v>Speech Not Supported</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>853</v>
       </c>
       <c r="B127" t="str">
         <f t="shared" si="1"/>
-        <v>High</v>
+        <v>Speech Prompt</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>854</v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="1"/>
-        <v>Low</v>
+        <v>Subscription Failure Message</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>855</v>
       </c>
       <c r="B129" t="str">
         <f t="shared" si="1"/>
-        <v>Year</v>
+        <v>Subscription Found Msg</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>353</v>
+        <v>856</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" ref="B130:B163" si="2">PROPER(A130)</f>
-        <v>Year Sal</v>
+        <f t="shared" ref="B130:B166" si="2">PROPER(A130)</f>
+        <v>Subscription Success Msg</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>128</v>
+        <v>584</v>
       </c>
       <c r="B131" t="str">
         <f t="shared" si="2"/>
-        <v>Month</v>
+        <v>Subscription</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="B132" t="str">
         <f t="shared" si="2"/>
-        <v>Day</v>
+        <v>Support</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>130</v>
+        <v>857</v>
       </c>
       <c r="B133" t="str">
         <f t="shared" si="2"/>
-        <v>Night</v>
+        <v>Take Me Home</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>131</v>
+        <v>858</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="2"/>
-        <v>Evining</v>
+        <v>Terms Amp Conditions</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>354</v>
+        <v>859</v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="2"/>
-        <v>Good Evining</v>
+        <v>Text Login And</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>860</v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="2"/>
-        <v>Morning</v>
+        <v>Text Login I Agree To</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>355</v>
+        <v>861</v>
       </c>
       <c r="B137" t="str">
         <f t="shared" si="2"/>
-        <v>Good Morning</v>
+        <v>Text Login Privacy Policy</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>135</v>
+        <v>862</v>
       </c>
       <c r="B138" t="str">
         <f t="shared" si="2"/>
-        <v>Noon</v>
+        <v>Text Login Terms Of Use</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>136</v>
+        <v>863</v>
       </c>
       <c r="B139" t="str">
         <f t="shared" si="2"/>
-        <v>Past</v>
+        <v>Text Terms And Condition</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>864</v>
       </c>
       <c r="B140" t="str">
         <f t="shared" si="2"/>
-        <v>Present</v>
+        <v>This Video Is Not Available</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>865</v>
       </c>
       <c r="B141" t="str">
         <f t="shared" si="2"/>
-        <v>Future</v>
+        <v>Title Enter Phone Number</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>139</v>
+        <v>866</v>
       </c>
       <c r="B142" t="str">
         <f t="shared" si="2"/>
-        <v>Proposal</v>
+        <v>Title Verify Phone Number</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="B143" t="str">
         <f t="shared" si="2"/>
-        <v>Complain</v>
+        <v>Title</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>356</v>
+        <v>867</v>
       </c>
       <c r="B144" t="str">
         <f t="shared" si="2"/>
-        <v>Complain Box</v>
+        <v>Try Again</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>142</v>
+        <v>868</v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="2"/>
-        <v>Designation</v>
+        <v>Type Here</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>357</v>
+        <v>869</v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="2"/>
-        <v>Tell A Friend</v>
+        <v>Unable Pick Img Msg</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>144</v>
+        <v>870</v>
       </c>
       <c r="B147" t="str">
         <f t="shared" si="2"/>
-        <v>Loading</v>
+        <v>Unlimited Videos On Demand Watch Anywhere Watch Anytime 2</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>358</v>
+        <v>871</v>
       </c>
       <c r="B148" t="str">
         <f t="shared" si="2"/>
-        <v>Sending Info</v>
+        <v>Unlimited Videos On Demand Watch Anywhere Watch Anytime</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>359</v>
+        <v>872</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="2"/>
-        <v>Data Sending</v>
+        <v>Unsubscription Confirmation Msg</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>360</v>
+        <v>873</v>
       </c>
       <c r="B150" t="str">
         <f t="shared" si="2"/>
-        <v>Press Ok Button</v>
+        <v>Upcomming Programs</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>361</v>
+        <v>874</v>
       </c>
       <c r="B151" t="str">
         <f t="shared" si="2"/>
-        <v>Write Your Name Please</v>
+        <v>Update Now</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>362</v>
+        <v>875</v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="2"/>
-        <v>No Data Available</v>
+        <v>Update Profile</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>363</v>
+        <v>876</v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="2"/>
-        <v>Warning Send Data</v>
+        <v>Update Required</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>364</v>
+        <v>44</v>
       </c>
       <c r="B154" t="str">
         <f t="shared" si="2"/>
-        <v>Press Here</v>
+        <v>Update</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>365</v>
+        <v>877</v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="2"/>
-        <v>Ok Internet</v>
+        <v>Upload Change Photo</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>366</v>
+        <v>878</v>
       </c>
       <c r="B156" t="str">
         <f t="shared" si="2"/>
-        <v>Server Ok</v>
+        <v>User Default Name</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>367</v>
+        <v>9</v>
       </c>
       <c r="B157" t="str">
         <f t="shared" si="2"/>
-        <v>App Close Warning</v>
+        <v>Version</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>368</v>
+        <v>879</v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="2"/>
-        <v>Re Try</v>
+        <v>Watch Live Now</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>369</v>
+        <v>880</v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="2"/>
-        <v>Profile Update Msg</v>
+        <v>Watch Now</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>370</v>
+        <v>881</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="2"/>
-        <v>Share App</v>
+        <v>Watch Specific Episode</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>371</v>
+        <v>882</v>
       </c>
       <c r="B161" t="str">
         <f t="shared" si="2"/>
-        <v>Call Helpline</v>
+        <v>Watching Catch Up</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>372</v>
+        <v>883</v>
       </c>
       <c r="B162" t="str">
         <f t="shared" si="2"/>
-        <v>Click To Know More</v>
+        <v xml:space="preserve">Watching Live On </v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>373</v>
+        <v>884</v>
       </c>
       <c r="B163" t="str">
         <f t="shared" si="2"/>
-        <v>Reset All Msg</v>
+        <v>Wrong Payment Gateway Selection Msg</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>605</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="2"/>
+        <v>Xxxxxxxxxx</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>885</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="2"/>
+        <v>You Have No Favourite Item</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>886</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="2"/>
+        <v>You Have No More Favourite Item</v>
       </c>
     </row>
   </sheetData>

--- a/files/strings.xlsx
+++ b/files/strings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/storex/dLab/andStudio/lime-strings/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA05CD54-C9EB-8C45-8799-0B4C9D2A9D73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38C8719-2272-A148-9864-597799D15408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2A2A4A0D-8F67-1149-8B79-481C2E1F4E29}"/>
   </bookViews>
@@ -22,12 +22,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="1074">
   <si>
     <t>bangla</t>
   </si>
@@ -1610,9 +1615,6 @@
     <t>login_required_message</t>
   </si>
   <si>
-    <t>login_success_msg</t>
-  </si>
-  <si>
     <t>login_to_use</t>
   </si>
   <si>
@@ -1637,21 +1639,12 @@
     <t>navigation_drawer_open</t>
   </si>
   <si>
-    <t>network_error_msg</t>
-  </si>
-  <si>
     <t>network_error</t>
   </si>
   <si>
-    <t>no_action_plan</t>
-  </si>
-  <si>
     <t>no_payment_history</t>
   </si>
   <si>
-    <t>no_result_for_your_search</t>
-  </si>
-  <si>
     <t>no_results_for_your_search</t>
   </si>
   <si>
@@ -1667,9 +1660,6 @@
     <t>otp_edt_view_hint_msg</t>
   </si>
   <si>
-    <t>otp_sent_msg</t>
-  </si>
-  <si>
     <t>owner</t>
   </si>
   <si>
@@ -1733,15 +1723,9 @@
     <t>search</t>
   </si>
   <si>
-    <t>select_profile_img</t>
-  </si>
-  <si>
     <t>select_your_plan</t>
   </si>
   <si>
-    <t>send_feedback</t>
-  </si>
-  <si>
     <t>sending_otp_message_after_click_next</t>
   </si>
   <si>
@@ -1760,9 +1744,6 @@
     <t>sign_out</t>
   </si>
   <si>
-    <t>some_error</t>
-  </si>
-  <si>
     <t>somthing_went_wrong</t>
   </si>
   <si>
@@ -1772,33 +1753,15 @@
     <t>speech_prompt</t>
   </si>
   <si>
-    <t>subscription_failure_message</t>
-  </si>
-  <si>
-    <t>subscription_found_msg</t>
-  </si>
-  <si>
-    <t>subscription_success_msg</t>
-  </si>
-  <si>
     <t>subscription</t>
   </si>
   <si>
-    <t>take_me_home</t>
-  </si>
-  <si>
     <t>text_login_and</t>
   </si>
   <si>
     <t>text_login_i_agree_to</t>
   </si>
   <si>
-    <t>text_login_privacy_policy</t>
-  </si>
-  <si>
-    <t>text_login_terms_of_use</t>
-  </si>
-  <si>
     <t>text_terms_and_condition</t>
   </si>
   <si>
@@ -1853,9 +1816,6 @@
     <t>you_have_no_more_favourite_item</t>
   </si>
   <si>
-    <t>আপনার অনুসন্ধানের জন্য কোনো ফলাফল নেই</t>
-  </si>
-  <si>
     <t>&lt;/string</t>
   </si>
   <si>
@@ -2030,9 +1990,6 @@
     <t>ছবি সফলভাবে আপলোড করা হয়েছে</t>
   </si>
   <si>
-    <t xml:space="preserve"> দয়া করে সঠিক কোড লিখুন</t>
-  </si>
-  <si>
     <t>শেষ নাম</t>
   </si>
   <si>
@@ -2081,9 +2038,6 @@
     <t>দয়া করে আপনার ইন্টারনেট সংযোগ চেক করুন।</t>
   </si>
   <si>
-    <t>আমরা একটি অপ্রত্যাশিত সমস্যার সম্মুখীন হয়েছি।</t>
-  </si>
-  <si>
     <t>কোন প্ল্যান সক্রিয় নেই</t>
   </si>
   <si>
@@ -2120,9 +2074,6 @@
     <t>আপনার মোবাইল অপারেটরের সাহায্যে পেমেন্ট করুন</t>
   </si>
   <si>
-    <t xml:space="preserve">পে উইথ: </t>
-  </si>
-  <si>
     <t>পেমেন্ট হিস্ট্রি</t>
   </si>
   <si>
@@ -2177,9 +2128,6 @@
     <t>প্ল্যান নির্বাচন করুন</t>
   </si>
   <si>
-    <t>মতামত পাঠান</t>
-  </si>
-  <si>
     <t>আপনার অ্যাকাউন্ট যাচাই করতে পরবর্তী ক্লিক করুন। আপনার নম্বর যাচাই করতে একটি এসএমএস পাঠানো যেতে পারে। বার্তা এবং ডাটা হার প্রযোজ্য হতে পারে.</t>
   </si>
   <si>
@@ -2816,12 +2764,6 @@
     <t>Login Required Message</t>
   </si>
   <si>
-    <t>Login Success Msg</t>
-  </si>
-  <si>
-    <t>Login To Use</t>
-  </si>
-  <si>
     <t>Msg No Internet</t>
   </si>
   <si>
@@ -2843,15 +2785,9 @@
     <t>Navigation Drawer Open</t>
   </si>
   <si>
-    <t>Network Error Msg</t>
-  </si>
-  <si>
     <t>Network Error</t>
   </si>
   <si>
-    <t>No Action Plan</t>
-  </si>
-  <si>
     <t>No Payment History</t>
   </si>
   <si>
@@ -2873,9 +2809,6 @@
     <t>Otp Edt View Hint Msg</t>
   </si>
   <si>
-    <t>Otp Sent Msg</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -2945,9 +2878,6 @@
     <t>Select Your Plan</t>
   </si>
   <si>
-    <t>Send Feedback</t>
-  </si>
-  <si>
     <t>Sending Otp Message After Click Next</t>
   </si>
   <si>
@@ -2966,9 +2896,6 @@
     <t>Sign Out</t>
   </si>
   <si>
-    <t>Some Error</t>
-  </si>
-  <si>
     <t>Somthing Went Wrong</t>
   </si>
   <si>
@@ -2990,21 +2917,12 @@
     <t>Subscription</t>
   </si>
   <si>
-    <t>Take Me Home</t>
-  </si>
-  <si>
     <t>Text Login And</t>
   </si>
   <si>
     <t>Text Login I Agree To</t>
   </si>
   <si>
-    <t>Text Login Privacy Policy</t>
-  </si>
-  <si>
-    <t>Text Login Terms Of Use</t>
-  </si>
-  <si>
     <t>Text Terms And Condition</t>
   </si>
   <si>
@@ -3216,6 +3134,126 @@
   </si>
   <si>
     <t>Terms and Conditions</t>
+  </si>
+  <si>
+    <t>login_successful</t>
+  </si>
+  <si>
+    <t>Login Successful</t>
+  </si>
+  <si>
+    <t>Login To Use this feature</t>
+  </si>
+  <si>
+    <t>please_check_your_internet</t>
+  </si>
+  <si>
+    <t>Please check your internet</t>
+  </si>
+  <si>
+    <t>no_active_plan</t>
+  </si>
+  <si>
+    <t>No Active Plan</t>
+  </si>
+  <si>
+    <t>no_search_result</t>
+  </si>
+  <si>
+    <t>otp_sent_successfully</t>
+  </si>
+  <si>
+    <t>Otp Sent Successfully</t>
+  </si>
+  <si>
+    <t>পে উইথ</t>
+  </si>
+  <si>
+    <t>somthing_went_wrong_try_again</t>
+  </si>
+  <si>
+    <t>back_to_home</t>
+  </si>
+  <si>
+    <t>Back to Home</t>
+  </si>
+  <si>
+    <t>terms_of_use</t>
+  </si>
+  <si>
+    <t>Terms Of Use</t>
+  </si>
+  <si>
+    <t>msg_subscription_failure</t>
+  </si>
+  <si>
+    <t>msg_subscription_found</t>
+  </si>
+  <si>
+    <t>msg_subscription_successful</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>Voucher</t>
+  </si>
+  <si>
+    <t>invalid_voucher</t>
+  </si>
+  <si>
+    <t>Invalid Voucher</t>
+  </si>
+  <si>
+    <t>redeem</t>
+  </si>
+  <si>
+    <t>Redeem</t>
+  </si>
+  <si>
+    <t>enter_voucher</t>
+  </si>
+  <si>
+    <t>Enter Voucher</t>
+  </si>
+  <si>
+    <t>ভাউচার</t>
+  </si>
+  <si>
+    <t>ভাউচার লিখুন</t>
+  </si>
+  <si>
+    <t>ইনভ্যালিড ভাউচার</t>
+  </si>
+  <si>
+    <t>রিডিম</t>
+  </si>
+  <si>
+    <t>শর্তাবলী</t>
+  </si>
+  <si>
+    <t>select_profile_picture</t>
+  </si>
+  <si>
+    <t>give_feedback</t>
+  </si>
+  <si>
+    <t>Give Feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">মতামত দিন </t>
+  </si>
+  <si>
+    <t>সাইন ইন</t>
+  </si>
+  <si>
+    <t>কিনুন</t>
+  </si>
+  <si>
+    <t>ইনভ্যালিড ওটিপি</t>
+  </si>
+  <si>
+    <t>দয়া করে সঠিক কোড লিখুন</t>
   </si>
 </sst>
 </file>
@@ -3223,15 +3261,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-5000445]0"/>
+    <numFmt numFmtId="164" formatCode="[$-5000445]0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3254,9 +3298,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5361,10 +5406,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CF7B10-8A83-C844-9233-3895305C52AA}">
-  <dimension ref="A1:K165"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5379,21 +5424,21 @@
         <v>483</v>
       </c>
       <c r="C1" t="s">
-        <v>887</v>
+        <v>868</v>
       </c>
       <c r="D1" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>1009</v>
+        <v>980</v>
       </c>
       <c r="C2" t="s">
-        <v>1010</v>
+        <v>981</v>
       </c>
       <c r="D2" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5404,10 +5449,10 @@
         <v>484</v>
       </c>
       <c r="C3" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
       <c r="D3" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="E3">
         <v>11</v>
@@ -5418,10 +5463,10 @@
         <v>485</v>
       </c>
       <c r="C4" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="D4" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5432,7 +5477,7 @@
         <v>359</v>
       </c>
       <c r="D5" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -5440,10 +5485,10 @@
         <v>486</v>
       </c>
       <c r="C6" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
       <c r="D6" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -5457,73 +5502,73 @@
         <v>348</v>
       </c>
       <c r="D7" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1011</v>
+        <v>982</v>
       </c>
       <c r="C8" t="s">
-        <v>1012</v>
+        <v>983</v>
       </c>
       <c r="D8" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>1013</v>
+        <v>984</v>
       </c>
       <c r="C9" t="s">
-        <v>1014</v>
+        <v>985</v>
       </c>
       <c r="D9" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>1015</v>
+        <v>986</v>
       </c>
       <c r="C10" t="s">
-        <v>1016</v>
+        <v>987</v>
       </c>
       <c r="D10" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>1017</v>
+        <v>988</v>
       </c>
       <c r="C11" t="s">
-        <v>1018</v>
+        <v>989</v>
       </c>
       <c r="D11" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>1019</v>
+        <v>990</v>
       </c>
       <c r="C12" t="s">
-        <v>1021</v>
+        <v>992</v>
       </c>
       <c r="D12" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>1023</v>
+        <v>994</v>
       </c>
       <c r="C13" t="s">
-        <v>1024</v>
+        <v>995</v>
       </c>
       <c r="D13" t="s">
-        <v>627</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5531,10 +5576,10 @@
         <v>487</v>
       </c>
       <c r="C14" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
       <c r="D14" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5545,18 +5590,18 @@
         <v>348</v>
       </c>
       <c r="D15" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>1025</v>
+        <v>996</v>
       </c>
       <c r="C16" t="s">
-        <v>1026</v>
+        <v>997</v>
       </c>
       <c r="D16" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -5567,10 +5612,10 @@
         <v>488</v>
       </c>
       <c r="C17" t="s">
-        <v>892</v>
+        <v>873</v>
       </c>
       <c r="D17" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -5581,10 +5626,10 @@
         <v>489</v>
       </c>
       <c r="C18" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
       <c r="D18" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -5592,10 +5637,10 @@
         <v>490</v>
       </c>
       <c r="C19" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="D19" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -5603,10 +5648,10 @@
         <v>491</v>
       </c>
       <c r="C20" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
       <c r="D20" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -5614,10 +5659,10 @@
         <v>492</v>
       </c>
       <c r="C21" t="s">
-        <v>896</v>
+        <v>877</v>
       </c>
       <c r="D21" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -5625,10 +5670,10 @@
         <v>493</v>
       </c>
       <c r="C22" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
       <c r="D22" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -5639,10 +5684,10 @@
         <v>494</v>
       </c>
       <c r="C23" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="D23" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -5650,10 +5695,10 @@
         <v>495</v>
       </c>
       <c r="C24" t="s">
-        <v>899</v>
+        <v>880</v>
       </c>
       <c r="D24" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -5672,10 +5717,10 @@
         <v>497</v>
       </c>
       <c r="C26" t="s">
-        <v>900</v>
+        <v>881</v>
       </c>
       <c r="D26" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -5683,10 +5728,10 @@
         <v>498</v>
       </c>
       <c r="C27" t="s">
-        <v>901</v>
+        <v>882</v>
       </c>
       <c r="D27" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -5694,10 +5739,10 @@
         <v>499</v>
       </c>
       <c r="C28" t="s">
-        <v>902</v>
+        <v>883</v>
       </c>
       <c r="D28" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -5705,10 +5750,10 @@
         <v>500</v>
       </c>
       <c r="C29" t="s">
-        <v>903</v>
+        <v>884</v>
       </c>
       <c r="D29" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -5716,21 +5761,24 @@
         <v>501</v>
       </c>
       <c r="C30" t="s">
-        <v>1027</v>
+        <v>998</v>
       </c>
       <c r="D30" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
       <c r="B31" t="s">
         <v>503</v>
       </c>
       <c r="C31" t="s">
-        <v>904</v>
+        <v>885</v>
       </c>
       <c r="D31" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -5741,10 +5789,10 @@
         <v>504</v>
       </c>
       <c r="C32" t="s">
-        <v>905</v>
+        <v>886</v>
       </c>
       <c r="D32" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -5755,10 +5803,10 @@
         <v>505</v>
       </c>
       <c r="C33" t="s">
-        <v>906</v>
+        <v>887</v>
       </c>
       <c r="D33" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -5777,21 +5825,21 @@
         <v>507</v>
       </c>
       <c r="C35" t="s">
-        <v>907</v>
+        <v>888</v>
       </c>
       <c r="D35" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>1028</v>
+        <v>999</v>
       </c>
       <c r="C36" t="s">
-        <v>1029</v>
+        <v>1000</v>
       </c>
       <c r="D36" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -5799,10 +5847,10 @@
         <v>508</v>
       </c>
       <c r="C37" t="s">
-        <v>908</v>
+        <v>889</v>
       </c>
       <c r="D37" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -5810,62 +5858,65 @@
         <v>509</v>
       </c>
       <c r="C38" t="s">
-        <v>909</v>
+        <v>890</v>
       </c>
       <c r="D38" t="s">
-        <v>1030</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>1037</v>
+        <v>1008</v>
       </c>
       <c r="C39" t="s">
-        <v>1031</v>
+        <v>1002</v>
       </c>
       <c r="D39" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>1036</v>
+        <v>1007</v>
       </c>
       <c r="C40" t="s">
-        <v>910</v>
+        <v>891</v>
       </c>
       <c r="D40" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>1032</v>
+        <v>1003</v>
       </c>
       <c r="C41" t="s">
-        <v>1033</v>
+        <v>1004</v>
       </c>
       <c r="D41" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>1034</v>
+        <v>1005</v>
       </c>
       <c r="C42" t="s">
-        <v>911</v>
+        <v>892</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>1035</v>
+        <v>1006</v>
       </c>
       <c r="C43" t="s">
-        <v>912</v>
+        <v>893</v>
       </c>
       <c r="D43" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -5876,10 +5927,10 @@
         <v>510</v>
       </c>
       <c r="C44" t="s">
-        <v>913</v>
+        <v>894</v>
       </c>
       <c r="D44" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -5887,10 +5938,10 @@
         <v>511</v>
       </c>
       <c r="C45" t="s">
-        <v>914</v>
+        <v>895</v>
       </c>
       <c r="D45" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -5898,10 +5949,10 @@
         <v>512</v>
       </c>
       <c r="C46" t="s">
-        <v>915</v>
+        <v>896</v>
       </c>
       <c r="D46" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -5909,10 +5960,10 @@
         <v>513</v>
       </c>
       <c r="C47" t="s">
-        <v>916</v>
+        <v>897</v>
       </c>
       <c r="D47" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -5923,7 +5974,7 @@
         <v>403</v>
       </c>
       <c r="D48" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -5931,18 +5982,21 @@
         <v>514</v>
       </c>
       <c r="C49" t="s">
-        <v>917</v>
+        <v>898</v>
       </c>
       <c r="D49" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1</v>
+      </c>
       <c r="B50" t="s">
         <v>515</v>
       </c>
       <c r="D50" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -5953,10 +6007,10 @@
         <v>516</v>
       </c>
       <c r="C51" t="s">
-        <v>918</v>
+        <v>899</v>
       </c>
       <c r="E51" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -5967,10 +6021,10 @@
         <v>517</v>
       </c>
       <c r="C52" t="s">
-        <v>919</v>
+        <v>900</v>
       </c>
       <c r="E52" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -5981,10 +6035,10 @@
         <v>518</v>
       </c>
       <c r="C53" t="s">
-        <v>920</v>
+        <v>901</v>
       </c>
       <c r="D53" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -5992,21 +6046,21 @@
         <v>519</v>
       </c>
       <c r="C54" t="s">
-        <v>921</v>
+        <v>902</v>
       </c>
       <c r="D54" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>1038</v>
+        <v>1009</v>
       </c>
       <c r="C55" t="s">
-        <v>1039</v>
+        <v>1010</v>
       </c>
       <c r="D55" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -6014,10 +6068,10 @@
         <v>520</v>
       </c>
       <c r="C56" t="s">
-        <v>922</v>
+        <v>903</v>
       </c>
       <c r="D56" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -6025,10 +6079,10 @@
         <v>521</v>
       </c>
       <c r="C57" t="s">
-        <v>923</v>
+        <v>904</v>
       </c>
       <c r="D57" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -6044,35 +6098,35 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>1040</v>
+        <v>1011</v>
       </c>
       <c r="C59" t="s">
-        <v>1042</v>
+        <v>1013</v>
       </c>
       <c r="D59" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>1041</v>
+        <v>1012</v>
       </c>
       <c r="C60" t="s">
-        <v>1043</v>
+        <v>1014</v>
       </c>
       <c r="D60" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>1044</v>
+        <v>1015</v>
       </c>
       <c r="C61" t="s">
-        <v>1045</v>
+        <v>1016</v>
       </c>
       <c r="D61" t="s">
-        <v>667</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -6083,21 +6137,24 @@
         <v>522</v>
       </c>
       <c r="C62" t="s">
-        <v>924</v>
+        <v>905</v>
       </c>
       <c r="D62" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>1</v>
+      </c>
       <c r="B63" t="s">
         <v>523</v>
       </c>
       <c r="C63" t="s">
-        <v>925</v>
+        <v>906</v>
       </c>
       <c r="D63" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -6105,13 +6162,13 @@
         <v>524</v>
       </c>
       <c r="C64" t="s">
-        <v>926</v>
+        <v>907</v>
       </c>
       <c r="D64" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>144</v>
       </c>
@@ -6119,65 +6176,74 @@
         <v>454</v>
       </c>
       <c r="D65" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>1</v>
+      </c>
       <c r="B66" t="s">
-        <v>1020</v>
+        <v>991</v>
       </c>
       <c r="C66" t="s">
-        <v>1022</v>
+        <v>993</v>
       </c>
       <c r="D66" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>1</v>
+      </c>
       <c r="B67" t="s">
         <v>525</v>
       </c>
       <c r="C67" t="s">
-        <v>927</v>
+        <v>908</v>
       </c>
       <c r="D67" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1</v>
+      </c>
       <c r="B68" t="s">
         <v>526</v>
       </c>
       <c r="C68" t="s">
-        <v>928</v>
+        <v>909</v>
       </c>
       <c r="D68" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D69" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>527</v>
       </c>
-      <c r="C69" t="s">
-        <v>929</v>
-      </c>
-      <c r="D69" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>528</v>
-      </c>
       <c r="C70" t="s">
-        <v>930</v>
+        <v>1036</v>
       </c>
       <c r="D70" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>63</v>
       </c>
@@ -6185,10 +6251,10 @@
         <v>379</v>
       </c>
       <c r="D71" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>92</v>
       </c>
@@ -6199,172 +6265,193 @@
         <v>248</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>1</v>
+      </c>
       <c r="B73" t="s">
+        <v>528</v>
+      </c>
+      <c r="C73" t="s">
+        <v>910</v>
+      </c>
+      <c r="D73" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
         <v>529</v>
       </c>
-      <c r="C73" t="s">
-        <v>931</v>
-      </c>
-      <c r="D73" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+      <c r="C74" t="s">
+        <v>911</v>
+      </c>
+      <c r="D74" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="s">
         <v>530</v>
       </c>
-      <c r="C74" t="s">
-        <v>932</v>
-      </c>
-      <c r="D74" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
+      <c r="C75" t="s">
+        <v>912</v>
+      </c>
+      <c r="D75" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
         <v>531</v>
       </c>
-      <c r="C75" t="s">
-        <v>933</v>
-      </c>
-      <c r="D75" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+      <c r="C76" t="s">
+        <v>913</v>
+      </c>
+      <c r="D76" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" t="s">
         <v>532</v>
       </c>
-      <c r="C76" t="s">
-        <v>934</v>
-      </c>
-      <c r="D76" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
+      <c r="C77" t="s">
+        <v>914</v>
+      </c>
+      <c r="D77" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
         <v>533</v>
       </c>
-      <c r="C77" t="s">
-        <v>935</v>
-      </c>
-      <c r="D77" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+      <c r="C78" t="s">
+        <v>915</v>
+      </c>
+      <c r="D78" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
         <v>534</v>
       </c>
-      <c r="C78" t="s">
-        <v>936</v>
-      </c>
-      <c r="D78" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
+      <c r="C79" t="s">
+        <v>916</v>
+      </c>
+      <c r="D79" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D80" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
         <v>535</v>
       </c>
-      <c r="C79" t="s">
-        <v>937</v>
-      </c>
-      <c r="D79" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
+      <c r="C81" t="s">
+        <v>917</v>
+      </c>
+      <c r="D81" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D82" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
         <v>536</v>
       </c>
-      <c r="C80" t="s">
-        <v>938</v>
-      </c>
-      <c r="D80" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
+      <c r="C83" t="s">
+        <v>918</v>
+      </c>
+      <c r="D83" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C84" t="s">
+        <v>919</v>
+      </c>
+      <c r="D84" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
         <v>537</v>
       </c>
-      <c r="C81" t="s">
-        <v>939</v>
-      </c>
-      <c r="D81" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
+      <c r="C85" t="s">
+        <v>920</v>
+      </c>
+      <c r="D85" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
         <v>538</v>
       </c>
-      <c r="C82" t="s">
-        <v>940</v>
-      </c>
-      <c r="D82" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
+      <c r="C86" t="s">
+        <v>921</v>
+      </c>
+      <c r="D86" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
         <v>539</v>
       </c>
-      <c r="C83" t="s">
-        <v>941</v>
-      </c>
-      <c r="D83" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>540</v>
-      </c>
-      <c r="C84" t="s">
-        <v>942</v>
-      </c>
-      <c r="D84" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>541</v>
-      </c>
-      <c r="C85" t="s">
-        <v>943</v>
-      </c>
-      <c r="D85" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>542</v>
-      </c>
-      <c r="C86" t="s">
-        <v>944</v>
-      </c>
-      <c r="D86" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>543</v>
-      </c>
       <c r="C87" t="s">
-        <v>945</v>
+        <v>922</v>
       </c>
       <c r="D87" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>4</v>
       </c>
@@ -6375,161 +6462,167 @@
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
+        <v>540</v>
+      </c>
+      <c r="C89" t="s">
+        <v>923</v>
+      </c>
+      <c r="D89" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>541</v>
+      </c>
+      <c r="C90" t="s">
+        <v>924</v>
+      </c>
+      <c r="D90" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D91" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" t="s">
+        <v>542</v>
+      </c>
+      <c r="C92" t="s">
+        <v>925</v>
+      </c>
+      <c r="D92" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>543</v>
+      </c>
+      <c r="C93" t="s">
+        <v>926</v>
+      </c>
+      <c r="D93" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
         <v>544</v>
       </c>
-      <c r="C89" t="s">
-        <v>946</v>
-      </c>
-      <c r="D89" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
+      <c r="C94" t="s">
+        <v>927</v>
+      </c>
+      <c r="D94" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
         <v>545</v>
       </c>
-      <c r="C90" t="s">
-        <v>947</v>
-      </c>
-      <c r="D90" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
+      <c r="C95" t="s">
+        <v>928</v>
+      </c>
+      <c r="D95" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
         <v>546</v>
       </c>
-      <c r="C91" t="s">
-        <v>948</v>
-      </c>
-      <c r="D91" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
+      <c r="C96" t="s">
+        <v>929</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
         <v>547</v>
       </c>
-      <c r="C92" t="s">
-        <v>949</v>
-      </c>
-      <c r="D92" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
+      <c r="C97" t="s">
+        <v>930</v>
+      </c>
+      <c r="D97" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
         <v>548</v>
       </c>
-      <c r="C93" t="s">
-        <v>950</v>
-      </c>
-      <c r="D93" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
+      <c r="C98" t="s">
+        <v>931</v>
+      </c>
+      <c r="D98" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
         <v>549</v>
       </c>
-      <c r="C94" t="s">
-        <v>951</v>
-      </c>
-      <c r="D94" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
+      <c r="C99" t="s">
+        <v>932</v>
+      </c>
+      <c r="D99" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
         <v>550</v>
       </c>
-      <c r="C95" t="s">
-        <v>952</v>
-      </c>
-      <c r="D95" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
+      <c r="C100" t="s">
+        <v>933</v>
+      </c>
+      <c r="D100" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
         <v>551</v>
       </c>
-      <c r="C96" t="s">
-        <v>953</v>
-      </c>
-      <c r="D96" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
+      <c r="C101" t="s">
+        <v>934</v>
+      </c>
+      <c r="D101" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
         <v>552</v>
       </c>
-      <c r="C97" t="s">
-        <v>954</v>
-      </c>
-      <c r="D97" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>553</v>
-      </c>
-      <c r="C98" t="s">
-        <v>955</v>
-      </c>
-      <c r="D98" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
-        <v>554</v>
-      </c>
-      <c r="C99" t="s">
-        <v>956</v>
-      </c>
-      <c r="D99" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
-        <v>555</v>
-      </c>
-      <c r="C100" t="s">
-        <v>957</v>
-      </c>
-      <c r="D100" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
-        <v>556</v>
-      </c>
-      <c r="C101" t="s">
-        <v>958</v>
-      </c>
-      <c r="D101" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>557</v>
-      </c>
       <c r="C102" t="s">
-        <v>959</v>
+        <v>935</v>
       </c>
       <c r="D102" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
         <v>18</v>
       </c>
@@ -6537,304 +6630,328 @@
         <v>334</v>
       </c>
       <c r="D103" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
+        <v>553</v>
+      </c>
+      <c r="C104" t="s">
+        <v>936</v>
+      </c>
+      <c r="D104" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>554</v>
+      </c>
+      <c r="C105" t="s">
+        <v>937</v>
+      </c>
+      <c r="D105" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>555</v>
+      </c>
+      <c r="C106" t="s">
+        <v>938</v>
+      </c>
+      <c r="D106" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>556</v>
+      </c>
+      <c r="C107" t="s">
+        <v>939</v>
+      </c>
+      <c r="D107" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>557</v>
+      </c>
+      <c r="C108" t="s">
+        <v>940</v>
+      </c>
+      <c r="D108" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
         <v>558</v>
       </c>
-      <c r="C104" t="s">
-        <v>960</v>
-      </c>
-      <c r="D104" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
+      <c r="C109" t="s">
+        <v>941</v>
+      </c>
+      <c r="D109" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
         <v>559</v>
       </c>
-      <c r="C105" t="s">
-        <v>961</v>
-      </c>
-      <c r="D105" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
+      <c r="C110" t="s">
+        <v>942</v>
+      </c>
+      <c r="D110" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
         <v>560</v>
       </c>
-      <c r="C106" t="s">
-        <v>962</v>
-      </c>
-      <c r="D106" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
+      <c r="C111" t="s">
+        <v>943</v>
+      </c>
+      <c r="D111" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
         <v>561</v>
       </c>
-      <c r="C107" t="s">
-        <v>963</v>
-      </c>
-      <c r="D107" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
+      <c r="C112" t="s">
+        <v>944</v>
+      </c>
+      <c r="D112" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
         <v>562</v>
       </c>
-      <c r="C108" t="s">
-        <v>964</v>
-      </c>
-      <c r="D108" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
+      <c r="C113" t="s">
+        <v>945</v>
+      </c>
+      <c r="D113" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C114" t="s">
+        <v>946</v>
+      </c>
+      <c r="D114" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
         <v>563</v>
       </c>
-      <c r="C109" t="s">
-        <v>965</v>
-      </c>
-      <c r="D109" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B110" t="s">
+      <c r="C115" t="s">
+        <v>947</v>
+      </c>
+      <c r="D115" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
         <v>564</v>
       </c>
-      <c r="C110" t="s">
-        <v>966</v>
-      </c>
-      <c r="D110" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
+      <c r="C117" t="s">
+        <v>948</v>
+      </c>
+      <c r="D117" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
         <v>565</v>
       </c>
-      <c r="C111" t="s">
-        <v>967</v>
-      </c>
-      <c r="D111" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
-        <v>566</v>
-      </c>
-      <c r="C112" t="s">
-        <v>968</v>
-      </c>
-      <c r="D112" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
-        <v>567</v>
-      </c>
-      <c r="C113" t="s">
-        <v>969</v>
-      </c>
-      <c r="D113" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
-        <v>568</v>
-      </c>
-      <c r="C114" t="s">
-        <v>970</v>
-      </c>
-      <c r="D114" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
-        <v>569</v>
-      </c>
-      <c r="C115" t="s">
-        <v>971</v>
-      </c>
-      <c r="D115" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B116" t="s">
-        <v>570</v>
-      </c>
-      <c r="C116" t="s">
-        <v>972</v>
-      </c>
-      <c r="D116" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
-        <v>571</v>
-      </c>
-      <c r="C117" t="s">
-        <v>973</v>
-      </c>
-      <c r="D117" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
-        <v>572</v>
-      </c>
       <c r="C118" t="s">
-        <v>974</v>
+        <v>949</v>
       </c>
       <c r="D118" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B119" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C119" t="s">
-        <v>975</v>
+        <v>950</v>
       </c>
       <c r="D119" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B120" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="C120" t="s">
-        <v>976</v>
+        <v>951</v>
       </c>
       <c r="D120" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B121" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="C121" t="s">
-        <v>977</v>
+        <v>952</v>
       </c>
       <c r="D121" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C122" t="s">
-        <v>978</v>
+        <v>953</v>
       </c>
       <c r="D122" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="C123" t="s">
-        <v>979</v>
+        <v>954</v>
       </c>
       <c r="D123" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>578</v>
+        <v>1045</v>
       </c>
       <c r="C124" t="s">
-        <v>980</v>
+        <v>954</v>
       </c>
       <c r="D124" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1</v>
+      </c>
       <c r="B125" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C125" t="s">
-        <v>981</v>
+        <v>955</v>
       </c>
       <c r="D125" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1</v>
+      </c>
       <c r="B126" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C126" t="s">
-        <v>982</v>
+        <v>956</v>
       </c>
       <c r="D126" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>2</v>
+      </c>
       <c r="B127" t="s">
-        <v>581</v>
+        <v>1050</v>
       </c>
       <c r="C127" t="s">
-        <v>983</v>
+        <v>957</v>
       </c>
       <c r="D127" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>2</v>
+      </c>
       <c r="B128" t="s">
-        <v>582</v>
+        <v>1051</v>
       </c>
       <c r="C128" t="s">
-        <v>984</v>
+        <v>958</v>
       </c>
       <c r="D128" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>2</v>
+      </c>
       <c r="B129" t="s">
-        <v>583</v>
+        <v>1052</v>
       </c>
       <c r="C129" t="s">
-        <v>985</v>
+        <v>959</v>
       </c>
       <c r="D129" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="C130" t="s">
-        <v>986</v>
+        <v>960</v>
       </c>
       <c r="D130" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -6850,109 +6967,121 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B132" t="s">
-        <v>585</v>
+        <v>1046</v>
       </c>
       <c r="C132" t="s">
-        <v>987</v>
+        <v>1047</v>
       </c>
       <c r="D132" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
-        <v>1061</v>
+        <v>1032</v>
       </c>
       <c r="C133" t="s">
-        <v>1062</v>
+        <v>1033</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1</v>
+      </c>
       <c r="B134" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="C134" t="s">
-        <v>988</v>
+        <v>961</v>
       </c>
       <c r="D134" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1</v>
+      </c>
       <c r="B135" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="C135" t="s">
-        <v>989</v>
+        <v>962</v>
       </c>
       <c r="D135" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B136" t="s">
-        <v>588</v>
+        <v>551</v>
       </c>
       <c r="C136" t="s">
-        <v>990</v>
+        <v>934</v>
       </c>
       <c r="D136" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B137" t="s">
-        <v>589</v>
+        <v>1048</v>
       </c>
       <c r="C137" t="s">
-        <v>991</v>
+        <v>1049</v>
       </c>
       <c r="D137" t="s">
-        <v>732</v>
+        <v>713</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1</v>
+      </c>
       <c r="B138" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="C138" t="s">
-        <v>992</v>
+        <v>963</v>
       </c>
       <c r="D138" t="s">
-        <v>733</v>
+        <v>714</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B139" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="C139" t="s">
-        <v>993</v>
+        <v>964</v>
       </c>
       <c r="D139" t="s">
-        <v>734</v>
+        <v>715</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="C140" t="s">
-        <v>994</v>
+        <v>965</v>
       </c>
       <c r="D140" t="s">
-        <v>735</v>
+        <v>716</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="C141" t="s">
-        <v>995</v>
+        <v>966</v>
       </c>
       <c r="D141" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -6977,18 +7106,18 @@
         <v>480</v>
       </c>
       <c r="D143" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>1059</v>
+        <v>1030</v>
       </c>
       <c r="C144" t="s">
-        <v>1060</v>
+        <v>1031</v>
       </c>
       <c r="D144" t="s">
-        <v>738</v>
+        <v>719</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
@@ -6996,13 +7125,13 @@
         <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="C145" t="s">
-        <v>996</v>
+        <v>967</v>
       </c>
       <c r="D145" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
@@ -7010,31 +7139,31 @@
         <v>1</v>
       </c>
       <c r="B146" t="s">
+        <v>581</v>
+      </c>
+      <c r="C146" t="s">
+        <v>968</v>
+      </c>
+      <c r="E146" t="s">
+        <v>721</v>
+      </c>
+      <c r="F146" t="s">
         <v>595</v>
       </c>
-      <c r="C146" t="s">
-        <v>997</v>
-      </c>
-      <c r="E146" t="s">
-        <v>740</v>
-      </c>
-      <c r="F146" t="s">
-        <v>610</v>
-      </c>
       <c r="G146" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="H146" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="I146" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="J146" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="K146" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
@@ -7042,47 +7171,47 @@
         <v>1</v>
       </c>
       <c r="B147" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="C147" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="E147" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="F147" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="G147" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="H147" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="I147" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B148" t="s">
-        <v>1057</v>
+        <v>1028</v>
       </c>
       <c r="C148" t="s">
-        <v>1058</v>
+        <v>1029</v>
       </c>
       <c r="D148" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B149" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="C149" t="s">
-        <v>999</v>
+        <v>970</v>
       </c>
       <c r="D149" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
@@ -7090,35 +7219,35 @@
         <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="C150" t="s">
-        <v>1000</v>
+        <v>971</v>
       </c>
       <c r="D150" t="s">
-        <v>744</v>
+        <v>725</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B151" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="C151" t="s">
-        <v>1001</v>
+        <v>972</v>
       </c>
       <c r="D151" t="s">
-        <v>1056</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B152" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="C152" t="s">
-        <v>1002</v>
+        <v>973</v>
       </c>
       <c r="D152" t="s">
-        <v>1055</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
@@ -7134,13 +7263,13 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B154" t="s">
-        <v>1052</v>
+        <v>1023</v>
       </c>
       <c r="C154" t="s">
-        <v>1053</v>
+        <v>1024</v>
       </c>
       <c r="D154" t="s">
-        <v>1054</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
@@ -7148,13 +7277,13 @@
         <v>1</v>
       </c>
       <c r="B155" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C155" t="s">
-        <v>1003</v>
+        <v>974</v>
       </c>
       <c r="D155" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
@@ -7170,24 +7299,24 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
-        <v>1050</v>
+        <v>1021</v>
       </c>
       <c r="C157" t="s">
-        <v>1051</v>
+        <v>1022</v>
       </c>
       <c r="D157" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B158" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="C158" t="s">
-        <v>1004</v>
+        <v>975</v>
       </c>
       <c r="D158" t="s">
-        <v>747</v>
+        <v>728</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
@@ -7195,13 +7324,13 @@
         <v>1</v>
       </c>
       <c r="B159" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="C159" t="s">
-        <v>1005</v>
+        <v>976</v>
       </c>
       <c r="D159" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
@@ -7209,69 +7338,125 @@
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="C160" t="s">
-        <v>1006</v>
+        <v>977</v>
       </c>
       <c r="D160" t="s">
-        <v>749</v>
+        <v>730</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B161" t="s">
-        <v>1048</v>
+        <v>1019</v>
       </c>
       <c r="C161" t="s">
-        <v>1049</v>
+        <v>1020</v>
       </c>
       <c r="D161" t="s">
-        <v>750</v>
+        <v>731</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" t="s">
-        <v>1047</v>
+        <v>1018</v>
       </c>
       <c r="C162" t="s">
-        <v>1046</v>
+        <v>1017</v>
       </c>
       <c r="D162" t="s">
-        <v>751</v>
+        <v>732</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B163" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="C163" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
       <c r="D163" t="s">
-        <v>752</v>
+        <v>733</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B164" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="C164" t="s">
-        <v>1007</v>
+        <v>978</v>
       </c>
       <c r="D164" t="s">
-        <v>753</v>
+        <v>734</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B165" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="C165" t="s">
-        <v>1008</v>
+        <v>979</v>
       </c>
       <c r="D165" t="s">
-        <v>754</v>
-      </c>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="2"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="2"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="2"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7293,7 +7478,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="B1" t="str">
         <f>PROPER(A1)</f>
@@ -7302,7 +7487,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>756</v>
+        <v>737</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B65" si="0">PROPER(A2)</f>
@@ -7311,7 +7496,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>757</v>
+        <v>738</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
@@ -7320,7 +7505,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>758</v>
+        <v>739</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -7329,7 +7514,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -7347,7 +7532,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -7356,7 +7541,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -7365,7 +7550,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -7374,7 +7559,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -7383,7 +7568,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>764</v>
+        <v>745</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -7392,7 +7577,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -7401,7 +7586,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -7410,7 +7595,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -7419,7 +7604,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -7446,7 +7631,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -7455,7 +7640,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -7464,7 +7649,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -7491,7 +7676,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -7500,7 +7685,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -7509,7 +7694,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>774</v>
+        <v>755</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -7518,7 +7703,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>775</v>
+        <v>756</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -7527,7 +7712,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>776</v>
+        <v>757</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -7554,7 +7739,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -7581,7 +7766,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -7590,7 +7775,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -7599,7 +7784,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -7617,7 +7802,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
@@ -7626,7 +7811,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
@@ -7635,7 +7820,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
@@ -7644,7 +7829,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
@@ -7653,7 +7838,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
@@ -7662,7 +7847,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
@@ -7671,7 +7856,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
@@ -7680,7 +7865,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
@@ -7689,7 +7874,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
@@ -7707,7 +7892,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>790</v>
+        <v>771</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
@@ -7734,7 +7919,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
@@ -7743,7 +7928,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
@@ -7752,7 +7937,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
@@ -7761,7 +7946,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
@@ -7770,7 +7955,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
@@ -7779,7 +7964,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
@@ -7788,7 +7973,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
@@ -7797,7 +7982,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
@@ -7824,7 +8009,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
@@ -7833,7 +8018,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
@@ -7842,7 +8027,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
@@ -7860,7 +8045,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
@@ -7869,7 +8054,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
@@ -7887,7 +8072,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="1"/>
@@ -7896,7 +8081,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="1"/>
@@ -7905,7 +8090,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="1"/>
@@ -7914,7 +8099,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="1"/>
@@ -7923,7 +8108,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="1"/>
@@ -7950,7 +8135,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="1"/>
@@ -7959,7 +8144,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="1"/>
@@ -7968,7 +8153,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="1"/>
@@ -7977,7 +8162,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="1"/>
@@ -7986,7 +8171,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="1"/>
@@ -7995,7 +8180,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="1"/>
@@ -8004,7 +8189,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="1"/>
@@ -8013,7 +8198,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>816</v>
+        <v>797</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="1"/>
@@ -8022,7 +8207,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>817</v>
+        <v>798</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="1"/>
@@ -8031,7 +8216,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="1"/>
@@ -8040,7 +8225,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="1"/>
@@ -8049,7 +8234,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="1"/>
@@ -8058,7 +8243,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="1"/>
@@ -8067,7 +8252,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="1"/>
@@ -8076,7 +8261,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="1"/>
@@ -8094,7 +8279,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>824</v>
+        <v>805</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="1"/>
@@ -8103,7 +8288,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>825</v>
+        <v>806</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="1"/>
@@ -8112,7 +8297,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>826</v>
+        <v>807</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="1"/>
@@ -8121,7 +8306,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="1"/>
@@ -8130,7 +8315,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>827</v>
+        <v>808</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="1"/>
@@ -8139,7 +8324,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="1"/>
@@ -8148,7 +8333,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="1"/>
@@ -8157,7 +8342,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="1"/>
@@ -8166,7 +8351,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="1"/>
@@ -8175,7 +8360,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="1"/>
@@ -8184,7 +8369,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="1"/>
@@ -8193,7 +8378,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="1"/>
@@ -8202,7 +8387,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>834</v>
+        <v>815</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="1"/>
@@ -8211,7 +8396,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="1"/>
@@ -8229,7 +8414,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="1"/>
@@ -8238,7 +8423,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>837</v>
+        <v>818</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="1"/>
@@ -8247,7 +8432,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="1"/>
@@ -8256,7 +8441,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="1"/>
@@ -8265,7 +8450,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>839</v>
+        <v>820</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="1"/>
@@ -8274,7 +8459,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="1"/>
@@ -8283,7 +8468,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>841</v>
+        <v>822</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="1"/>
@@ -8292,7 +8477,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="1"/>
@@ -8301,7 +8486,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="1"/>
@@ -8310,7 +8495,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="1"/>
@@ -8319,7 +8504,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="1"/>
@@ -8328,7 +8513,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="1"/>
@@ -8337,7 +8522,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="1"/>
@@ -8346,7 +8531,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>846</v>
+        <v>827</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="1"/>
@@ -8355,7 +8540,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="1"/>
@@ -8364,7 +8549,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="1"/>
@@ -8373,7 +8558,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="1"/>
@@ -8382,7 +8567,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>848</v>
+        <v>829</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="1"/>
@@ -8391,7 +8576,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>849</v>
+        <v>830</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="1"/>
@@ -8400,7 +8585,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>850</v>
+        <v>831</v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="1"/>
@@ -8409,7 +8594,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>851</v>
+        <v>832</v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="1"/>
@@ -8418,7 +8603,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>852</v>
+        <v>833</v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="1"/>
@@ -8427,7 +8612,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>853</v>
+        <v>834</v>
       </c>
       <c r="B127" t="str">
         <f t="shared" si="1"/>
@@ -8436,7 +8621,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="1"/>
@@ -8445,7 +8630,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="B129" t="str">
         <f t="shared" si="1"/>
@@ -8454,7 +8639,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>856</v>
+        <v>837</v>
       </c>
       <c r="B130" t="str">
         <f t="shared" ref="B130:B166" si="2">PROPER(A130)</f>
@@ -8463,7 +8648,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="B131" t="str">
         <f t="shared" si="2"/>
@@ -8481,7 +8666,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="B133" t="str">
         <f t="shared" si="2"/>
@@ -8490,7 +8675,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="2"/>
@@ -8499,7 +8684,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="2"/>
@@ -8508,7 +8693,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="2"/>
@@ -8517,7 +8702,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>861</v>
+        <v>842</v>
       </c>
       <c r="B137" t="str">
         <f t="shared" si="2"/>
@@ -8526,7 +8711,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="B138" t="str">
         <f t="shared" si="2"/>
@@ -8535,7 +8720,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>863</v>
+        <v>844</v>
       </c>
       <c r="B139" t="str">
         <f t="shared" si="2"/>
@@ -8544,7 +8729,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>864</v>
+        <v>845</v>
       </c>
       <c r="B140" t="str">
         <f t="shared" si="2"/>
@@ -8553,7 +8738,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>865</v>
+        <v>846</v>
       </c>
       <c r="B141" t="str">
         <f t="shared" si="2"/>
@@ -8562,7 +8747,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>866</v>
+        <v>847</v>
       </c>
       <c r="B142" t="str">
         <f t="shared" si="2"/>
@@ -8580,7 +8765,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
       <c r="B144" t="str">
         <f t="shared" si="2"/>
@@ -8589,7 +8774,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>868</v>
+        <v>849</v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="2"/>
@@ -8598,7 +8783,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>869</v>
+        <v>850</v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="2"/>
@@ -8607,7 +8792,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>870</v>
+        <v>851</v>
       </c>
       <c r="B147" t="str">
         <f t="shared" si="2"/>
@@ -8616,7 +8801,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>871</v>
+        <v>852</v>
       </c>
       <c r="B148" t="str">
         <f t="shared" si="2"/>
@@ -8625,7 +8810,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>872</v>
+        <v>853</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="2"/>
@@ -8634,7 +8819,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="B150" t="str">
         <f t="shared" si="2"/>
@@ -8643,7 +8828,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="B151" t="str">
         <f t="shared" si="2"/>
@@ -8652,7 +8837,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="2"/>
@@ -8661,7 +8846,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>876</v>
+        <v>857</v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="2"/>
@@ -8679,7 +8864,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>877</v>
+        <v>858</v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="2"/>
@@ -8688,7 +8873,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>878</v>
+        <v>859</v>
       </c>
       <c r="B156" t="str">
         <f t="shared" si="2"/>
@@ -8706,7 +8891,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>879</v>
+        <v>860</v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="2"/>
@@ -8715,7 +8900,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>880</v>
+        <v>861</v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="2"/>
@@ -8724,7 +8909,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>881</v>
+        <v>862</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="2"/>
@@ -8733,7 +8918,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>882</v>
+        <v>863</v>
       </c>
       <c r="B161" t="str">
         <f t="shared" si="2"/>
@@ -8742,7 +8927,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>883</v>
+        <v>864</v>
       </c>
       <c r="B162" t="str">
         <f t="shared" si="2"/>
@@ -8751,7 +8936,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>884</v>
+        <v>865</v>
       </c>
       <c r="B163" t="str">
         <f t="shared" si="2"/>
@@ -8760,7 +8945,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="B164" t="str">
         <f t="shared" si="2"/>
@@ -8769,7 +8954,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
       <c r="B165" t="str">
         <f t="shared" si="2"/>
@@ -8778,7 +8963,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>886</v>
+        <v>867</v>
       </c>
       <c r="B166" t="str">
         <f t="shared" si="2"/>

--- a/files/strings.xlsx
+++ b/files/strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/storex/dLab/andStudio/lime-strings/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38C8719-2272-A148-9864-597799D15408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28BAD2D-8662-724E-BE79-44608F4F1ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2A2A4A0D-8F67-1149-8B79-481C2E1F4E29}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2A2A4A0D-8F67-1149-8B79-481C2E1F4E29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="924">
   <si>
     <t>bangla</t>
   </si>
@@ -76,9 +76,6 @@
     <t>about</t>
   </si>
   <si>
-    <t>favourite</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -172,9 +169,6 @@
     <t>help</t>
   </si>
   <si>
-    <t>ask_help</t>
-  </si>
-  <si>
     <t>instruction</t>
   </si>
   <si>
@@ -211,18 +205,12 @@
     <t>not_sent</t>
   </si>
   <si>
-    <t>sent_failed</t>
-  </si>
-  <si>
     <t>complete</t>
   </si>
   <si>
     <t>not_complete</t>
   </si>
   <si>
-    <t>main_title</t>
-  </si>
-  <si>
     <t>login</t>
   </si>
   <si>
@@ -283,24 +271,9 @@
     <t>give_id_pass_please</t>
   </si>
   <si>
-    <t>please_try_again_later</t>
-  </si>
-  <si>
-    <t>please_try_again</t>
-  </si>
-  <si>
-    <t>please_try_again_with_proper_credential</t>
-  </si>
-  <si>
     <t>login_failed</t>
   </si>
   <si>
-    <t>your_profile</t>
-  </si>
-  <si>
-    <t>your_name</t>
-  </si>
-  <si>
     <t>server</t>
   </si>
   <si>
@@ -361,9 +334,6 @@
     <t>board</t>
   </si>
   <si>
-    <t>pass</t>
-  </si>
-  <si>
     <t>fail</t>
   </si>
   <si>
@@ -382,9 +352,6 @@
     <t>bad</t>
   </si>
   <si>
-    <t>worse</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -412,9 +379,6 @@
     <t>high</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -427,24 +391,9 @@
     <t>night</t>
   </si>
   <si>
-    <t>evining</t>
-  </si>
-  <si>
-    <t>good_evining</t>
-  </si>
-  <si>
-    <t>morning</t>
-  </si>
-  <si>
     <t>good_morning</t>
   </si>
   <si>
-    <t>noon</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
     <t>present</t>
   </si>
   <si>
@@ -490,18 +439,9 @@
     <t>server_ok</t>
   </si>
   <si>
-    <t>share_app</t>
-  </si>
-  <si>
-    <t>call_helpline</t>
-  </si>
-  <si>
     <t>click_to_know_more</t>
   </si>
   <si>
-    <t>reset_all_msg</t>
-  </si>
-  <si>
     <t>বাংলা</t>
   </si>
   <si>
@@ -517,9 +457,6 @@
     <t>ওকে</t>
   </si>
   <si>
-    <t>জেনে রাখুন</t>
-  </si>
-  <si>
     <t>চালু</t>
   </si>
   <si>
@@ -598,9 +535,6 @@
     <t>শেষ</t>
   </si>
   <si>
-    <t>বাদ</t>
-  </si>
-  <si>
     <t>লোকেশন সেটিংস্‌</t>
   </si>
   <si>
@@ -631,9 +565,6 @@
     <t>সেভ</t>
   </si>
   <si>
-    <t>ব্যাক</t>
-  </si>
-  <si>
     <t>আপডেট</t>
   </si>
   <si>
@@ -691,9 +622,6 @@
     <t>শিরোনাম</t>
   </si>
   <si>
-    <t>লগিন</t>
-  </si>
-  <si>
     <t>লগআউট</t>
   </si>
   <si>
@@ -703,9 +631,6 @@
     <t>সাইনইন</t>
   </si>
   <si>
-    <t>সাইনআউট</t>
-  </si>
-  <si>
     <t>লগিন থাকুন</t>
   </si>
   <si>
@@ -781,9 +706,6 @@
     <t>পুরুষ</t>
   </si>
   <si>
-    <t>মহিলা</t>
-  </si>
-  <si>
     <t>তথ্য</t>
   </si>
   <si>
@@ -829,9 +751,6 @@
     <t>বোর্ড</t>
   </si>
   <si>
-    <t>পাশ</t>
-  </si>
-  <si>
     <t>ফেল</t>
   </si>
   <si>
@@ -850,9 +769,6 @@
     <t>খারাপ</t>
   </si>
   <si>
-    <t>খুব খারাপ</t>
-  </si>
-  <si>
     <t>খুব ভালো</t>
   </si>
   <si>
@@ -880,9 +796,6 @@
     <t>উঁচু</t>
   </si>
   <si>
-    <t>নিচু</t>
-  </si>
-  <si>
     <t>বছর</t>
   </si>
   <si>
@@ -895,24 +808,12 @@
     <t>রাত</t>
   </si>
   <si>
-    <t>সন্ধ্যা</t>
-  </si>
-  <si>
     <t>শুভ সন্ধ্যা</t>
   </si>
   <si>
-    <t>সকাল</t>
-  </si>
-  <si>
     <t>শুভ সকাল</t>
   </si>
   <si>
-    <t>দুপুর</t>
-  </si>
-  <si>
-    <t>অতীত</t>
-  </si>
-  <si>
     <t>বর্তমান</t>
   </si>
   <si>
@@ -964,9 +865,6 @@
     <t>আপনি কি এপ্লিকেশন টি বন্ধ করতে চাচ্ছেন?</t>
   </si>
   <si>
-    <t>পুনরায় চেষ্টা করুন</t>
-  </si>
-  <si>
     <t>প্রোফাইল আপডেট করতে এখানে ক্লিক করুন</t>
   </si>
   <si>
@@ -1024,9 +922,6 @@
     <t>About</t>
   </si>
   <si>
-    <t>Favourite</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -1291,9 +1186,6 @@
     <t>Board</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -1312,9 +1204,6 @@
     <t>Bad</t>
   </si>
   <si>
-    <t>Worse</t>
-  </si>
-  <si>
     <t>Best</t>
   </si>
   <si>
@@ -1342,9 +1231,6 @@
     <t>High</t>
   </si>
   <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -1357,24 +1243,12 @@
     <t>Night</t>
   </si>
   <si>
-    <t>Evining</t>
-  </si>
-  <si>
     <t>Good Evining</t>
   </si>
   <si>
-    <t>Morning</t>
-  </si>
-  <si>
     <t>Good Morning</t>
   </si>
   <si>
-    <t>Noon</t>
-  </si>
-  <si>
-    <t>Past</t>
-  </si>
-  <si>
     <t>Present</t>
   </si>
   <si>
@@ -1453,42 +1327,21 @@
     <t>ওকে বাটন চাপুন</t>
   </si>
   <si>
-    <t>do_you_want_to_send_data</t>
-  </si>
-  <si>
     <t>Do you want to send data?</t>
   </si>
   <si>
-    <t>internet_ok</t>
-  </si>
-  <si>
-    <t>Internet Ok</t>
-  </si>
-  <si>
     <t>Do you want to quit application?</t>
   </si>
   <si>
-    <t>do_you_want_to_quit_application</t>
-  </si>
-  <si>
     <t>try_again</t>
   </si>
   <si>
     <t>Try Again</t>
   </si>
   <si>
-    <t>update_your_profile</t>
-  </si>
-  <si>
-    <t>Update your profile</t>
-  </si>
-  <si>
     <t>all_channels</t>
   </si>
   <si>
-    <t>app_name</t>
-  </si>
-  <si>
     <t>auto_renewal</t>
   </si>
   <si>
@@ -1501,9 +1354,6 @@
     <t>cast</t>
   </si>
   <si>
-    <t>catchup_tv</t>
-  </si>
-  <si>
     <t>change_language</t>
   </si>
   <si>
@@ -1516,9 +1366,6 @@
     <t>confirmation</t>
   </si>
   <si>
-    <t>content_selector</t>
-  </si>
-  <si>
     <t>continue_watching</t>
   </si>
   <si>
@@ -1537,36 +1384,18 @@
     <t>details</t>
   </si>
   <si>
-    <t>didnt_receive_otp</t>
-  </si>
-  <si>
     <t>director</t>
   </si>
   <si>
     <t>dot</t>
   </si>
   <si>
-    <t>dummy_dialog_text</t>
-  </si>
-  <si>
-    <t>dummy_dialog_title</t>
-  </si>
-  <si>
     <t>dummy_phone_no_without_code</t>
   </si>
   <si>
     <t>edit</t>
   </si>
   <si>
-    <t>enjoy_unlimited_internet</t>
-  </si>
-  <si>
-    <t>enjoy_unlimited</t>
-  </si>
-  <si>
-    <t>expand_collapse_android_widgets</t>
-  </si>
-  <si>
     <t>faq</t>
   </si>
   <si>
@@ -1579,18 +1408,6 @@
     <t>first_name</t>
   </si>
   <si>
-    <t>force_update_msg</t>
-  </si>
-  <si>
-    <t>free_access_1000_n_natoks_movies_more_2</t>
-  </si>
-  <si>
-    <t>free_access_1000_n_natoks_movies_more</t>
-  </si>
-  <si>
-    <t>frequently_asked_questions</t>
-  </si>
-  <si>
     <t>get_otp</t>
   </si>
   <si>
@@ -1603,63 +1420,30 @@
     <t>language</t>
   </si>
   <si>
-    <t>last_name</t>
-  </si>
-  <si>
     <t>live_tv</t>
   </si>
   <si>
-    <t>login_register_with_mobile_number</t>
-  </si>
-  <si>
-    <t>login_required_message</t>
-  </si>
-  <si>
     <t>login_to_use</t>
   </si>
   <si>
-    <t>msg_no_internet</t>
-  </si>
-  <si>
     <t>my_account</t>
   </si>
   <si>
-    <t>my_favourite</t>
-  </si>
-  <si>
     <t>my_rating</t>
   </si>
   <si>
-    <t>natok_movies_more</t>
-  </si>
-  <si>
-    <t>navigation_drawer_close</t>
-  </si>
-  <si>
-    <t>navigation_drawer_open</t>
-  </si>
-  <si>
     <t>network_error</t>
   </si>
   <si>
     <t>no_payment_history</t>
   </si>
   <si>
-    <t>no_results_for_your_search</t>
-  </si>
-  <si>
-    <t>normal_update_msg</t>
-  </si>
-  <si>
     <t>now_watching</t>
   </si>
   <si>
     <t>other_payment_options</t>
   </si>
   <si>
-    <t>otp_edt_view_hint_msg</t>
-  </si>
-  <si>
     <t>owner</t>
   </si>
   <si>
@@ -1678,9 +1462,6 @@
     <t>payment_history</t>
   </si>
   <si>
-    <t>please_login_register</t>
-  </si>
-  <si>
     <t>please_login</t>
   </si>
   <si>
@@ -1690,12 +1471,6 @@
     <t>privacy_policy</t>
   </si>
   <si>
-    <t>profile_info_update_success_msg</t>
-  </si>
-  <si>
-    <t>program_guide</t>
-  </si>
-  <si>
     <t>rate_now</t>
   </si>
   <si>
@@ -1705,30 +1480,18 @@
     <t>recommended</t>
   </si>
   <si>
-    <t>release_on</t>
-  </si>
-  <si>
     <t>remind_me</t>
   </si>
   <si>
-    <t>required_proper_data_connection_msg</t>
-  </si>
-  <si>
     <t>retry</t>
   </si>
   <si>
-    <t>search_input_empty_msg</t>
-  </si>
-  <si>
     <t>search</t>
   </si>
   <si>
     <t>select_your_plan</t>
   </si>
   <si>
-    <t>sending_otp_message_after_click_next</t>
-  </si>
-  <si>
     <t>setting</t>
   </si>
   <si>
@@ -1738,75 +1501,21 @@
     <t>showing_all</t>
   </si>
   <si>
-    <t>sign_in</t>
-  </si>
-  <si>
-    <t>sign_out</t>
-  </si>
-  <si>
     <t>somthing_went_wrong</t>
   </si>
   <si>
-    <t>speech_not_supported</t>
-  </si>
-  <si>
-    <t>speech_prompt</t>
-  </si>
-  <si>
     <t>subscription</t>
   </si>
   <si>
-    <t>text_login_and</t>
-  </si>
-  <si>
-    <t>text_login_i_agree_to</t>
-  </si>
-  <si>
-    <t>text_terms_and_condition</t>
-  </si>
-  <si>
-    <t>this_video_is_not_available</t>
-  </si>
-  <si>
-    <t>title_enter_phone_number</t>
-  </si>
-  <si>
-    <t>title_verify_phone_number</t>
-  </si>
-  <si>
-    <t>unable_pick_img_msg</t>
-  </si>
-  <si>
-    <t>unlimited_videos_on_demand_watch_anywhere_watch_anytime_2</t>
-  </si>
-  <si>
-    <t>unlimited_videos_on_demand_watch_anywhere_watch_anytime</t>
-  </si>
-  <si>
-    <t>upcomming_programs</t>
-  </si>
-  <si>
-    <t>update_now</t>
-  </si>
-  <si>
     <t>update_profile</t>
   </si>
   <si>
     <t>update_required</t>
   </si>
   <si>
-    <t>user_default_name</t>
-  </si>
-  <si>
     <t>watch_now</t>
   </si>
   <si>
-    <t>watch_specific_episode</t>
-  </si>
-  <si>
-    <t>watching_catch_up</t>
-  </si>
-  <si>
     <t>xxxxxxxxxx</t>
   </si>
   <si>
@@ -1816,33 +1525,12 @@
     <t>you_have_no_more_favourite_item</t>
   </si>
   <si>
-    <t>&lt;/string</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Watch &lt;strong</t>
-  </si>
-  <si>
-    <t>anywhere&lt;/strong</t>
-  </si>
-  <si>
-    <t>. Watch &lt;strong</t>
-  </si>
-  <si>
-    <t>anytime&lt;/strong</t>
-  </si>
-  <si>
-    <t>]]</t>
-  </si>
-  <si>
     <t>সব চ্যানেল</t>
   </si>
   <si>
     <t>অ্যাপ টি বন্ধ করার জন্য আবার ক্লিক করুন</t>
   </si>
   <si>
-    <t>AndroidBuildVariant</t>
-  </si>
-  <si>
     <t>অটো রিনিউ</t>
   </si>
   <si>
@@ -1852,9 +1540,6 @@
     <t>প্রিমিয়াম সদস্য হন</t>
   </si>
   <si>
-    <t>ক্যানসেল</t>
-  </si>
-  <si>
     <t>পরবর্তী</t>
   </si>
   <si>
@@ -1879,12 +1564,6 @@
     <t>না ধন্যবাদ</t>
   </si>
   <si>
-    <t>কাস্ট</t>
-  </si>
-  <si>
-    <t>ক্যাচ আপ টিভি</t>
-  </si>
-  <si>
     <t>ভাষা পরিবর্তন করুন</t>
   </si>
   <si>
@@ -1897,9 +1576,6 @@
     <t>নিশ্চিত করণ</t>
   </si>
   <si>
-    <t>সব দেখুন :</t>
-  </si>
-  <si>
     <t>কণ্টিনিউ ওয়াচিং</t>
   </si>
   <si>
@@ -1918,24 +1594,12 @@
     <t>ওটিপি পাননি?</t>
   </si>
   <si>
-    <t>•</t>
-  </si>
-  <si>
-    <t>আপনার কাছ থেকে ২০টাকা চার্জ কেটে রাখা হবে এবং বর্তমান সাবস্ক্রিপশনের সময়সীমা শেষ হয়ে গেলে পরবর্তীতে সয়ংক্রিয়ভাবে নতুন করে আপনার সাবস্ক্রিপশন চালু হয়ে যাবে।</t>
-  </si>
-  <si>
-    <t>পেমেন্ট</t>
-  </si>
-  <si>
     <t>এডিট</t>
   </si>
   <si>
     <t>মেয়াদোত্তীর্ণ</t>
   </si>
   <si>
-    <t xml:space="preserve">আনলিমিটেড ইন্টারনেট উপভোগ করুন </t>
-  </si>
-  <si>
     <t>সঠিক ফোন নম্বর লিখুন</t>
   </si>
   <si>
@@ -1948,9 +1612,6 @@
     <t>মোবাইল নম্বর সঠিক নয়</t>
   </si>
   <si>
-    <t>Expand/Collapse Android Widgets</t>
-  </si>
-  <si>
     <t>গুরুত্বপূর্ণ প্রশ্নাবলী</t>
   </si>
   <si>
@@ -1966,12 +1627,6 @@
     <t>প্রথম নাম</t>
   </si>
   <si>
-    <t>নতুন ফিচারসহ এসেছে নতুন ভার্সন, সাথে থাকতে হলে অ্যাপটি অবশ্যই আপডেট করতে হবে।</t>
-  </si>
-  <si>
-    <t>span style=</t>
-  </si>
-  <si>
     <t>ওটিপি নিন</t>
   </si>
   <si>
@@ -1990,24 +1645,12 @@
     <t>ছবি সফলভাবে আপলোড করা হয়েছে</t>
   </si>
   <si>
-    <t>শেষ নাম</t>
-  </si>
-  <si>
     <t>লাইভ টিভি</t>
   </si>
   <si>
     <t>লোডিং.......</t>
   </si>
   <si>
-    <t>অনুগ্রহ করে মোবাইল দিয়ে লগিন/রেজিস্টার করুন</t>
-  </si>
-  <si>
-    <t>মোবাইল দিয়ে লগিন/রেজিস্টার</t>
-  </si>
-  <si>
-    <t>মোবাইল নাম্বার দিয়ে লগইন করুন</t>
-  </si>
-  <si>
     <t>লগইন সফল হয়েছে</t>
   </si>
   <si>
@@ -2017,24 +1660,12 @@
     <t>লগইন</t>
   </si>
   <si>
-    <t>ইন্টারনেটে সংযোগ প্রদান করা সম্ভব হচ্ছেনা</t>
-  </si>
-  <si>
     <t>আমার অ্যাকাউন্ট</t>
   </si>
   <si>
     <t>আমার রেটিং</t>
   </si>
   <si>
-    <t xml:space="preserve">নাটক, মুভি এবং অন্নান্য </t>
-  </si>
-  <si>
-    <t>Navigation Menu Close</t>
-  </si>
-  <si>
-    <t>Navigation Menu Open</t>
-  </si>
-  <si>
     <t>দয়া করে আপনার ইন্টারনেট সংযোগ চেক করুন।</t>
   </si>
   <si>
@@ -2047,24 +1678,15 @@
     <t>কোন সার্চ রেসাল্ট নেই!</t>
   </si>
   <si>
-    <t>নতুন ফিচারসহ এসেছে নতুন ভার্সন, ভালো অভিজ্ঞতা পেতে অ্যাপটি আপডেট করতে পারেন।</t>
-  </si>
-  <si>
     <t>এখন দেখছেন</t>
   </si>
   <si>
     <t>পেমেন্ট এর অন্যান্য পদ্ধতিসমূহ</t>
   </si>
   <si>
-    <t>৮ ডিজিট ফোন নাম্বার.</t>
-  </si>
-  <si>
     <t>ভেরিফিকেশন কোড পাঠানো হয়েছে</t>
   </si>
   <si>
-    <t>প্রকাশক :\u0020</t>
-  </si>
-  <si>
     <t>প্যাকেজের বর্ণনা</t>
   </si>
   <si>
@@ -2077,48 +1699,24 @@
     <t>পেমেন্ট হিস্ট্রি</t>
   </si>
   <si>
-    <t>অনুগ্রহ ক্রমে আপনার নাম্বার দিয়ে লগইন/রেজিস্ট্রেশন করুন.</t>
-  </si>
-  <si>
     <t>লগইন করুন</t>
   </si>
   <si>
-    <t>এক্সক্লুসিভ</t>
-  </si>
-  <si>
     <t>গোপনীয়তা নীতি</t>
   </si>
   <si>
     <t>প্রোফাইল সফলভাবে আপডেট করা হয়েছে</t>
   </si>
   <si>
-    <t>একাউন্ট</t>
-  </si>
-  <si>
-    <t>অনুষ্ঠান সূচি</t>
-  </si>
-  <si>
     <t>রেটিং দিন</t>
   </si>
   <si>
-    <t>আরো দেখতে পারেনঃ</t>
-  </si>
-  <si>
-    <t>মুক্তি</t>
-  </si>
-  <si>
     <t>মনে করিয়ে দিন</t>
   </si>
   <si>
-    <t>You are not using desire data connection</t>
-  </si>
-  <si>
     <t>পুনরায় চেষ্টা করুন</t>
   </si>
   <si>
-    <t>যেকোন ভিডিও খুঁজুন এখানে</t>
-  </si>
-  <si>
     <t>সার্চ</t>
   </si>
   <si>
@@ -2128,9 +1726,6 @@
     <t>প্ল্যান নির্বাচন করুন</t>
   </si>
   <si>
-    <t>আপনার অ্যাকাউন্ট যাচাই করতে পরবর্তী ক্লিক করুন। আপনার নম্বর যাচাই করতে একটি এসএমএস পাঠানো যেতে পারে। বার্তা এবং ডাটা হার প্রযোজ্য হতে পারে.</t>
-  </si>
-  <si>
     <t>লিঙ্গ</t>
   </si>
   <si>
@@ -2146,12 +1741,6 @@
     <t>কিছু একটা ভুল হয়েছে, দয়া করে কিছুক্ষণ পর আবার চেষ্টা করুন।</t>
   </si>
   <si>
-    <t>দুঃখিত! যে তথ্য দেওয়া হয়েছে তা আপনার ডিভাইসটি সমর্থন করে না।</t>
-  </si>
-  <si>
-    <t>কিছু বলুন।&amp;#8230;</t>
-  </si>
-  <si>
     <t xml:space="preserve">দুঃখিত আমরা এই মুহূর্তে আপনাকে সাবস্ক্রাইব করতে পারিনি। অনুগ্রহ করে একটু পরে আবার চেষ্টা করুন </t>
   </si>
   <si>
@@ -2167,66 +1756,24 @@
     <t>হোমে ফিরে যান</t>
   </si>
   <si>
-    <t>এবং</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ক্লিক করে আমি যাতে সম্মতি দিচ্ছি- </t>
-  </si>
-  <si>
-    <t>ব্যবহারের শর্তাবলী</t>
-  </si>
-  <si>
-    <t>ক্লিক করে আমি যাতে সম্মতি দিচ্ছি-ব্যবহারের শর্তাবলী এবং গোপনীয়তা নীতি</t>
-  </si>
-  <si>
     <t>এই ভিডিও পাওয়া নি</t>
   </si>
   <si>
     <t>আপনার ফোন নম্বর লিখুন</t>
   </si>
   <si>
-    <t>আপনার ওটিপি লিখুন</t>
-  </si>
-  <si>
     <t>আবার চেষ্টা করুন</t>
   </si>
   <si>
     <t>এখানে লিখুন</t>
   </si>
   <si>
-    <t>ছবিটি নিতে অক্ষম, দয়া করে ছবি নির্বাচন করতে গুগল ফটোস অ্যাপ ব্যবহার করুন।</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>br</t>
-  </si>
-  <si>
-    <t>আপনার সাবস্ক্রিপশনটি স্বয়ংক্রিয় ভাবে পরবর্তী মাস/বছরে নবায়ন করা হবে না।</t>
-  </si>
-  <si>
-    <t>আসন্ন প্রোগ্রাম</t>
-  </si>
-  <si>
-    <t>আপডেট করুন</t>
-  </si>
-  <si>
-    <t>User Name</t>
-  </si>
-  <si>
     <t>লাইভ দেখুন</t>
   </si>
   <si>
     <t>এখন দেখুন</t>
   </si>
   <si>
-    <t>ওয়াচ স্পেসিফিক এপিসোড</t>
-  </si>
-  <si>
-    <t>দেখছেন ক্যাচ আপ টিভি</t>
-  </si>
-  <si>
     <t>লাইভ দেখছেন</t>
   </si>
   <si>
@@ -2641,9 +2188,6 @@
     <t>All Channels</t>
   </si>
   <si>
-    <t>App Name</t>
-  </si>
-  <si>
     <t>Auto Renewal</t>
   </si>
   <si>
@@ -2653,12 +2197,6 @@
     <t>Buy This</t>
   </si>
   <si>
-    <t>Cast</t>
-  </si>
-  <si>
-    <t>Catchup Tv</t>
-  </si>
-  <si>
     <t>Change Language</t>
   </si>
   <si>
@@ -2671,9 +2209,6 @@
     <t>Confirmation</t>
   </si>
   <si>
-    <t>Content Selector</t>
-  </si>
-  <si>
     <t>Continue Watching</t>
   </si>
   <si>
@@ -2689,24 +2224,9 @@
     <t>Details</t>
   </si>
   <si>
-    <t>Dot</t>
-  </si>
-  <si>
-    <t>Dummy Dialog Text</t>
-  </si>
-  <si>
-    <t>Dummy Dialog Title</t>
-  </si>
-  <si>
     <t>Edit</t>
   </si>
   <si>
-    <t>Enjoy Unlimited Internet</t>
-  </si>
-  <si>
-    <t>Enjoy Unlimited</t>
-  </si>
-  <si>
     <t>Enter Mobile Number</t>
   </si>
   <si>
@@ -2716,9 +2236,6 @@
     <t>Error Invalid Phone No</t>
   </si>
   <si>
-    <t>Expand Collapse Android Widgets</t>
-  </si>
-  <si>
     <t>Faq</t>
   </si>
   <si>
@@ -2731,15 +2248,6 @@
     <t>First Name</t>
   </si>
   <si>
-    <t>Free Access 1000 N Natoks Movies More 2</t>
-  </si>
-  <si>
-    <t>Free Access 1000 N Natoks Movies More</t>
-  </si>
-  <si>
-    <t>Frequently Asked Questions</t>
-  </si>
-  <si>
     <t>Get Otp</t>
   </si>
   <si>
@@ -2749,42 +2257,18 @@
     <t>History</t>
   </si>
   <si>
-    <t>Language</t>
-  </si>
-  <si>
     <t>Last Name</t>
   </si>
   <si>
     <t>Live Tv</t>
   </si>
   <si>
-    <t>Login Register With Mobile Number</t>
-  </si>
-  <si>
-    <t>Login Required Message</t>
-  </si>
-  <si>
-    <t>Msg No Internet</t>
-  </si>
-  <si>
     <t>My Account</t>
   </si>
   <si>
-    <t>My Favourite</t>
-  </si>
-  <si>
     <t>My Rating</t>
   </si>
   <si>
-    <t>Natok Movies More</t>
-  </si>
-  <si>
-    <t>Navigation Drawer Close</t>
-  </si>
-  <si>
-    <t>Navigation Drawer Open</t>
-  </si>
-  <si>
     <t>Network Error</t>
   </si>
   <si>
@@ -2794,24 +2278,12 @@
     <t>No Result For Your Search</t>
   </si>
   <si>
-    <t>No Results For Your Search</t>
-  </si>
-  <si>
-    <t>Normal Update Msg</t>
-  </si>
-  <si>
     <t>Now Watching</t>
   </si>
   <si>
     <t>Other Payment Options</t>
   </si>
   <si>
-    <t>Otp Edt View Hint Msg</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
     <t>Package Description</t>
   </si>
   <si>
@@ -2827,9 +2299,6 @@
     <t>Payment History</t>
   </si>
   <si>
-    <t>Please Login Register</t>
-  </si>
-  <si>
     <t>Please Login</t>
   </si>
   <si>
@@ -2839,12 +2308,6 @@
     <t>Privacy Policy</t>
   </si>
   <si>
-    <t>Profile Info Update Success Msg</t>
-  </si>
-  <si>
-    <t>Program Guide</t>
-  </si>
-  <si>
     <t>Rate Now</t>
   </si>
   <si>
@@ -2854,21 +2317,12 @@
     <t>Recommended</t>
   </si>
   <si>
-    <t>Release On</t>
-  </si>
-  <si>
     <t>Remind Me</t>
   </si>
   <si>
-    <t>Required Proper Data Connection Msg</t>
-  </si>
-  <si>
     <t>Retry</t>
   </si>
   <si>
-    <t>Search Input Empty Msg</t>
-  </si>
-  <si>
     <t>Search</t>
   </si>
   <si>
@@ -2878,9 +2332,6 @@
     <t>Select Your Plan</t>
   </si>
   <si>
-    <t>Sending Otp Message After Click Next</t>
-  </si>
-  <si>
     <t>Setting</t>
   </si>
   <si>
@@ -2890,21 +2341,9 @@
     <t>Showing All</t>
   </si>
   <si>
-    <t>Sign In</t>
-  </si>
-  <si>
-    <t>Sign Out</t>
-  </si>
-  <si>
     <t>Somthing Went Wrong</t>
   </si>
   <si>
-    <t>Speech Not Supported</t>
-  </si>
-  <si>
-    <t>Speech Prompt</t>
-  </si>
-  <si>
     <t>Subscription Failure Message</t>
   </si>
   <si>
@@ -2917,57 +2356,15 @@
     <t>Subscription</t>
   </si>
   <si>
-    <t>Text Login And</t>
-  </si>
-  <si>
-    <t>Text Login I Agree To</t>
-  </si>
-  <si>
-    <t>Text Terms And Condition</t>
-  </si>
-  <si>
-    <t>This Video Is Not Available</t>
-  </si>
-  <si>
-    <t>Title Enter Phone Number</t>
-  </si>
-  <si>
-    <t>Title Verify Phone Number</t>
-  </si>
-  <si>
-    <t>Unable Pick Img Msg</t>
-  </si>
-  <si>
-    <t>Unlimited Videos On Demand Watch Anywhere Watch Anytime 2</t>
-  </si>
-  <si>
-    <t>Unlimited Videos On Demand Watch Anywhere Watch Anytime</t>
-  </si>
-  <si>
-    <t>Upcomming Programs</t>
-  </si>
-  <si>
-    <t>Update Now</t>
-  </si>
-  <si>
     <t>Update Profile</t>
   </si>
   <si>
     <t>Update Required</t>
   </si>
   <si>
-    <t>User Default Name</t>
-  </si>
-  <si>
     <t>Watch Now</t>
   </si>
   <si>
-    <t>Watch Specific Episode</t>
-  </si>
-  <si>
-    <t>Watching Catch Up</t>
-  </si>
-  <si>
     <t>You Have No Favourite Item</t>
   </si>
   <si>
@@ -2986,9 +2383,6 @@
     <t>Next</t>
   </si>
   <si>
-    <t>resend_otp</t>
-  </si>
-  <si>
     <t>Resend Otp</t>
   </si>
   <si>
@@ -3007,15 +2401,9 @@
     <t>unsubscribe</t>
   </si>
   <si>
-    <t>login_method_top_header_txt</t>
-  </si>
-  <si>
     <t>Unsubscribe</t>
   </si>
   <si>
-    <t>Login Method Top Header Txt</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
@@ -3037,9 +2425,6 @@
     <t>Expired</t>
   </si>
   <si>
-    <t xml:space="preserve">আনলিমিটেড উপভোগ করুন </t>
-  </si>
-  <si>
     <t>Enter Correct Phone Number</t>
   </si>
   <si>
@@ -3118,12 +2503,6 @@
     <t xml:space="preserve">আপডেট প্রোফাইল </t>
   </si>
   <si>
-    <t>no_auto_subscription</t>
-  </si>
-  <si>
-    <t>Your Subscription will now renew automatically</t>
-  </si>
-  <si>
     <t>write_here</t>
   </si>
   <si>
@@ -3178,12 +2557,6 @@
     <t>Back to Home</t>
   </si>
   <si>
-    <t>terms_of_use</t>
-  </si>
-  <si>
-    <t>Terms Of Use</t>
-  </si>
-  <si>
     <t>msg_subscription_failure</t>
   </si>
   <si>
@@ -3244,9 +2617,6 @@
     <t xml:space="preserve">মতামত দিন </t>
   </si>
   <si>
-    <t>সাইন ইন</t>
-  </si>
-  <si>
     <t>কিনুন</t>
   </si>
   <si>
@@ -3254,6 +2624,186 @@
   </si>
   <si>
     <t>দয়া করে সঠিক কোড লিখুন</t>
+  </si>
+  <si>
+    <t>video_is_not_available</t>
+  </si>
+  <si>
+    <t>verify_phone_number</t>
+  </si>
+  <si>
+    <t>Video Is Not Available</t>
+  </si>
+  <si>
+    <t>Enter Phone Number</t>
+  </si>
+  <si>
+    <t>Verify Phone Number</t>
+  </si>
+  <si>
+    <t>msg_reset_all</t>
+  </si>
+  <si>
+    <t>msg_call_helpline</t>
+  </si>
+  <si>
+    <t>otp_resend</t>
+  </si>
+  <si>
+    <t>otp_didnt_receive</t>
+  </si>
+  <si>
+    <t>profile_updated_successfully</t>
+  </si>
+  <si>
+    <t>Profile Updated Successfully</t>
+  </si>
+  <si>
+    <t>image_change</t>
+  </si>
+  <si>
+    <t>phone_number_enter</t>
+  </si>
+  <si>
+    <t>voucher_enter</t>
+  </si>
+  <si>
+    <t>otp_enter_valid</t>
+  </si>
+  <si>
+    <t>phone_number_enter_correct</t>
+  </si>
+  <si>
+    <t>name_first</t>
+  </si>
+  <si>
+    <t>otp_get</t>
+  </si>
+  <si>
+    <t>feedback_give</t>
+  </si>
+  <si>
+    <t>help_ask</t>
+  </si>
+  <si>
+    <t>good_evening</t>
+  </si>
+  <si>
+    <t>otp_invaild</t>
+  </si>
+  <si>
+    <t>phone_no_invaild</t>
+  </si>
+  <si>
+    <t>voucher_invalid</t>
+  </si>
+  <si>
+    <t>payment_options_others</t>
+  </si>
+  <si>
+    <t>internet_check</t>
+  </si>
+  <si>
+    <t>login_please</t>
+  </si>
+  <si>
+    <t>select_right_operator</t>
+  </si>
+  <si>
+    <t>try_again_later</t>
+  </si>
+  <si>
+    <t>try_again_with_proper_credential</t>
+  </si>
+  <si>
+    <t>que_quit_app_confirmation</t>
+  </si>
+  <si>
+    <t>que_send_data_confirmation</t>
+  </si>
+  <si>
+    <t>rate_please</t>
+  </si>
+  <si>
+    <t>Rate Please</t>
+  </si>
+  <si>
+    <t>send_failed</t>
+  </si>
+  <si>
+    <t>msg_share_app</t>
+  </si>
+  <si>
+    <t>msg_somthing_went_wrong</t>
+  </si>
+  <si>
+    <t>msg_somthing_went_wrong_try_again</t>
+  </si>
+  <si>
+    <t>otp_write_valid</t>
+  </si>
+  <si>
+    <t>channel_all</t>
+  </si>
+  <si>
+    <t>click_to_update_profile</t>
+  </si>
+  <si>
+    <t>Click to update your profile</t>
+  </si>
+  <si>
+    <t>name_last</t>
+  </si>
+  <si>
+    <t>name_full</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>report_full</t>
+  </si>
+  <si>
+    <t>name_your</t>
+  </si>
+  <si>
+    <t>profile_your</t>
+  </si>
+  <si>
+    <t>no_favourite_item</t>
+  </si>
+  <si>
+    <t>gps_on</t>
+  </si>
+  <si>
+    <t>GPS On</t>
+  </si>
+  <si>
+    <t>gps_off</t>
+  </si>
+  <si>
+    <t>GPS Off</t>
+  </si>
+  <si>
+    <t>internet_off</t>
+  </si>
+  <si>
+    <t>internet_on</t>
+  </si>
+  <si>
+    <t>Internet On</t>
+  </si>
+  <si>
+    <t>Internet Off</t>
+  </si>
+  <si>
+    <t>title_main</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>ভিডিও পাওয়া নি</t>
   </si>
 </sst>
 </file>
@@ -3263,19 +2813,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-5000445]0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3298,10 +2842,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3616,68 +3159,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3F0CAB-B764-494E-8312-86738EB4583E}">
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C258"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" zoomScale="138" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="28.1640625" customWidth="1"/>
-    <col min="3" max="3" width="53.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C4" t="s">
-        <v>159</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C5" t="s">
         <v>160</v>
@@ -3685,3778 +3225,4028 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>436</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
+        <v>718</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>839</v>
       </c>
       <c r="B9" t="s">
-        <v>324</v>
+        <v>840</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>389</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>437</v>
       </c>
       <c r="B14" t="s">
-        <v>329</v>
+        <v>719</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>790</v>
       </c>
       <c r="B19" t="s">
-        <v>334</v>
+        <v>791</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>861</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>438</v>
       </c>
       <c r="B20" t="s">
-        <v>335</v>
+        <v>720</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="C21" t="s">
-        <v>176</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>440</v>
       </c>
       <c r="B22" t="s">
-        <v>337</v>
+        <v>721</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>510</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>903</v>
       </c>
       <c r="B23" t="s">
-        <v>338</v>
+        <v>717</v>
       </c>
       <c r="C23" t="s">
-        <v>178</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>441</v>
       </c>
       <c r="B24" t="s">
-        <v>339</v>
+        <v>722</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>779</v>
       </c>
       <c r="B25" t="s">
-        <v>340</v>
+        <v>780</v>
       </c>
       <c r="C25" t="s">
-        <v>180</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s">
-        <v>341</v>
+        <v>422</v>
       </c>
       <c r="C26" t="s">
-        <v>181</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>904</v>
       </c>
       <c r="B27" t="s">
-        <v>342</v>
+        <v>905</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="C28" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>344</v>
+        <v>408</v>
       </c>
       <c r="C29" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="B30" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="C30" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>442</v>
       </c>
       <c r="B32" t="s">
-        <v>347</v>
+        <v>723</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
+        <v>512</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>443</v>
       </c>
       <c r="B33" t="s">
-        <v>348</v>
+        <v>724</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>513</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>444</v>
       </c>
       <c r="B34" t="s">
-        <v>349</v>
+        <v>725</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>351</v>
-      </c>
-      <c r="C36" t="s">
-        <v>191</v>
+        <v>445</v>
+      </c>
+      <c r="B36">
+        <v>880</v>
+      </c>
+      <c r="C36" s="1">
+        <v>880</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>446</v>
       </c>
       <c r="B37" t="s">
-        <v>352</v>
+        <v>726</v>
       </c>
       <c r="C37" t="s">
-        <v>192</v>
+        <v>515</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="C38" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>447</v>
       </c>
       <c r="B40" t="s">
-        <v>355</v>
+        <v>727</v>
       </c>
       <c r="C40" t="s">
-        <v>195</v>
+        <v>516</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>448</v>
       </c>
       <c r="B42" t="s">
-        <v>357</v>
+        <v>728</v>
       </c>
       <c r="C42" t="s">
-        <v>197</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>358</v>
+        <v>410</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>449</v>
       </c>
       <c r="B44" t="s">
-        <v>359</v>
+        <v>729</v>
       </c>
       <c r="C44" t="s">
-        <v>199</v>
+        <v>518</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>360</v>
-      </c>
-      <c r="C45" t="s">
-        <v>200</v>
+        <v>452</v>
+      </c>
+      <c r="B45">
+        <v>1834927083</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1834548739</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="C46" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>453</v>
       </c>
       <c r="B47" t="s">
-        <v>362</v>
+        <v>730</v>
       </c>
       <c r="C47" t="s">
-        <v>202</v>
+        <v>520</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="C48" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>364</v>
+        <v>284</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>795</v>
       </c>
       <c r="B51" t="s">
-        <v>366</v>
+        <v>796</v>
       </c>
       <c r="C51" t="s">
-        <v>206</v>
+        <v>521</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
-        <v>367</v>
+        <v>394</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="C53" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>454</v>
       </c>
       <c r="B54" t="s">
-        <v>369</v>
+        <v>734</v>
       </c>
       <c r="C54" t="s">
-        <v>209</v>
+        <v>526</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>456</v>
       </c>
       <c r="B55" t="s">
-        <v>370</v>
+        <v>736</v>
       </c>
       <c r="C55" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>455</v>
       </c>
       <c r="B56" t="s">
-        <v>371</v>
+        <v>735</v>
       </c>
       <c r="C56" t="s">
-        <v>211</v>
+        <v>527</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>372</v>
+        <v>293</v>
       </c>
       <c r="C57" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>882</v>
       </c>
       <c r="B58" t="s">
-        <v>373</v>
+        <v>859</v>
       </c>
       <c r="C58" t="s">
-        <v>213</v>
+        <v>860</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C59" t="s">
-        <v>214</v>
+        <v>529</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B60" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C60" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="C61" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="B62" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="C62" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="B63" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C63" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C64" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="C65" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="B66" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C66" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>884</v>
       </c>
       <c r="B67" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="C67" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s">
-        <v>383</v>
+        <v>404</v>
       </c>
       <c r="C68" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>384</v>
+        <v>285</v>
       </c>
       <c r="C69" t="s">
-        <v>224</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>915</v>
       </c>
       <c r="B70" t="s">
-        <v>385</v>
-      </c>
-      <c r="C70" t="s">
-        <v>225</v>
+        <v>916</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>913</v>
       </c>
       <c r="B71" t="s">
-        <v>386</v>
-      </c>
-      <c r="C71" t="s">
-        <v>226</v>
+        <v>914</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>387</v>
+        <v>314</v>
       </c>
       <c r="C72" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="B73" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C73" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="C74" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>883</v>
       </c>
       <c r="B75" t="s">
-        <v>466</v>
+        <v>327</v>
       </c>
       <c r="C75" t="s">
-        <v>230</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>459</v>
       </c>
       <c r="B76" t="s">
-        <v>467</v>
+        <v>739</v>
       </c>
       <c r="C76" t="s">
-        <v>231</v>
+        <v>533</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="B77" t="s">
-        <v>468</v>
+        <v>398</v>
       </c>
       <c r="C77" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>460</v>
       </c>
       <c r="B78" t="s">
-        <v>469</v>
+        <v>740</v>
       </c>
       <c r="C78" t="s">
-        <v>233</v>
+        <v>534</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>470</v>
+        <v>380</v>
       </c>
       <c r="C79" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B80" t="s">
-        <v>471</v>
+        <v>315</v>
       </c>
       <c r="C80" t="s">
-        <v>235</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B81" t="s">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="C81" t="s">
-        <v>236</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="B82" t="s">
-        <v>391</v>
+        <v>319</v>
       </c>
       <c r="C82" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B83" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
       <c r="C83" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>922</v>
       </c>
       <c r="B84" t="s">
-        <v>393</v>
+        <v>922</v>
       </c>
       <c r="C84" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="B85" t="s">
-        <v>394</v>
+        <v>317</v>
       </c>
       <c r="C85" t="s">
-        <v>240</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>875</v>
       </c>
       <c r="B86" t="s">
-        <v>395</v>
+        <v>819</v>
       </c>
       <c r="C86" t="s">
-        <v>241</v>
+        <v>820</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>806</v>
       </c>
       <c r="B87" t="s">
-        <v>396</v>
+        <v>808</v>
       </c>
       <c r="C87" t="s">
-        <v>242</v>
+        <v>535</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>807</v>
       </c>
       <c r="B88" t="s">
-        <v>397</v>
+        <v>809</v>
       </c>
       <c r="C88" t="s">
-        <v>243</v>
+        <v>536</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>398</v>
+        <v>369</v>
       </c>
       <c r="C89" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="B90" t="s">
-        <v>399</v>
+        <v>328</v>
       </c>
       <c r="C90" t="s">
-        <v>245</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>889</v>
       </c>
       <c r="B91" t="s">
-        <v>400</v>
+        <v>831</v>
       </c>
       <c r="C91" t="s">
-        <v>246</v>
+        <v>544</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>917</v>
       </c>
       <c r="B92" t="s">
-        <v>401</v>
-      </c>
-      <c r="C92" t="s">
-        <v>247</v>
+        <v>920</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>918</v>
       </c>
       <c r="B93" t="s">
-        <v>402</v>
+        <v>919</v>
       </c>
       <c r="C93" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="B94" t="s">
-        <v>403</v>
+        <v>349</v>
       </c>
       <c r="C94" t="s">
-        <v>249</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>462</v>
       </c>
       <c r="B95" t="s">
-        <v>404</v>
+        <v>742</v>
       </c>
       <c r="C95" t="s">
-        <v>250</v>
+        <v>537</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B96" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C96" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="B97" t="s">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="C97" t="s">
-        <v>252</v>
+        <v>541</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B98" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="C98" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>890</v>
       </c>
       <c r="B99" t="s">
-        <v>408</v>
+        <v>755</v>
       </c>
       <c r="C99" t="s">
-        <v>254</v>
+        <v>555</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>827</v>
       </c>
       <c r="B100" t="s">
-        <v>409</v>
+        <v>828</v>
       </c>
       <c r="C100" t="s">
-        <v>255</v>
+        <v>539</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>463</v>
       </c>
       <c r="B101" t="s">
-        <v>410</v>
+        <v>829</v>
       </c>
       <c r="C101" t="s">
-        <v>256</v>
+        <v>540</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B102" t="s">
-        <v>411</v>
+        <v>345</v>
       </c>
       <c r="C102" t="s">
-        <v>257</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
       <c r="C103" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="B104" t="s">
-        <v>413</v>
+        <v>334</v>
       </c>
       <c r="C104" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="C105" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="B106" t="s">
-        <v>415</v>
+        <v>336</v>
       </c>
       <c r="C106" t="s">
-        <v>261</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B107" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="C107" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B108" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="C108" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B109" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="C109" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="B110" t="s">
-        <v>419</v>
+        <v>307</v>
       </c>
       <c r="C110" t="s">
-        <v>265</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>870</v>
       </c>
       <c r="B111" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C111" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>869</v>
       </c>
       <c r="B112" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C112" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>899</v>
       </c>
       <c r="B113" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C113" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>900</v>
       </c>
       <c r="B114" t="s">
-        <v>423</v>
+        <v>769</v>
       </c>
       <c r="C114" t="s">
-        <v>269</v>
+        <v>567</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>901</v>
       </c>
       <c r="B115" t="s">
-        <v>424</v>
+        <v>769</v>
       </c>
       <c r="C115" t="s">
-        <v>270</v>
+        <v>568</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>841</v>
       </c>
       <c r="B116" t="s">
-        <v>425</v>
+        <v>770</v>
       </c>
       <c r="C116" t="s">
-        <v>271</v>
+        <v>569</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>842</v>
       </c>
       <c r="B117" t="s">
-        <v>426</v>
+        <v>771</v>
       </c>
       <c r="C117" t="s">
-        <v>272</v>
+        <v>570</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>843</v>
       </c>
       <c r="B118" t="s">
-        <v>427</v>
+        <v>772</v>
       </c>
       <c r="C118" t="s">
-        <v>273</v>
+        <v>571</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>464</v>
       </c>
       <c r="B119" t="s">
-        <v>428</v>
+        <v>743</v>
       </c>
       <c r="C119" t="s">
-        <v>274</v>
+        <v>542</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>465</v>
       </c>
       <c r="B120" t="s">
-        <v>429</v>
+        <v>744</v>
       </c>
       <c r="C120" t="s">
-        <v>275</v>
+        <v>543</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>430</v>
+        <v>305</v>
       </c>
       <c r="C121" t="s">
-        <v>276</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>880</v>
       </c>
       <c r="B122" t="s">
-        <v>431</v>
+        <v>737</v>
       </c>
       <c r="C122" t="s">
-        <v>277</v>
+        <v>530</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>907</v>
       </c>
       <c r="B123" t="s">
-        <v>432</v>
-      </c>
-      <c r="C123" t="s">
-        <v>278</v>
+        <v>908</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>906</v>
       </c>
       <c r="B124" t="s">
-        <v>433</v>
-      </c>
-      <c r="C124" t="s">
-        <v>279</v>
+        <v>741</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>910</v>
       </c>
       <c r="B125" t="s">
-        <v>434</v>
+        <v>363</v>
       </c>
       <c r="C125" t="s">
-        <v>280</v>
+        <v>219</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="B126" t="s">
-        <v>435</v>
+        <v>304</v>
       </c>
       <c r="C126" t="s">
-        <v>281</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>466</v>
       </c>
       <c r="B127" t="s">
-        <v>436</v>
-      </c>
-      <c r="C127" t="s">
-        <v>282</v>
+        <v>745</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>781</v>
       </c>
       <c r="B128" t="s">
-        <v>437</v>
+        <v>782</v>
       </c>
       <c r="C128" t="s">
-        <v>283</v>
+        <v>502</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B129" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="C129" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>439</v>
+        <v>297</v>
       </c>
       <c r="C130" t="s">
-        <v>285</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>832</v>
       </c>
       <c r="B131" t="s">
-        <v>440</v>
+        <v>833</v>
       </c>
       <c r="C131" t="s">
-        <v>286</v>
+        <v>545</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="C132" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>912</v>
       </c>
       <c r="B133" t="s">
-        <v>442</v>
+        <v>777</v>
       </c>
       <c r="C133" t="s">
-        <v>288</v>
+        <v>583</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>804</v>
       </c>
       <c r="B134" t="s">
-        <v>443</v>
+        <v>805</v>
       </c>
       <c r="C134" t="s">
-        <v>289</v>
+        <v>532</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>467</v>
       </c>
       <c r="B135" t="s">
-        <v>444</v>
+        <v>746</v>
       </c>
       <c r="C135" t="s">
-        <v>290</v>
+        <v>546</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>834</v>
       </c>
       <c r="B136" t="s">
-        <v>445</v>
+        <v>747</v>
       </c>
       <c r="C136" t="s">
-        <v>291</v>
+        <v>547</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>792</v>
       </c>
       <c r="B137" t="s">
-        <v>446</v>
+        <v>793</v>
       </c>
       <c r="C137" t="s">
-        <v>292</v>
+        <v>509</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="B138" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="C138" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="B139" t="s">
-        <v>448</v>
+        <v>342</v>
       </c>
       <c r="C139" t="s">
-        <v>294</v>
+        <v>194</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>449</v>
+        <v>339</v>
       </c>
       <c r="C140" t="s">
-        <v>295</v>
+        <v>191</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>468</v>
       </c>
       <c r="B141" t="s">
-        <v>450</v>
+        <v>748</v>
       </c>
       <c r="C141" t="s">
-        <v>296</v>
+        <v>548</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>7</v>
       </c>
       <c r="B142" t="s">
-        <v>451</v>
+        <v>289</v>
       </c>
       <c r="C142" t="s">
-        <v>297</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="B143" t="s">
-        <v>452</v>
+        <v>286</v>
       </c>
       <c r="C143" t="s">
-        <v>298</v>
+        <v>140</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>453</v>
+        <v>288</v>
       </c>
       <c r="C144" t="s">
-        <v>299</v>
+        <v>141</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="B145" t="s">
-        <v>454</v>
+        <v>337</v>
       </c>
       <c r="C145" t="s">
-        <v>300</v>
+        <v>189</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>145</v>
+        <v>872</v>
       </c>
       <c r="B146" t="s">
-        <v>455</v>
+        <v>794</v>
       </c>
       <c r="C146" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>878</v>
       </c>
       <c r="B147" t="s">
-        <v>456</v>
+        <v>799</v>
       </c>
       <c r="C147" t="s">
-        <v>302</v>
+        <v>524</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>881</v>
       </c>
       <c r="B148" t="s">
-        <v>457</v>
+        <v>738</v>
       </c>
       <c r="C148" t="s">
-        <v>472</v>
+        <v>531</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>148</v>
+        <v>885</v>
       </c>
       <c r="B149" t="s">
-        <v>458</v>
+        <v>732</v>
       </c>
       <c r="C149" t="s">
-        <v>303</v>
+        <v>862</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>149</v>
+        <v>871</v>
       </c>
       <c r="B150" t="s">
-        <v>459</v>
+        <v>783</v>
       </c>
       <c r="C150" t="s">
-        <v>304</v>
+        <v>503</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>473</v>
+        <v>835</v>
       </c>
       <c r="B151" t="s">
-        <v>474</v>
+        <v>836</v>
       </c>
       <c r="C151" t="s">
-        <v>305</v>
+        <v>550</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>902</v>
       </c>
       <c r="B152" t="s">
-        <v>460</v>
+        <v>811</v>
       </c>
       <c r="C152" t="s">
-        <v>306</v>
+        <v>863</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B153" t="s">
-        <v>476</v>
+        <v>750</v>
       </c>
       <c r="C153" t="s">
-        <v>307</v>
+        <v>551</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>151</v>
+        <v>472</v>
       </c>
       <c r="B154" t="s">
-        <v>461</v>
+        <v>751</v>
       </c>
       <c r="C154" t="s">
-        <v>308</v>
+        <v>552</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>478</v>
+        <v>69</v>
       </c>
       <c r="B155" t="s">
-        <v>477</v>
+        <v>354</v>
       </c>
       <c r="C155" t="s">
-        <v>309</v>
+        <v>204</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>479</v>
+        <v>72</v>
       </c>
       <c r="B156" t="s">
-        <v>480</v>
+        <v>426</v>
       </c>
       <c r="C156" t="s">
-        <v>310</v>
+        <v>207</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>481</v>
+        <v>74</v>
       </c>
       <c r="B157" t="s">
-        <v>482</v>
+        <v>428</v>
       </c>
       <c r="C157" t="s">
-        <v>311</v>
+        <v>209</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="B158" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="C158" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="B159" t="s">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="C159" t="s">
-        <v>313</v>
+        <v>208</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="B160" t="s">
-        <v>464</v>
+        <v>425</v>
       </c>
       <c r="C160" t="s">
-        <v>314</v>
+        <v>206</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>70</v>
+      </c>
+      <c r="B161" t="s">
+        <v>424</v>
+      </c>
+      <c r="C161" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>474</v>
+      </c>
+      <c r="B162" t="s">
+        <v>753</v>
+      </c>
+      <c r="C162" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>473</v>
+      </c>
+      <c r="B163" t="s">
+        <v>752</v>
+      </c>
+      <c r="C163" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>475</v>
+      </c>
+      <c r="B164" t="s">
+        <v>754</v>
+      </c>
+      <c r="C164" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>888</v>
+      </c>
+      <c r="B165" t="s">
+        <v>749</v>
+      </c>
+      <c r="C165" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>98</v>
+      </c>
+      <c r="B166" t="s">
+        <v>382</v>
+      </c>
+      <c r="C166" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>92</v>
+      </c>
+      <c r="B167" t="s">
+        <v>376</v>
+      </c>
+      <c r="C167" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>93</v>
+      </c>
+      <c r="B168" t="s">
+        <v>377</v>
+      </c>
+      <c r="C168" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>886</v>
+      </c>
+      <c r="B169" t="s">
+        <v>733</v>
+      </c>
+      <c r="C169" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>876</v>
+      </c>
+      <c r="B170" t="s">
+        <v>867</v>
+      </c>
+      <c r="C170" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>879</v>
+      </c>
+      <c r="B171" t="s">
+        <v>797</v>
+      </c>
+      <c r="C171" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>102</v>
+      </c>
+      <c r="B172" t="s">
+        <v>386</v>
+      </c>
+      <c r="C172" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>94</v>
+      </c>
+      <c r="B173" t="s">
+        <v>378</v>
+      </c>
+      <c r="C173" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>89</v>
+      </c>
+      <c r="B174" t="s">
+        <v>373</v>
+      </c>
+      <c r="C174" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>477</v>
+      </c>
+      <c r="B175" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>120</v>
+      </c>
+      <c r="B176" t="s">
+        <v>405</v>
+      </c>
+      <c r="C176" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>133</v>
+      </c>
+      <c r="B177" t="s">
+        <v>418</v>
+      </c>
+      <c r="C177" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>130</v>
+      </c>
+      <c r="B178" t="s">
+        <v>415</v>
+      </c>
+      <c r="C178" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>478</v>
+      </c>
+      <c r="B179" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>17</v>
+      </c>
+      <c r="B180" t="s">
+        <v>299</v>
+      </c>
+      <c r="C180" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>873</v>
+      </c>
+      <c r="B181" t="s">
+        <v>874</v>
+      </c>
+      <c r="C181" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>911</v>
+      </c>
+      <c r="B182" t="s">
+        <v>362</v>
+      </c>
+      <c r="C182" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>122</v>
+      </c>
+      <c r="B183" t="s">
+        <v>407</v>
+      </c>
+      <c r="C183" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>894</v>
+      </c>
+      <c r="B184" t="s">
+        <v>432</v>
+      </c>
+      <c r="C184" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>895</v>
+      </c>
+      <c r="B185" t="s">
+        <v>431</v>
+      </c>
+      <c r="C185" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>896</v>
+      </c>
+      <c r="B186" t="s">
+        <v>897</v>
+      </c>
+      <c r="C186" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>481</v>
+      </c>
+      <c r="B187" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>480</v>
+      </c>
+      <c r="B188" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>50</v>
+      </c>
+      <c r="B189" t="s">
+        <v>333</v>
+      </c>
+      <c r="C189" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>848</v>
+      </c>
+      <c r="B190" t="s">
+        <v>849</v>
+      </c>
+      <c r="C190" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>482</v>
+      </c>
+      <c r="B191" t="s">
+        <v>761</v>
+      </c>
+      <c r="C191" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>46</v>
+      </c>
+      <c r="B192" t="s">
+        <v>329</v>
+      </c>
+      <c r="C192" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>47</v>
+      </c>
+      <c r="B194" t="s">
+        <v>330</v>
+      </c>
+      <c r="C194" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>48</v>
+      </c>
+      <c r="B195" t="s">
+        <v>331</v>
+      </c>
+      <c r="C195" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>39</v>
+      </c>
+      <c r="B196" t="s">
+        <v>321</v>
+      </c>
+      <c r="C196" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>40</v>
+      </c>
+      <c r="B197" t="s">
+        <v>322</v>
+      </c>
+      <c r="C197" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>483</v>
+      </c>
+      <c r="B198" t="s">
+        <v>762</v>
+      </c>
+      <c r="C198" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>41</v>
+      </c>
+      <c r="B199" t="s">
+        <v>323</v>
+      </c>
+      <c r="C199" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>484</v>
+      </c>
+      <c r="B200" t="s">
+        <v>763</v>
+      </c>
+      <c r="C200" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>784</v>
+      </c>
+      <c r="B201" t="s">
+        <v>785</v>
+      </c>
+      <c r="C201" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>857</v>
+      </c>
+      <c r="B202" t="s">
+        <v>764</v>
+      </c>
+      <c r="C202" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>891</v>
+      </c>
+      <c r="B203" t="s">
+        <v>812</v>
+      </c>
+      <c r="C203" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>485</v>
+      </c>
+      <c r="B204" t="s">
+        <v>765</v>
+      </c>
+      <c r="C204" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>898</v>
+      </c>
+      <c r="B205" t="s">
+        <v>340</v>
+      </c>
+      <c r="C205" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>128</v>
+      </c>
+      <c r="B206" t="s">
+        <v>413</v>
+      </c>
+      <c r="C206" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>55</v>
+      </c>
+      <c r="B207" t="s">
+        <v>338</v>
+      </c>
+      <c r="C207" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>80</v>
+      </c>
+      <c r="B208" t="s">
+        <v>364</v>
+      </c>
+      <c r="C208" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>134</v>
+      </c>
+      <c r="B209" t="s">
+        <v>419</v>
+      </c>
+      <c r="C209" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>8</v>
+      </c>
+      <c r="B210" t="s">
+        <v>290</v>
+      </c>
+      <c r="C210" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>487</v>
+      </c>
+      <c r="B211" t="s">
+        <v>767</v>
+      </c>
+      <c r="C211" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>19</v>
+      </c>
+      <c r="B212" t="s">
+        <v>301</v>
+      </c>
+      <c r="C212" t="s">
         <v>155</v>
       </c>
-      <c r="B161" t="s">
-        <v>465</v>
-      </c>
-      <c r="C161" t="s">
-        <v>315</v>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>20</v>
+      </c>
+      <c r="B213" t="s">
+        <v>302</v>
+      </c>
+      <c r="C213" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" t="s">
+        <v>292</v>
+      </c>
+      <c r="C214" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>62</v>
+      </c>
+      <c r="B215" t="s">
+        <v>347</v>
+      </c>
+      <c r="C215" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>63</v>
+      </c>
+      <c r="B216" t="s">
+        <v>348</v>
+      </c>
+      <c r="C216" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>61</v>
+      </c>
+      <c r="B217" t="s">
+        <v>346</v>
+      </c>
+      <c r="C217" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>112</v>
+      </c>
+      <c r="B218" t="s">
+        <v>396</v>
+      </c>
+      <c r="C218" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>88</v>
+      </c>
+      <c r="B219" t="s">
+        <v>372</v>
+      </c>
+      <c r="C219" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>29</v>
+      </c>
+      <c r="B220" t="s">
+        <v>311</v>
+      </c>
+      <c r="C220" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>28</v>
+      </c>
+      <c r="B221" t="s">
+        <v>310</v>
+      </c>
+      <c r="C221" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>786</v>
+      </c>
+      <c r="B222" t="s">
+        <v>787</v>
+      </c>
+      <c r="C222" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>490</v>
+      </c>
+      <c r="B223" t="s">
+        <v>773</v>
+      </c>
+      <c r="C223" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>21</v>
+      </c>
+      <c r="B224" t="s">
+        <v>303</v>
+      </c>
+      <c r="C224" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>126</v>
+      </c>
+      <c r="B225" t="s">
+        <v>411</v>
+      </c>
+      <c r="C225" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>825</v>
+      </c>
+      <c r="B226" t="s">
+        <v>826</v>
+      </c>
+      <c r="C226" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>103</v>
+      </c>
+      <c r="B227" t="s">
+        <v>387</v>
+      </c>
+      <c r="C227" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>52</v>
+      </c>
+      <c r="B228" t="s">
+        <v>335</v>
+      </c>
+      <c r="C228" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>49</v>
+      </c>
+      <c r="B229" t="s">
+        <v>332</v>
+      </c>
+      <c r="C229" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>921</v>
+      </c>
+      <c r="B230" t="s">
+        <v>343</v>
+      </c>
+      <c r="C230" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>87</v>
+      </c>
+      <c r="B231" t="s">
+        <v>371</v>
+      </c>
+      <c r="C231" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>433</v>
+      </c>
+      <c r="B232" t="s">
+        <v>359</v>
+      </c>
+      <c r="C232" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>433</v>
+      </c>
+      <c r="B233" t="s">
+        <v>434</v>
+      </c>
+      <c r="C233" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>892</v>
+      </c>
+      <c r="B234" t="s">
+        <v>358</v>
+      </c>
+      <c r="C234" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>893</v>
+      </c>
+      <c r="B235" t="s">
+        <v>360</v>
+      </c>
+      <c r="C235" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>788</v>
+      </c>
+      <c r="B236" t="s">
+        <v>789</v>
+      </c>
+      <c r="C236" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>43</v>
+      </c>
+      <c r="B237" t="s">
+        <v>325</v>
+      </c>
+      <c r="C237" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>491</v>
+      </c>
+      <c r="B238" t="s">
+        <v>774</v>
+      </c>
+      <c r="C238" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>492</v>
+      </c>
+      <c r="B239" t="s">
+        <v>775</v>
+      </c>
+      <c r="C239" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>66</v>
+      </c>
+      <c r="B240" t="s">
+        <v>351</v>
+      </c>
+      <c r="C240" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>67</v>
+      </c>
+      <c r="B241" t="s">
+        <v>352</v>
+      </c>
+      <c r="C241" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>68</v>
+      </c>
+      <c r="B242" t="s">
+        <v>353</v>
+      </c>
+      <c r="C242" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>865</v>
+      </c>
+      <c r="B243" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>9</v>
+      </c>
+      <c r="B244" t="s">
+        <v>291</v>
+      </c>
+      <c r="C244" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>864</v>
+      </c>
+      <c r="B245" t="s">
+        <v>866</v>
+      </c>
+      <c r="C245" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>36</v>
+      </c>
+      <c r="B246" t="s">
+        <v>318</v>
+      </c>
+      <c r="C246" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>844</v>
+      </c>
+      <c r="B247" t="s">
+        <v>845</v>
+      </c>
+      <c r="C247" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>877</v>
+      </c>
+      <c r="B248" t="s">
+        <v>851</v>
+      </c>
+      <c r="C248" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>887</v>
+      </c>
+      <c r="B249" t="s">
+        <v>847</v>
+      </c>
+      <c r="C249" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>816</v>
+      </c>
+      <c r="B250" t="s">
+        <v>817</v>
+      </c>
+      <c r="C250" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>493</v>
+      </c>
+      <c r="B251" t="s">
+        <v>776</v>
+      </c>
+      <c r="C251" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>814</v>
+      </c>
+      <c r="B252" t="s">
+        <v>815</v>
+      </c>
+      <c r="C252" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>34</v>
+      </c>
+      <c r="B253" t="s">
+        <v>316</v>
+      </c>
+      <c r="C253" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>823</v>
+      </c>
+      <c r="B254" t="s">
+        <v>824</v>
+      </c>
+      <c r="C254" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>131</v>
+      </c>
+      <c r="B255" t="s">
+        <v>416</v>
+      </c>
+      <c r="C255" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>494</v>
+      </c>
+      <c r="B256" t="s">
+        <v>582</v>
+      </c>
+      <c r="C256" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>115</v>
+      </c>
+      <c r="B257" t="s">
+        <v>399</v>
+      </c>
+      <c r="C257" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>14</v>
+      </c>
+      <c r="B258" t="s">
+        <v>296</v>
+      </c>
+      <c r="C258" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:C258">
+    <sortCondition ref="A238"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CF7B10-8A83-C844-9233-3895305C52AA}">
-  <dimension ref="A1:K182"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="37.6640625" customWidth="1"/>
-    <col min="3" max="3" width="71.33203125" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.5" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>841</v>
+      </c>
       <c r="B1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" t="s">
+        <v>717</v>
+      </c>
+      <c r="C4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>779</v>
+      </c>
+      <c r="B5" t="s">
+        <v>780</v>
+      </c>
+      <c r="C5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" t="s">
+        <v>718</v>
+      </c>
+      <c r="C6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B8" t="s">
+        <v>719</v>
+      </c>
+      <c r="C8" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>781</v>
+      </c>
+      <c r="B9" t="s">
+        <v>782</v>
+      </c>
+      <c r="C9" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>871</v>
+      </c>
+      <c r="B10" t="s">
+        <v>783</v>
+      </c>
+      <c r="C10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>784</v>
+      </c>
+      <c r="B11" t="s">
+        <v>785</v>
+      </c>
+      <c r="C11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>786</v>
+      </c>
+      <c r="B12" t="s">
+        <v>787</v>
+      </c>
+      <c r="C12" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>788</v>
+      </c>
+      <c r="B13" t="s">
+        <v>789</v>
+      </c>
+      <c r="C13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>790</v>
+      </c>
+      <c r="B14" t="s">
+        <v>791</v>
+      </c>
+      <c r="C14" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>438</v>
+      </c>
+      <c r="B15" t="s">
+        <v>720</v>
+      </c>
+      <c r="C15" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>313</v>
+      </c>
+      <c r="C16" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>792</v>
+      </c>
+      <c r="B17" t="s">
+        <v>793</v>
+      </c>
+      <c r="C17" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>440</v>
+      </c>
+      <c r="B18" t="s">
+        <v>721</v>
+      </c>
+      <c r="C18" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>441</v>
+      </c>
+      <c r="B19" t="s">
+        <v>722</v>
+      </c>
+      <c r="C19" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>442</v>
+      </c>
+      <c r="B20" t="s">
+        <v>723</v>
+      </c>
+      <c r="C20" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>443</v>
+      </c>
+      <c r="B21" t="s">
+        <v>724</v>
+      </c>
+      <c r="C21" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>444</v>
+      </c>
+      <c r="B22" t="s">
+        <v>725</v>
+      </c>
+      <c r="C22" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>445</v>
+      </c>
+      <c r="B23">
+        <v>880</v>
+      </c>
+      <c r="C23" s="1">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>446</v>
+      </c>
+      <c r="B24" t="s">
+        <v>726</v>
+      </c>
+      <c r="C24" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>447</v>
+      </c>
+      <c r="B25" t="s">
+        <v>727</v>
+      </c>
+      <c r="C25" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>448</v>
+      </c>
+      <c r="B26" t="s">
+        <v>728</v>
+      </c>
+      <c r="C26" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>449</v>
+      </c>
+      <c r="B27" t="s">
+        <v>729</v>
+      </c>
+      <c r="C27" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>872</v>
+      </c>
+      <c r="B28" t="s">
+        <v>794</v>
+      </c>
+      <c r="C28" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>452</v>
+      </c>
+      <c r="B29">
+        <v>1834927083</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1834548739</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>453</v>
+      </c>
+      <c r="B30" t="s">
+        <v>730</v>
+      </c>
+      <c r="C30" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>795</v>
+      </c>
+      <c r="B31" t="s">
+        <v>796</v>
+      </c>
+      <c r="C31" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>803</v>
+      </c>
+      <c r="B32" t="s">
+        <v>797</v>
+      </c>
+      <c r="C32" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>802</v>
+      </c>
+      <c r="B33" t="s">
+        <v>731</v>
+      </c>
+      <c r="C33" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>798</v>
+      </c>
+      <c r="B34" t="s">
+        <v>799</v>
+      </c>
+      <c r="C34" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>800</v>
+      </c>
+      <c r="B35" t="s">
+        <v>732</v>
+      </c>
+      <c r="C35" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>801</v>
+      </c>
+      <c r="B36" t="s">
+        <v>733</v>
+      </c>
+      <c r="C36" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>454</v>
+      </c>
+      <c r="B37" t="s">
+        <v>734</v>
+      </c>
+      <c r="C37" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>455</v>
+      </c>
+      <c r="B38" t="s">
+        <v>735</v>
+      </c>
+      <c r="C38" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>456</v>
+      </c>
+      <c r="B39" t="s">
+        <v>736</v>
+      </c>
+      <c r="C39" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" t="s">
+        <v>368</v>
+      </c>
+      <c r="C40" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>457</v>
+      </c>
+      <c r="B41" t="s">
+        <v>737</v>
+      </c>
+      <c r="C41" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>458</v>
+      </c>
+      <c r="B42" t="s">
+        <v>738</v>
+      </c>
+      <c r="C42" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>804</v>
+      </c>
+      <c r="B43" t="s">
+        <v>805</v>
+      </c>
+      <c r="C43" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>459</v>
+      </c>
+      <c r="B44" t="s">
+        <v>739</v>
+      </c>
+      <c r="C44" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>460</v>
+      </c>
+      <c r="B45" t="s">
+        <v>740</v>
+      </c>
+      <c r="C45" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>380</v>
+      </c>
+      <c r="C46" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>806</v>
+      </c>
+      <c r="B47" t="s">
+        <v>808</v>
+      </c>
+      <c r="C47" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>807</v>
+      </c>
+      <c r="B48" t="s">
+        <v>809</v>
+      </c>
+      <c r="C48" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>810</v>
+      </c>
+      <c r="B49" t="s">
+        <v>811</v>
+      </c>
+      <c r="C49" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>462</v>
+      </c>
+      <c r="B50" t="s">
+        <v>742</v>
+      </c>
+      <c r="C50" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" t="s">
+        <v>412</v>
+      </c>
+      <c r="C51" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>827</v>
+      </c>
+      <c r="B52" t="s">
+        <v>828</v>
+      </c>
+      <c r="C52" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>463</v>
+      </c>
+      <c r="B53" t="s">
+        <v>829</v>
+      </c>
+      <c r="C53" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>344</v>
+      </c>
+      <c r="C54" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" t="s">
+        <v>367</v>
+      </c>
+      <c r="C55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>464</v>
+      </c>
+      <c r="B56" t="s">
+        <v>743</v>
+      </c>
+      <c r="C56" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>465</v>
+      </c>
+      <c r="B57" t="s">
+        <v>744</v>
+      </c>
+      <c r="C57" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>830</v>
+      </c>
+      <c r="B58" t="s">
+        <v>831</v>
+      </c>
+      <c r="C58" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>466</v>
+      </c>
+      <c r="B59" t="s">
+        <v>745</v>
+      </c>
+      <c r="C59" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>832</v>
+      </c>
+      <c r="B60" t="s">
+        <v>833</v>
+      </c>
+      <c r="C60" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>467</v>
+      </c>
+      <c r="B61" t="s">
+        <v>746</v>
+      </c>
+      <c r="C61" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>834</v>
+      </c>
+      <c r="B62" t="s">
+        <v>747</v>
+      </c>
+      <c r="C62" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>468</v>
+      </c>
+      <c r="B63" t="s">
+        <v>748</v>
+      </c>
+      <c r="C63" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>469</v>
+      </c>
+      <c r="B65" t="s">
+        <v>749</v>
+      </c>
+      <c r="C65" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>835</v>
+      </c>
+      <c r="B66" t="s">
+        <v>836</v>
+      </c>
+      <c r="C66" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>471</v>
+      </c>
+      <c r="B67" t="s">
+        <v>750</v>
+      </c>
+      <c r="C67" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>472</v>
+      </c>
+      <c r="B68" t="s">
+        <v>751</v>
+      </c>
+      <c r="C68" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>473</v>
+      </c>
+      <c r="B69" t="s">
+        <v>752</v>
+      </c>
+      <c r="C69" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>474</v>
+      </c>
+      <c r="B70" t="s">
+        <v>753</v>
+      </c>
+      <c r="C70" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>475</v>
+      </c>
+      <c r="B71" t="s">
+        <v>754</v>
+      </c>
+      <c r="C71" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>476</v>
+      </c>
+      <c r="B72" t="s">
+        <v>755</v>
+      </c>
+      <c r="C72" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>477</v>
+      </c>
+      <c r="B73" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>478</v>
+      </c>
+      <c r="B74" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>873</v>
+      </c>
+      <c r="B75" t="s">
+        <v>874</v>
+      </c>
+      <c r="C75" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>479</v>
+      </c>
+      <c r="B77" t="s">
+        <v>758</v>
+      </c>
+      <c r="C77" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>480</v>
+      </c>
+      <c r="B78" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>481</v>
+      </c>
+      <c r="B79" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>482</v>
+      </c>
+      <c r="B80" t="s">
+        <v>761</v>
+      </c>
+      <c r="C80" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>483</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B81" t="s">
+        <v>762</v>
+      </c>
+      <c r="C81" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>484</v>
+      </c>
+      <c r="B82" t="s">
+        <v>763</v>
+      </c>
+      <c r="C82" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>857</v>
+      </c>
+      <c r="B83" t="s">
+        <v>764</v>
+      </c>
+      <c r="C83" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>485</v>
+      </c>
+      <c r="B84" t="s">
+        <v>765</v>
+      </c>
+      <c r="C84" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>858</v>
+      </c>
+      <c r="B85" t="s">
+        <v>859</v>
+      </c>
+      <c r="C85" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>766</v>
+      </c>
+      <c r="C86" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>487</v>
+      </c>
+      <c r="B87" t="s">
+        <v>767</v>
+      </c>
+      <c r="C87" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>488</v>
+      </c>
+      <c r="B88" t="s">
+        <v>768</v>
+      </c>
+      <c r="C88" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>489</v>
+      </c>
+      <c r="B89" t="s">
+        <v>769</v>
+      </c>
+      <c r="C89" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>838</v>
+      </c>
+      <c r="B90" t="s">
+        <v>769</v>
+      </c>
+      <c r="C90" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>490</v>
+      </c>
+      <c r="B91" t="s">
+        <v>773</v>
+      </c>
+      <c r="C91" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
+        <v>303</v>
+      </c>
+      <c r="C92" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>839</v>
+      </c>
+      <c r="B93" t="s">
+        <v>840</v>
+      </c>
+      <c r="C93" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>825</v>
+      </c>
+      <c r="B94" t="s">
+        <v>826</v>
+      </c>
+      <c r="C94" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>478</v>
+      </c>
+      <c r="B95" t="s">
+        <v>757</v>
+      </c>
+      <c r="C95" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>864</v>
+      </c>
+      <c r="B96" t="s">
+        <v>866</v>
+      </c>
+      <c r="C96" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>802</v>
+      </c>
+      <c r="B97" t="s">
+        <v>867</v>
+      </c>
+      <c r="C97" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>865</v>
+      </c>
+      <c r="B98" t="s">
         <v>868</v>
       </c>
-      <c r="D1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>980</v>
-      </c>
-      <c r="C2" t="s">
-        <v>981</v>
-      </c>
-      <c r="D2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C3" t="s">
-        <v>869</v>
-      </c>
-      <c r="D3" t="s">
-        <v>602</v>
-      </c>
-      <c r="E3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>485</v>
-      </c>
-      <c r="C4" t="s">
-        <v>870</v>
-      </c>
-      <c r="D4" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>433</v>
+      </c>
+      <c r="B99" t="s">
+        <v>434</v>
+      </c>
+      <c r="C99" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>823</v>
+      </c>
+      <c r="B100" t="s">
+        <v>824</v>
+      </c>
+      <c r="C100" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>491</v>
+      </c>
+      <c r="B101" t="s">
+        <v>774</v>
+      </c>
+      <c r="C101" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>492</v>
+      </c>
+      <c r="B102" t="s">
+        <v>775</v>
+      </c>
+      <c r="C102" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
-        <v>359</v>
-      </c>
-      <c r="D5" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>486</v>
-      </c>
-      <c r="C6" t="s">
-        <v>871</v>
-      </c>
-      <c r="D6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>348</v>
-      </c>
-      <c r="D7" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>982</v>
-      </c>
-      <c r="C8" t="s">
-        <v>983</v>
-      </c>
-      <c r="D8" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>984</v>
-      </c>
-      <c r="C9" t="s">
-        <v>985</v>
-      </c>
-      <c r="D9" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>986</v>
-      </c>
-      <c r="C10" t="s">
-        <v>987</v>
-      </c>
-      <c r="D10" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>988</v>
-      </c>
-      <c r="C11" t="s">
-        <v>989</v>
-      </c>
-      <c r="D11" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>990</v>
-      </c>
-      <c r="C12" t="s">
-        <v>992</v>
-      </c>
-      <c r="D12" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>994</v>
-      </c>
-      <c r="C13" t="s">
-        <v>995</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>487</v>
-      </c>
-      <c r="C14" t="s">
-        <v>872</v>
-      </c>
-      <c r="D14" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>348</v>
-      </c>
-      <c r="D15" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>996</v>
-      </c>
-      <c r="C16" t="s">
-        <v>997</v>
-      </c>
-      <c r="D16" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>488</v>
-      </c>
-      <c r="C17" t="s">
-        <v>873</v>
-      </c>
-      <c r="D17" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>489</v>
-      </c>
-      <c r="C18" t="s">
-        <v>874</v>
-      </c>
-      <c r="D18" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>490</v>
-      </c>
-      <c r="C19" t="s">
-        <v>875</v>
-      </c>
-      <c r="D19" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>491</v>
-      </c>
-      <c r="C20" t="s">
-        <v>876</v>
-      </c>
-      <c r="D20" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>492</v>
-      </c>
-      <c r="C21" t="s">
-        <v>877</v>
-      </c>
-      <c r="D21" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="B103" t="s">
+        <v>325</v>
+      </c>
+      <c r="C103" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>818</v>
+      </c>
+      <c r="B104" t="s">
+        <v>819</v>
+      </c>
+      <c r="C104" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>291</v>
+      </c>
+      <c r="C105" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>816</v>
+      </c>
+      <c r="B106" t="s">
+        <v>817</v>
+      </c>
+      <c r="C106" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>493</v>
       </c>
-      <c r="C22" t="s">
-        <v>878</v>
-      </c>
-      <c r="D22" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B107" t="s">
+        <v>776</v>
+      </c>
+      <c r="C107" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>814</v>
+      </c>
+      <c r="B108" t="s">
+        <v>815</v>
+      </c>
+      <c r="C108" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>813</v>
+      </c>
+      <c r="B109" t="s">
+        <v>812</v>
+      </c>
+      <c r="C109" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>494</v>
       </c>
-      <c r="C23" t="s">
-        <v>879</v>
-      </c>
-      <c r="D23" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="B110" t="s">
+        <v>582</v>
+      </c>
+      <c r="C110" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>495</v>
       </c>
-      <c r="C24" t="s">
-        <v>880</v>
-      </c>
-      <c r="D24" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="B111" t="s">
+        <v>777</v>
+      </c>
+      <c r="C111" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>496</v>
       </c>
-      <c r="C25">
-        <v>880</v>
-      </c>
-      <c r="D25" s="1">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>497</v>
-      </c>
-      <c r="C26" t="s">
-        <v>881</v>
-      </c>
-      <c r="D26" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>498</v>
-      </c>
-      <c r="C27" t="s">
-        <v>882</v>
-      </c>
-      <c r="D27" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>499</v>
-      </c>
-      <c r="C28" t="s">
-        <v>883</v>
-      </c>
-      <c r="D28" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>500</v>
-      </c>
-      <c r="C29" t="s">
-        <v>884</v>
-      </c>
-      <c r="D29" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>501</v>
-      </c>
-      <c r="C30" t="s">
-        <v>998</v>
-      </c>
-      <c r="D30" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s">
-        <v>503</v>
-      </c>
-      <c r="C31" t="s">
-        <v>885</v>
-      </c>
-      <c r="D31" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>504</v>
-      </c>
-      <c r="C32" t="s">
-        <v>886</v>
-      </c>
-      <c r="D32" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>505</v>
-      </c>
-      <c r="C33" t="s">
-        <v>887</v>
-      </c>
-      <c r="D33" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>506</v>
-      </c>
-      <c r="C34">
-        <v>1834927083</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1834548739</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>507</v>
-      </c>
-      <c r="C35" t="s">
-        <v>888</v>
-      </c>
-      <c r="D35" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>999</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D36" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>508</v>
-      </c>
-      <c r="C37" t="s">
-        <v>889</v>
-      </c>
-      <c r="D37" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>509</v>
-      </c>
-      <c r="C38" t="s">
-        <v>890</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D39" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C40" t="s">
-        <v>891</v>
-      </c>
-      <c r="D40" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D41" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C42" t="s">
-        <v>892</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C43" t="s">
-        <v>893</v>
-      </c>
-      <c r="D43" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44" t="s">
-        <v>510</v>
-      </c>
-      <c r="C44" t="s">
-        <v>894</v>
-      </c>
-      <c r="D44" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>511</v>
-      </c>
-      <c r="C45" t="s">
-        <v>895</v>
-      </c>
-      <c r="D45" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>512</v>
-      </c>
-      <c r="C46" t="s">
-        <v>896</v>
-      </c>
-      <c r="D46" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>513</v>
-      </c>
-      <c r="C47" t="s">
-        <v>897</v>
-      </c>
-      <c r="D47" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" t="s">
-        <v>403</v>
-      </c>
-      <c r="D48" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>514</v>
-      </c>
-      <c r="C49" t="s">
-        <v>898</v>
-      </c>
-      <c r="D49" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>515</v>
-      </c>
-      <c r="D50" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
-        <v>516</v>
-      </c>
-      <c r="C51" t="s">
-        <v>899</v>
-      </c>
-      <c r="E51" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
-        <v>517</v>
-      </c>
-      <c r="C52" t="s">
-        <v>900</v>
-      </c>
-      <c r="E52" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
-        <v>518</v>
-      </c>
-      <c r="C53" t="s">
-        <v>901</v>
-      </c>
-      <c r="D53" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>519</v>
-      </c>
-      <c r="C54" t="s">
-        <v>902</v>
-      </c>
-      <c r="D54" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D55" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
-        <v>520</v>
-      </c>
-      <c r="C56" t="s">
-        <v>903</v>
-      </c>
-      <c r="D56" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>521</v>
-      </c>
-      <c r="C57" t="s">
-        <v>904</v>
-      </c>
-      <c r="D57" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" t="s">
-        <v>415</v>
-      </c>
-      <c r="D58" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D59" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D60" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
-        <v>522</v>
-      </c>
-      <c r="C62" t="s">
-        <v>905</v>
-      </c>
-      <c r="D62" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
-        <v>523</v>
-      </c>
-      <c r="C63" t="s">
-        <v>906</v>
-      </c>
-      <c r="D63" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>524</v>
-      </c>
-      <c r="C64" t="s">
-        <v>907</v>
-      </c>
-      <c r="D64" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" t="s">
-        <v>454</v>
-      </c>
-      <c r="D65" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66" t="s">
-        <v>991</v>
-      </c>
-      <c r="C66" t="s">
-        <v>993</v>
-      </c>
-      <c r="D66" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67" t="s">
-        <v>525</v>
-      </c>
-      <c r="C67" t="s">
-        <v>908</v>
-      </c>
-      <c r="D67" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>1</v>
-      </c>
-      <c r="B68" t="s">
-        <v>526</v>
-      </c>
-      <c r="C68" t="s">
-        <v>909</v>
-      </c>
-      <c r="D68" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D69" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>527</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D70" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" t="s">
-        <v>379</v>
-      </c>
-      <c r="D71" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" t="s">
-        <v>402</v>
-      </c>
-      <c r="D72" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
-        <v>528</v>
-      </c>
-      <c r="C73" t="s">
-        <v>910</v>
-      </c>
-      <c r="D73" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>529</v>
-      </c>
-      <c r="C74" t="s">
-        <v>911</v>
-      </c>
-      <c r="D74" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>1</v>
-      </c>
-      <c r="B75" t="s">
-        <v>530</v>
-      </c>
-      <c r="C75" t="s">
-        <v>912</v>
-      </c>
-      <c r="D75" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>531</v>
-      </c>
-      <c r="C76" t="s">
-        <v>913</v>
-      </c>
-      <c r="D76" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>1</v>
-      </c>
-      <c r="B77" t="s">
-        <v>532</v>
-      </c>
-      <c r="C77" t="s">
-        <v>914</v>
-      </c>
-      <c r="D77" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="B78" t="s">
-        <v>533</v>
-      </c>
-      <c r="C78" t="s">
-        <v>915</v>
-      </c>
-      <c r="D78" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>1</v>
-      </c>
-      <c r="B79" t="s">
-        <v>534</v>
-      </c>
-      <c r="C79" t="s">
-        <v>916</v>
-      </c>
-      <c r="D79" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D80" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>535</v>
-      </c>
-      <c r="C81" t="s">
-        <v>917</v>
-      </c>
-      <c r="D81" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D82" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>536</v>
-      </c>
-      <c r="C83" t="s">
-        <v>918</v>
-      </c>
-      <c r="D83" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C84" t="s">
-        <v>919</v>
-      </c>
-      <c r="D84" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>1</v>
-      </c>
-      <c r="B85" t="s">
-        <v>537</v>
-      </c>
-      <c r="C85" t="s">
-        <v>920</v>
-      </c>
-      <c r="D85" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86" t="s">
-        <v>538</v>
-      </c>
-      <c r="C86" t="s">
-        <v>921</v>
-      </c>
-      <c r="D86" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>539</v>
-      </c>
-      <c r="C87" t="s">
-        <v>922</v>
-      </c>
-      <c r="D87" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" t="s">
-        <v>320</v>
-      </c>
-      <c r="D88" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>540</v>
-      </c>
-      <c r="C89" t="s">
-        <v>923</v>
-      </c>
-      <c r="D89" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90" t="s">
-        <v>541</v>
-      </c>
-      <c r="C90" t="s">
-        <v>924</v>
-      </c>
-      <c r="D90" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D91" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="B92" t="s">
-        <v>542</v>
-      </c>
-      <c r="C92" t="s">
-        <v>925</v>
-      </c>
-      <c r="D92" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
-        <v>543</v>
-      </c>
-      <c r="C93" t="s">
-        <v>926</v>
-      </c>
-      <c r="D93" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>544</v>
-      </c>
-      <c r="C94" t="s">
-        <v>927</v>
-      </c>
-      <c r="D94" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>545</v>
-      </c>
-      <c r="C95" t="s">
-        <v>928</v>
-      </c>
-      <c r="D95" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>546</v>
-      </c>
-      <c r="C96" t="s">
-        <v>929</v>
-      </c>
-      <c r="D96" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B97" t="s">
-        <v>547</v>
-      </c>
-      <c r="C97" t="s">
-        <v>930</v>
-      </c>
-      <c r="D97" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
-        <v>548</v>
-      </c>
-      <c r="C98" t="s">
-        <v>931</v>
-      </c>
-      <c r="D98" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
-        <v>549</v>
-      </c>
-      <c r="C99" t="s">
-        <v>932</v>
-      </c>
-      <c r="D99" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B100" t="s">
-        <v>550</v>
-      </c>
-      <c r="C100" t="s">
-        <v>933</v>
-      </c>
-      <c r="D100" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B101" t="s">
-        <v>551</v>
-      </c>
-      <c r="C101" t="s">
-        <v>934</v>
-      </c>
-      <c r="D101" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>552</v>
-      </c>
-      <c r="C102" t="s">
-        <v>935</v>
-      </c>
-      <c r="D102" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" t="s">
-        <v>334</v>
-      </c>
-      <c r="D103" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
-        <v>553</v>
-      </c>
-      <c r="C104" t="s">
-        <v>936</v>
-      </c>
-      <c r="D104" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
-        <v>554</v>
-      </c>
-      <c r="C105" t="s">
-        <v>937</v>
-      </c>
-      <c r="D105" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>555</v>
-      </c>
-      <c r="C106" t="s">
-        <v>938</v>
-      </c>
-      <c r="D106" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
-        <v>556</v>
-      </c>
-      <c r="C107" t="s">
-        <v>939</v>
-      </c>
-      <c r="D107" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
-        <v>557</v>
-      </c>
-      <c r="C108" t="s">
-        <v>940</v>
-      </c>
-      <c r="D108" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
-        <v>558</v>
-      </c>
-      <c r="C109" t="s">
-        <v>941</v>
-      </c>
-      <c r="D109" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>1</v>
-      </c>
-      <c r="B110" t="s">
-        <v>559</v>
-      </c>
-      <c r="C110" t="s">
-        <v>942</v>
-      </c>
-      <c r="D110" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B111" t="s">
-        <v>560</v>
-      </c>
-      <c r="C111" t="s">
-        <v>943</v>
-      </c>
-      <c r="D111" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>1</v>
-      </c>
       <c r="B112" t="s">
-        <v>561</v>
+        <v>778</v>
       </c>
       <c r="C112" t="s">
-        <v>944</v>
-      </c>
-      <c r="D112" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>844</v>
+      </c>
       <c r="B113" t="s">
-        <v>562</v>
+        <v>845</v>
       </c>
       <c r="C113" t="s">
-        <v>945</v>
-      </c>
-      <c r="D113" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>846</v>
+      </c>
       <c r="B114" t="s">
-        <v>1066</v>
+        <v>847</v>
       </c>
       <c r="C114" t="s">
-        <v>946</v>
-      </c>
-      <c r="D114" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>848</v>
+      </c>
       <c r="B115" t="s">
-        <v>563</v>
+        <v>849</v>
       </c>
       <c r="C115" t="s">
-        <v>947</v>
-      </c>
-      <c r="D115" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>850</v>
+      </c>
       <c r="B116" t="s">
-        <v>1067</v>
+        <v>851</v>
       </c>
       <c r="C116" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D116" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>1</v>
-      </c>
-      <c r="B117" t="s">
-        <v>564</v>
-      </c>
-      <c r="C117" t="s">
-        <v>948</v>
-      </c>
-      <c r="D117" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
-        <v>565</v>
-      </c>
-      <c r="C118" t="s">
-        <v>949</v>
-      </c>
-      <c r="D118" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B119" t="s">
-        <v>566</v>
-      </c>
-      <c r="C119" t="s">
-        <v>950</v>
-      </c>
-      <c r="D119" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
-        <v>567</v>
-      </c>
-      <c r="C120" t="s">
-        <v>951</v>
-      </c>
-      <c r="D120" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
-        <v>568</v>
-      </c>
-      <c r="C121" t="s">
-        <v>952</v>
-      </c>
-      <c r="D121" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B122" t="s">
-        <v>569</v>
-      </c>
-      <c r="C122" t="s">
-        <v>953</v>
-      </c>
-      <c r="D122" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B123" t="s">
-        <v>570</v>
-      </c>
-      <c r="C123" t="s">
-        <v>954</v>
-      </c>
-      <c r="D123" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B124" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C124" t="s">
-        <v>954</v>
-      </c>
-      <c r="D124" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>1</v>
-      </c>
-      <c r="B125" t="s">
-        <v>571</v>
-      </c>
-      <c r="C125" t="s">
-        <v>955</v>
-      </c>
-      <c r="D125" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>1</v>
-      </c>
-      <c r="B126" t="s">
-        <v>572</v>
-      </c>
-      <c r="C126" t="s">
-        <v>956</v>
-      </c>
-      <c r="D126" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>2</v>
-      </c>
-      <c r="B127" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C127" t="s">
-        <v>957</v>
-      </c>
-      <c r="D127" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>2</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C128" t="s">
-        <v>958</v>
-      </c>
-      <c r="D128" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>2</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C129" t="s">
-        <v>959</v>
-      </c>
-      <c r="D129" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B130" t="s">
-        <v>573</v>
-      </c>
-      <c r="C130" t="s">
-        <v>960</v>
-      </c>
-      <c r="D130" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B131" t="s">
-        <v>22</v>
-      </c>
-      <c r="C131" t="s">
-        <v>338</v>
-      </c>
-      <c r="D131" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B132" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C132" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D132" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B133" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C133" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D133" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>1</v>
-      </c>
-      <c r="B134" t="s">
-        <v>574</v>
-      </c>
-      <c r="C134" t="s">
-        <v>961</v>
-      </c>
-      <c r="D134" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>1</v>
-      </c>
-      <c r="B135" t="s">
-        <v>575</v>
-      </c>
-      <c r="C135" t="s">
-        <v>962</v>
-      </c>
-      <c r="D135" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B136" t="s">
-        <v>551</v>
-      </c>
-      <c r="C136" t="s">
-        <v>934</v>
-      </c>
-      <c r="D136" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B137" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C137" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D137" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>1</v>
-      </c>
-      <c r="B138" t="s">
-        <v>576</v>
-      </c>
-      <c r="C138" t="s">
-        <v>963</v>
-      </c>
-      <c r="D138" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B139" t="s">
-        <v>577</v>
-      </c>
-      <c r="C139" t="s">
-        <v>964</v>
-      </c>
-      <c r="D139" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B140" t="s">
-        <v>578</v>
-      </c>
-      <c r="C140" t="s">
-        <v>965</v>
-      </c>
-      <c r="D140" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B141" t="s">
-        <v>579</v>
-      </c>
-      <c r="C141" t="s">
-        <v>966</v>
-      </c>
-      <c r="D141" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>1</v>
-      </c>
-      <c r="B142" t="s">
-        <v>51</v>
-      </c>
-      <c r="C142" t="s">
-        <v>367</v>
-      </c>
-      <c r="D142" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B143" t="s">
-        <v>479</v>
-      </c>
-      <c r="C143" t="s">
-        <v>480</v>
-      </c>
-      <c r="D143" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B144" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C144" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D144" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>1</v>
-      </c>
-      <c r="B145" t="s">
-        <v>580</v>
-      </c>
-      <c r="C145" t="s">
-        <v>967</v>
-      </c>
-      <c r="D145" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>1</v>
-      </c>
-      <c r="B146" t="s">
-        <v>581</v>
-      </c>
-      <c r="C146" t="s">
-        <v>968</v>
-      </c>
-      <c r="E146" t="s">
-        <v>721</v>
-      </c>
-      <c r="F146" t="s">
-        <v>595</v>
-      </c>
-      <c r="G146" t="s">
-        <v>596</v>
-      </c>
-      <c r="H146" t="s">
-        <v>597</v>
-      </c>
-      <c r="I146" t="s">
-        <v>598</v>
-      </c>
-      <c r="J146" t="s">
-        <v>599</v>
-      </c>
-      <c r="K146" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>1</v>
-      </c>
-      <c r="B147" t="s">
-        <v>582</v>
-      </c>
-      <c r="C147" t="s">
-        <v>969</v>
-      </c>
-      <c r="E147" t="s">
-        <v>722</v>
-      </c>
-      <c r="F147" t="s">
-        <v>597</v>
-      </c>
-      <c r="G147" t="s">
-        <v>598</v>
-      </c>
-      <c r="H147" t="s">
-        <v>599</v>
-      </c>
-      <c r="I147" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B148" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C148" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D148" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B149" t="s">
-        <v>583</v>
-      </c>
-      <c r="C149" t="s">
-        <v>970</v>
-      </c>
-      <c r="D149" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>1</v>
-      </c>
-      <c r="B150" t="s">
-        <v>584</v>
-      </c>
-      <c r="C150" t="s">
-        <v>971</v>
-      </c>
-      <c r="D150" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B151" t="s">
-        <v>585</v>
-      </c>
-      <c r="C151" t="s">
-        <v>972</v>
-      </c>
-      <c r="D151" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B152" t="s">
-        <v>586</v>
-      </c>
-      <c r="C152" t="s">
-        <v>973</v>
-      </c>
-      <c r="D152" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B153" t="s">
-        <v>44</v>
-      </c>
-      <c r="C153" t="s">
-        <v>360</v>
-      </c>
-      <c r="D153" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B154" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C154" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D154" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>1</v>
-      </c>
-      <c r="B155" t="s">
-        <v>587</v>
-      </c>
-      <c r="C155" t="s">
-        <v>974</v>
-      </c>
-      <c r="D155" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B156" t="s">
-        <v>9</v>
-      </c>
-      <c r="C156" t="s">
-        <v>325</v>
-      </c>
-      <c r="D156" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B157" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C157" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D157" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B158" t="s">
-        <v>588</v>
-      </c>
-      <c r="C158" t="s">
-        <v>975</v>
-      </c>
-      <c r="D158" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>1</v>
-      </c>
-      <c r="B159" t="s">
-        <v>589</v>
-      </c>
-      <c r="C159" t="s">
-        <v>976</v>
-      </c>
-      <c r="D159" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>1</v>
-      </c>
-      <c r="B160" t="s">
-        <v>590</v>
-      </c>
-      <c r="C160" t="s">
-        <v>977</v>
-      </c>
-      <c r="D160" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B161" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C161" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D161" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B162" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C162" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D162" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B163" t="s">
-        <v>591</v>
-      </c>
-      <c r="C163" t="s">
-        <v>733</v>
-      </c>
-      <c r="D163" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B164" t="s">
-        <v>592</v>
-      </c>
-      <c r="C164" t="s">
-        <v>978</v>
-      </c>
-      <c r="D164" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B165" t="s">
-        <v>593</v>
-      </c>
-      <c r="C165" t="s">
-        <v>979</v>
-      </c>
-      <c r="D165" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B166" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C166" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D166" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B167" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C167" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D167" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B168" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C168" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D168" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B169" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C169" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D169" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="2"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="2"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="2"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="2"/>
+        <v>853</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7478,7 +7268,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>736</v>
+        <v>585</v>
       </c>
       <c r="B1" t="str">
         <f>PROPER(A1)</f>
@@ -7487,7 +7277,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>737</v>
+        <v>586</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B65" si="0">PROPER(A2)</f>
@@ -7496,7 +7286,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>738</v>
+        <v>587</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
@@ -7505,7 +7295,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>739</v>
+        <v>588</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -7514,7 +7304,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>740</v>
+        <v>589</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -7523,7 +7313,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -7532,7 +7322,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>741</v>
+        <v>590</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -7541,7 +7331,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>742</v>
+        <v>591</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -7550,7 +7340,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>743</v>
+        <v>592</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -7559,7 +7349,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>744</v>
+        <v>593</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -7568,7 +7358,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>745</v>
+        <v>594</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -7577,7 +7367,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>746</v>
+        <v>595</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -7586,7 +7376,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>747</v>
+        <v>596</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -7595,7 +7385,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>748</v>
+        <v>597</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -7604,7 +7394,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>749</v>
+        <v>598</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -7613,7 +7403,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -7622,7 +7412,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -7631,7 +7421,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>750</v>
+        <v>599</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -7640,7 +7430,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>751</v>
+        <v>600</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -7649,7 +7439,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>752</v>
+        <v>601</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -7658,7 +7448,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>492</v>
+        <v>442</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -7667,7 +7457,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>493</v>
+        <v>443</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -7676,7 +7466,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>753</v>
+        <v>602</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -7685,7 +7475,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>754</v>
+        <v>603</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -7694,7 +7484,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>755</v>
+        <v>604</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -7703,7 +7493,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>756</v>
+        <v>605</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -7712,7 +7502,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>757</v>
+        <v>606</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -7721,7 +7511,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>499</v>
+        <v>448</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -7730,7 +7520,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>500</v>
+        <v>449</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -7739,7 +7529,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>758</v>
+        <v>607</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -7748,7 +7538,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>502</v>
+        <v>450</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
@@ -7757,7 +7547,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>503</v>
+        <v>451</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -7766,7 +7556,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>759</v>
+        <v>608</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -7775,7 +7565,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>760</v>
+        <v>609</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -7784,7 +7574,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>761</v>
+        <v>610</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -7793,7 +7583,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>507</v>
+        <v>453</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
@@ -7802,7 +7592,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>762</v>
+        <v>611</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
@@ -7811,7 +7601,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>763</v>
+        <v>612</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
@@ -7820,7 +7610,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>764</v>
+        <v>613</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
@@ -7829,7 +7619,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>765</v>
+        <v>614</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
@@ -7838,7 +7628,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>766</v>
+        <v>615</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
@@ -7847,7 +7637,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>767</v>
+        <v>616</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
@@ -7856,7 +7646,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>768</v>
+        <v>617</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
@@ -7865,7 +7655,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>769</v>
+        <v>618</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
@@ -7874,7 +7664,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>770</v>
+        <v>619</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
@@ -7883,7 +7673,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>511</v>
+        <v>454</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
@@ -7892,7 +7682,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>771</v>
+        <v>620</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
@@ -7901,7 +7691,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>513</v>
+        <v>456</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
@@ -7910,7 +7700,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
@@ -7919,7 +7709,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>772</v>
+        <v>621</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
@@ -7928,7 +7718,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>773</v>
+        <v>622</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
@@ -7937,7 +7727,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>774</v>
+        <v>623</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
@@ -7946,7 +7736,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>775</v>
+        <v>624</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
@@ -7955,7 +7745,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>776</v>
+        <v>625</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
@@ -7964,7 +7754,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>777</v>
+        <v>626</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
@@ -7973,7 +7763,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>778</v>
+        <v>627</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
@@ -7982,7 +7772,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>779</v>
+        <v>628</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
@@ -7991,7 +7781,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>521</v>
+        <v>460</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
@@ -8000,7 +7790,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
@@ -8009,7 +7799,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>780</v>
+        <v>629</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
@@ -8018,7 +7808,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>781</v>
+        <v>630</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
@@ -8027,7 +7817,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>782</v>
+        <v>631</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
@@ -8036,7 +7826,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>522</v>
+        <v>461</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
@@ -8045,7 +7835,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>783</v>
+        <v>632</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
@@ -8054,7 +7844,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>784</v>
+        <v>633</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
@@ -8063,7 +7853,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" ref="B66:B129" si="1">PROPER(A66)</f>
@@ -8072,7 +7862,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>785</v>
+        <v>634</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="1"/>
@@ -8081,7 +7871,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>786</v>
+        <v>635</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="1"/>
@@ -8090,7 +7880,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>787</v>
+        <v>636</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="1"/>
@@ -8099,7 +7889,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>788</v>
+        <v>637</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="1"/>
@@ -8108,7 +7898,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>789</v>
+        <v>638</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="1"/>
@@ -8117,7 +7907,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="1"/>
@@ -8126,7 +7916,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="1"/>
@@ -8135,7 +7925,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>790</v>
+        <v>639</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="1"/>
@@ -8144,7 +7934,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>791</v>
+        <v>640</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="1"/>
@@ -8153,7 +7943,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>792</v>
+        <v>641</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="1"/>
@@ -8162,7 +7952,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>793</v>
+        <v>642</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="1"/>
@@ -8171,7 +7961,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>794</v>
+        <v>643</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="1"/>
@@ -8180,7 +7970,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>795</v>
+        <v>644</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="1"/>
@@ -8189,7 +7979,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>796</v>
+        <v>645</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="1"/>
@@ -8198,7 +7988,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>797</v>
+        <v>646</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="1"/>
@@ -8207,7 +7997,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>798</v>
+        <v>647</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="1"/>
@@ -8216,7 +8006,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>799</v>
+        <v>648</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="1"/>
@@ -8225,7 +8015,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>800</v>
+        <v>649</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="1"/>
@@ -8234,7 +8024,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>801</v>
+        <v>650</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="1"/>
@@ -8243,7 +8033,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>802</v>
+        <v>651</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="1"/>
@@ -8252,7 +8042,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>803</v>
+        <v>652</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="1"/>
@@ -8261,7 +8051,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>804</v>
+        <v>653</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="1"/>
@@ -8279,7 +8069,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>805</v>
+        <v>654</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="1"/>
@@ -8288,7 +8078,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>806</v>
+        <v>655</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="1"/>
@@ -8297,7 +8087,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>807</v>
+        <v>656</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="1"/>
@@ -8306,7 +8096,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>542</v>
+        <v>470</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="1"/>
@@ -8315,7 +8105,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>808</v>
+        <v>657</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="1"/>
@@ -8324,7 +8114,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>809</v>
+        <v>658</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="1"/>
@@ -8333,7 +8123,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>810</v>
+        <v>659</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="1"/>
@@ -8342,7 +8132,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>811</v>
+        <v>660</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="1"/>
@@ -8351,7 +8141,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>812</v>
+        <v>661</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="1"/>
@@ -8360,7 +8150,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>813</v>
+        <v>662</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="1"/>
@@ -8369,7 +8159,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>814</v>
+        <v>663</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="1"/>
@@ -8378,7 +8168,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>550</v>
+        <v>477</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="1"/>
@@ -8387,7 +8177,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>815</v>
+        <v>664</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="1"/>
@@ -8396,7 +8186,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>816</v>
+        <v>665</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="1"/>
@@ -8405,7 +8195,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="1"/>
@@ -8414,7 +8204,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>817</v>
+        <v>666</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="1"/>
@@ -8423,7 +8213,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>818</v>
+        <v>667</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="1"/>
@@ -8432,7 +8222,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>819</v>
+        <v>668</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="1"/>
@@ -8441,7 +8231,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>556</v>
+        <v>481</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="1"/>
@@ -8450,7 +8240,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>820</v>
+        <v>669</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="1"/>
@@ -8459,7 +8249,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>821</v>
+        <v>670</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="1"/>
@@ -8468,7 +8258,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>822</v>
+        <v>671</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="1"/>
@@ -8477,7 +8267,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>560</v>
+        <v>483</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="1"/>
@@ -8486,7 +8276,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>823</v>
+        <v>672</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="1"/>
@@ -8495,7 +8285,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>562</v>
+        <v>484</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="1"/>
@@ -8504,7 +8294,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>824</v>
+        <v>673</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="1"/>
@@ -8513,7 +8303,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>825</v>
+        <v>674</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="1"/>
@@ -8522,7 +8312,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>826</v>
+        <v>675</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="1"/>
@@ -8531,7 +8321,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>827</v>
+        <v>676</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="1"/>
@@ -8540,7 +8330,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>565</v>
+        <v>486</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="1"/>
@@ -8549,7 +8339,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>566</v>
+        <v>487</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="1"/>
@@ -8558,7 +8348,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>828</v>
+        <v>677</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="1"/>
@@ -8567,7 +8357,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>829</v>
+        <v>678</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="1"/>
@@ -8576,7 +8366,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>830</v>
+        <v>679</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="1"/>
@@ -8585,7 +8375,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>831</v>
+        <v>680</v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="1"/>
@@ -8594,7 +8384,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>832</v>
+        <v>681</v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="1"/>
@@ -8603,7 +8393,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>833</v>
+        <v>682</v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="1"/>
@@ -8612,7 +8402,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>834</v>
+        <v>683</v>
       </c>
       <c r="B127" t="str">
         <f t="shared" si="1"/>
@@ -8621,7 +8411,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>835</v>
+        <v>684</v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="1"/>
@@ -8630,7 +8420,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>836</v>
+        <v>685</v>
       </c>
       <c r="B129" t="str">
         <f t="shared" si="1"/>
@@ -8639,7 +8429,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>837</v>
+        <v>686</v>
       </c>
       <c r="B130" t="str">
         <f t="shared" ref="B130:B166" si="2">PROPER(A130)</f>
@@ -8648,7 +8438,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>573</v>
+        <v>490</v>
       </c>
       <c r="B131" t="str">
         <f t="shared" si="2"/>
@@ -8657,7 +8447,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B132" t="str">
         <f t="shared" si="2"/>
@@ -8666,7 +8456,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>838</v>
+        <v>687</v>
       </c>
       <c r="B133" t="str">
         <f t="shared" si="2"/>
@@ -8675,7 +8465,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>839</v>
+        <v>688</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="2"/>
@@ -8684,7 +8474,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>840</v>
+        <v>689</v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="2"/>
@@ -8693,7 +8483,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>841</v>
+        <v>690</v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="2"/>
@@ -8702,7 +8492,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>842</v>
+        <v>691</v>
       </c>
       <c r="B137" t="str">
         <f t="shared" si="2"/>
@@ -8711,7 +8501,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>843</v>
+        <v>692</v>
       </c>
       <c r="B138" t="str">
         <f t="shared" si="2"/>
@@ -8720,7 +8510,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>844</v>
+        <v>693</v>
       </c>
       <c r="B139" t="str">
         <f t="shared" si="2"/>
@@ -8729,7 +8519,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>845</v>
+        <v>694</v>
       </c>
       <c r="B140" t="str">
         <f t="shared" si="2"/>
@@ -8738,7 +8528,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>846</v>
+        <v>695</v>
       </c>
       <c r="B141" t="str">
         <f t="shared" si="2"/>
@@ -8747,7 +8537,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>847</v>
+        <v>696</v>
       </c>
       <c r="B142" t="str">
         <f t="shared" si="2"/>
@@ -8756,7 +8546,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B143" t="str">
         <f t="shared" si="2"/>
@@ -8765,7 +8555,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>848</v>
+        <v>697</v>
       </c>
       <c r="B144" t="str">
         <f t="shared" si="2"/>
@@ -8774,7 +8564,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>849</v>
+        <v>698</v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="2"/>
@@ -8783,7 +8573,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>850</v>
+        <v>699</v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="2"/>
@@ -8792,7 +8582,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>851</v>
+        <v>700</v>
       </c>
       <c r="B147" t="str">
         <f t="shared" si="2"/>
@@ -8801,7 +8591,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>852</v>
+        <v>701</v>
       </c>
       <c r="B148" t="str">
         <f t="shared" si="2"/>
@@ -8810,7 +8600,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>853</v>
+        <v>702</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="2"/>
@@ -8819,7 +8609,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>854</v>
+        <v>703</v>
       </c>
       <c r="B150" t="str">
         <f t="shared" si="2"/>
@@ -8828,7 +8618,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>855</v>
+        <v>704</v>
       </c>
       <c r="B151" t="str">
         <f t="shared" si="2"/>
@@ -8837,7 +8627,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>856</v>
+        <v>705</v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="2"/>
@@ -8846,7 +8636,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>857</v>
+        <v>706</v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="2"/>
@@ -8855,7 +8645,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B154" t="str">
         <f t="shared" si="2"/>
@@ -8864,7 +8654,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>858</v>
+        <v>707</v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="2"/>
@@ -8873,7 +8663,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>859</v>
+        <v>708</v>
       </c>
       <c r="B156" t="str">
         <f t="shared" si="2"/>
@@ -8891,7 +8681,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>860</v>
+        <v>709</v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="2"/>
@@ -8900,7 +8690,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>861</v>
+        <v>710</v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="2"/>
@@ -8909,7 +8699,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>862</v>
+        <v>711</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="2"/>
@@ -8918,7 +8708,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>863</v>
+        <v>712</v>
       </c>
       <c r="B161" t="str">
         <f t="shared" si="2"/>
@@ -8927,7 +8717,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>864</v>
+        <v>713</v>
       </c>
       <c r="B162" t="str">
         <f t="shared" si="2"/>
@@ -8936,7 +8726,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>865</v>
+        <v>714</v>
       </c>
       <c r="B163" t="str">
         <f t="shared" si="2"/>
@@ -8945,7 +8735,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>591</v>
+        <v>494</v>
       </c>
       <c r="B164" t="str">
         <f t="shared" si="2"/>
@@ -8954,7 +8744,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>866</v>
+        <v>715</v>
       </c>
       <c r="B165" t="str">
         <f t="shared" si="2"/>
@@ -8963,7 +8753,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>867</v>
+        <v>716</v>
       </c>
       <c r="B166" t="str">
         <f t="shared" si="2"/>

--- a/files/strings.xlsx
+++ b/files/strings.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/storex/dLab/andStudio/lime-strings/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28BAD2D-8662-724E-BE79-44608F4F1ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00699DF6-3001-3C41-88D7-47BE962DB03C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{2A2A4A0D-8F67-1149-8B79-481C2E1F4E29}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{2A2A4A0D-8F67-1149-8B79-481C2E1F4E29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="970">
   <si>
     <t>bangla</t>
   </si>
@@ -2804,6 +2805,2904 @@
   </si>
   <si>
     <t>ভিডিও পাওয়া নি</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="movies"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;সিনেমা&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="drama"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;নাটক&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="tv_shows"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;টিভি শো&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="sports"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;খেলাধুলা&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="more"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;আরও&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="my_profile"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;আমার প্রোফাইল&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="we_encountered_an_expected_pb"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;দুঃখিত, কোন অনাকাংখিত সমস্যা হয়েছে&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="invite_friends"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;ফ্রেন্ডদের ইনভাইট করুন&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="notification_settings"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;নোটিফিকেশন সেটিংস&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="description"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;বিস্তারিত&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="permission_gallery"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;আপনার প্রোফাইল পেইজে ছবি আপলোড করার জন্য দয়া করে বায়স্কোপকে আপনার ডিভাইসের ছবি এবং মিডিয়া ফাইলস এক্সেস করার অনুমতি দিন&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="confirmation_sign_out"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;আপনি কি বায়স্কোপ থেকে সাইন আউট করতে চান?&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="not_found"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;কোন প্রিয় আইটেম নেই&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="msg_subscription_trial_ending"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;আর মাত্র %s দিন বাকি, আপনাার %s শেষ হবার। বায়োস্কোপ উপভোগ করার জন্য যে কোন একটি প্রিমিয়াম প্ল্যান এ সাবস্ক্রাইব করুন।&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="your_subscription_will_not_be_auto_renewed"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;অটো নবায়ন করা হবে না&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="your_subscription_will_not_be_automatically_renewed_in_the_next_cycle"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;পরবর্তি বিলিং সাইকেলে আপনার সাবস্ক্রিপশন অটো নবায়ন করা হবে না&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="your_subscription_will_be_auto_renewed"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;আপনার সাবস্ক্রিপশন স্বয়ংক্রিয়ভাবে পুনঃ নবায়ন হবে&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="your_subscription_will_be_automatically_renewed_in_the_next_cycle"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;আপনার সাবস্ক্রিপশন পরবর্তী চক্রে স্বয়ংক্রিয়ভাবে পুনঃ নবায়ন হবে&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="you_are_about_to_unsubscribe"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;আপনি আনসাবস্ক্রাইব করতে যাচ্ছেন!&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="msg_subscription_expired"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;আপনার পূর্ববর্তী সাবস্ক্রিপশনের মেয়াদ শেষ হয়ে গেছে। দেখতে পুনরায় সাবস্ক্রাইব করুন&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="button_view_plan"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;প্ল্যান দেখুন&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="title_trial_ending"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;আপনার %s শেষ হতে চলেছে&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="msg_invalid_email"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;বৈধ ইমেল ঠিকানা লিখুন&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="package_data_not_found"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;কোন প্যাকেজ পাওয়া যায়নি&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="pay_by_card"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;কার্ড দিয়ে পে করুন&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="pay_by_card_caps"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;কার্ড দ্বারা পেমেন্ট&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="continue_with_trial_plan"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;ট্রায়াল প্ল্যান বজায় রাখুন&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="choose_payment_method"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;পেমেন্ট এর পদ্ধতি সিলেক্ট করুন&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="title_subscribe_dialog"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;ধন্যবাদ!&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="enter_expire_msg"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;মেয়াদ উত্তীর্ণ হবার তারিখ&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="enter_cvc_number"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;সিভিসি নম্বর লিখুন&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="invalid_card_number"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;ভুল কার্ড নাম্বার&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="invalid_expire_date"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;ভুল মেয়াদ উত্তীর্ণের তারিখ&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="invalid_cvc_number"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;ভুল সিভিসি নম্বর&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="your_card_is_invalid"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;আপনার কার্ডটি গ্রহণযোগ্য নয়&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="msg_failed_to_check_subs_info"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;সাবস্ক্রিপশন তথ্য পরীক্ষা করতে ব্যর্থ&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="current_plan"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;বর্তমান প্ল্যান&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="if_you_are_sure_you_would_like_to_cancel_your_subscription_please_confirm_cancellation_will_be_effective_at_the_end_of_your_current_subscription_period_you_can_come_back_anytime_you_want"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;দয়া করে আনসাবস্ক্রাইব এর ব্যাপারে নিশ্চিত হয়ে কনফার্ম করুন। আপনার বর্তমান প্ল্যান এর মেয়াদের পরে এই আনসাবস্ক্রাইব কার্যকর হবে। পরবর্তিতে যে কোন সময় আপনি আবার সাবস্ক্রাইব করতে পারবেন।&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="congratulations"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;অভিনন্দন&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="you_ve_successfully_subscribed_to_your_selected_plan_and_you_have_been_charged_accordingly_you_can_un_subscribe_anytime_from_your_account_page"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;চার্জিং সফল হয়েছে এবং আপনি আপনার সিলেক্ট করা প্ল্যান এ সাবস্ক্রাইব করেছেন। একাউন্ট পেজ থেকে যে কোন সময় আপনি আনসাবস্ক্রাইব করতে পারবেন।&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="sorry"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;দুঃখিত!&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="your_subscription_process_has_failed"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;আপনার সাবস্ক্রিপ্শন সফল হয়নি।&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="confirm"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;কনফার্ম করুন&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="renew"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;নবায়ন করুন&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="have_a_promo_code"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;প্রোমো কোড আছে?&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">string </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>="promo_code_applied_successfully"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;পপ্রোমো কোড দেয়া সফল হয়েছে&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2813,13 +5712,40 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-5000445]0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000080"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2842,9 +5768,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3161,7 +6088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3F0CAB-B764-494E-8312-86738EB4583E}">
   <dimension ref="A1:C258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+    <sheetView zoomScale="138" workbookViewId="0">
       <selection activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
@@ -8763,4 +11690,249 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C45ACD-84D1-2B4C-8B11-FDD5B344B611}">
+  <dimension ref="A1:A46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/files/strings.xlsx
+++ b/files/strings.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/storex/dLab/andStudio/lime-strings/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00699DF6-3001-3C41-88D7-47BE962DB03C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935162A0-1FDD-6648-ADCC-35DBBC933287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{2A2A4A0D-8F67-1149-8B79-481C2E1F4E29}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{2A2A4A0D-8F67-1149-8B79-481C2E1F4E29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="1090">
   <si>
     <t>bangla</t>
   </si>
@@ -2807,2902 +2808,502 @@
     <t>ভিডিও পাওয়া নি</t>
   </si>
   <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="movies"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;সিনেমা&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="drama"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;নাটক&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="tv_shows"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;টিভি শো&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="sports"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;খেলাধুলা&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="more"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;আরও&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="my_profile"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;আমার প্রোফাইল&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="we_encountered_an_expected_pb"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;দুঃখিত, কোন অনাকাংখিত সমস্যা হয়েছে&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="invite_friends"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;ফ্রেন্ডদের ইনভাইট করুন&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="notification_settings"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;নোটিফিকেশন সেটিংস&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="description"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;বিস্তারিত&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="permission_gallery"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;আপনার প্রোফাইল পেইজে ছবি আপলোড করার জন্য দয়া করে বায়স্কোপকে আপনার ডিভাইসের ছবি এবং মিডিয়া ফাইলস এক্সেস করার অনুমতি দিন&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="confirmation_sign_out"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;আপনি কি বায়স্কোপ থেকে সাইন আউট করতে চান?&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="not_found"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;কোন প্রিয় আইটেম নেই&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="msg_subscription_trial_ending"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;আর মাত্র %s দিন বাকি, আপনাার %s শেষ হবার। বায়োস্কোপ উপভোগ করার জন্য যে কোন একটি প্রিমিয়াম প্ল্যান এ সাবস্ক্রাইব করুন।&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="your_subscription_will_not_be_auto_renewed"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;অটো নবায়ন করা হবে না&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="your_subscription_will_not_be_automatically_renewed_in_the_next_cycle"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;পরবর্তি বিলিং সাইকেলে আপনার সাবস্ক্রিপশন অটো নবায়ন করা হবে না&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="your_subscription_will_be_auto_renewed"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;আপনার সাবস্ক্রিপশন স্বয়ংক্রিয়ভাবে পুনঃ নবায়ন হবে&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="your_subscription_will_be_automatically_renewed_in_the_next_cycle"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;আপনার সাবস্ক্রিপশন পরবর্তী চক্রে স্বয়ংক্রিয়ভাবে পুনঃ নবায়ন হবে&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="you_are_about_to_unsubscribe"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;আপনি আনসাবস্ক্রাইব করতে যাচ্ছেন!&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="msg_subscription_expired"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;আপনার পূর্ববর্তী সাবস্ক্রিপশনের মেয়াদ শেষ হয়ে গেছে। দেখতে পুনরায় সাবস্ক্রাইব করুন&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="button_view_plan"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;প্ল্যান দেখুন&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="title_trial_ending"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;আপনার %s শেষ হতে চলেছে&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="msg_invalid_email"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;বৈধ ইমেল ঠিকানা লিখুন&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="package_data_not_found"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;কোন প্যাকেজ পাওয়া যায়নি&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="pay_by_card"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;কার্ড দিয়ে পে করুন&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="pay_by_card_caps"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;কার্ড দ্বারা পেমেন্ট&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="continue_with_trial_plan"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;ট্রায়াল প্ল্যান বজায় রাখুন&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="choose_payment_method"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;পেমেন্ট এর পদ্ধতি সিলেক্ট করুন&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="title_subscribe_dialog"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;ধন্যবাদ!&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="enter_expire_msg"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;মেয়াদ উত্তীর্ণ হবার তারিখ&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="enter_cvc_number"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;সিভিসি নম্বর লিখুন&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="invalid_card_number"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;ভুল কার্ড নাম্বার&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="invalid_expire_date"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;ভুল মেয়াদ উত্তীর্ণের তারিখ&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="invalid_cvc_number"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;ভুল সিভিসি নম্বর&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="your_card_is_invalid"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;আপনার কার্ডটি গ্রহণযোগ্য নয়&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="msg_failed_to_check_subs_info"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;সাবস্ক্রিপশন তথ্য পরীক্ষা করতে ব্যর্থ&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="current_plan"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;বর্তমান প্ল্যান&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="if_you_are_sure_you_would_like_to_cancel_your_subscription_please_confirm_cancellation_will_be_effective_at_the_end_of_your_current_subscription_period_you_can_come_back_anytime_you_want"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;দয়া করে আনসাবস্ক্রাইব এর ব্যাপারে নিশ্চিত হয়ে কনফার্ম করুন। আপনার বর্তমান প্ল্যান এর মেয়াদের পরে এই আনসাবস্ক্রাইব কার্যকর হবে। পরবর্তিতে যে কোন সময় আপনি আবার সাবস্ক্রাইব করতে পারবেন।&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="congratulations"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;অভিনন্দন&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="you_ve_successfully_subscribed_to_your_selected_plan_and_you_have_been_charged_accordingly_you_can_un_subscribe_anytime_from_your_account_page"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;চার্জিং সফল হয়েছে এবং আপনি আপনার সিলেক্ট করা প্ল্যান এ সাবস্ক্রাইব করেছেন। একাউন্ট পেজ থেকে যে কোন সময় আপনি আনসাবস্ক্রাইব করতে পারবেন।&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="sorry"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;দুঃখিত!&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="your_subscription_process_has_failed"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;আপনার সাবস্ক্রিপ্শন সফল হয়নি।&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="confirm"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;কনফার্ম করুন&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="renew"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;নবায়ন করুন&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="have_a_promo_code"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;প্রোমো কোড আছে?&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">string </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF008000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>="promo_code_applied_successfully"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;পপ্রোমো কোড দেয়া সফল হয়েছে&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF000080"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>string</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
+    <t>movies</t>
+  </si>
+  <si>
+    <t>drama</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>invite_friends</t>
+  </si>
+  <si>
+    <t>notification_settings</t>
+  </si>
+  <si>
+    <t>permission_gallery</t>
+  </si>
+  <si>
+    <t>confirmation_sign_out</t>
+  </si>
+  <si>
+    <t>not_found</t>
+  </si>
+  <si>
+    <t>msg_subscription_trial_ending</t>
+  </si>
+  <si>
+    <t>your_subscription_will_not_be_auto_renewed</t>
+  </si>
+  <si>
+    <t>your_subscription_will_not_be_automatically_renewed_in_the_next_cycle</t>
+  </si>
+  <si>
+    <t>your_subscription_will_be_auto_renewed</t>
+  </si>
+  <si>
+    <t>your_subscription_will_be_automatically_renewed_in_the_next_cycle</t>
+  </si>
+  <si>
+    <t>you_are_about_to_unsubscribe</t>
+  </si>
+  <si>
+    <t>msg_subscription_expired</t>
+  </si>
+  <si>
+    <t>button_view_plan</t>
+  </si>
+  <si>
+    <t>title_trial_ending</t>
+  </si>
+  <si>
+    <t>msg_invalid_email</t>
+  </si>
+  <si>
+    <t>package_data_not_found</t>
+  </si>
+  <si>
+    <t>pay_by_card</t>
+  </si>
+  <si>
+    <t>pay_by_card_caps</t>
+  </si>
+  <si>
+    <t>continue_with_trial_plan</t>
+  </si>
+  <si>
+    <t>title_subscribe_dialog</t>
+  </si>
+  <si>
+    <t>enter_expire_msg</t>
+  </si>
+  <si>
+    <t>enter_cvc_number</t>
+  </si>
+  <si>
+    <t>invalid_card_number</t>
+  </si>
+  <si>
+    <t>invalid_expire_date</t>
+  </si>
+  <si>
+    <t>invalid_cvc_number</t>
+  </si>
+  <si>
+    <t>your_card_is_invalid</t>
+  </si>
+  <si>
+    <t>msg_failed_to_check_subs_info</t>
+  </si>
+  <si>
+    <t>if_you_are_sure_you_would_like_to_cancel_your_subscription_please_confirm_cancellation_will_be_effective_at_the_end_of_your_current_subscription_period_you_can_come_back_anytime_you_want</t>
+  </si>
+  <si>
+    <t>congratulations</t>
+  </si>
+  <si>
+    <t>you_ve_successfully_subscribed_to_your_selected_plan_and_you_have_been_charged_accordingly_you_can_un_subscribe_anytime_from_your_account_page</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>your_subscription_process_has_failed</t>
+  </si>
+  <si>
+    <t>renew</t>
+  </si>
+  <si>
+    <t>have_a_promo_code</t>
+  </si>
+  <si>
+    <t>promo_code_applied_successfully</t>
+  </si>
+  <si>
+    <t>সিনেমা</t>
+  </si>
+  <si>
+    <t>নাটক</t>
+  </si>
+  <si>
+    <t>টিভি শো</t>
+  </si>
+  <si>
+    <t>খেলাধুলা</t>
+  </si>
+  <si>
+    <t>আরও</t>
+  </si>
+  <si>
+    <t>আমার প্রোফাইল</t>
+  </si>
+  <si>
+    <t>দুঃখিত, কোন অনাকাংখিত সমস্যা হয়েছে</t>
+  </si>
+  <si>
+    <t>ফ্রেন্ডদের ইনভাইট করুন</t>
+  </si>
+  <si>
+    <t>নোটিফিকেশন সেটিংস</t>
+  </si>
+  <si>
+    <t>আপনার প্রোফাইল পেইজে ছবি আপলোড করার জন্য দয়া করে বায়স্কোপকে আপনার ডিভাইসের ছবি এবং মিডিয়া ফাইলস এক্সেস করার অনুমতি দিন</t>
+  </si>
+  <si>
+    <t>আপনি কি বায়স্কোপ থেকে সাইন আউট করতে চান?</t>
+  </si>
+  <si>
+    <t>কোন প্রিয় আইটেম নেই</t>
+  </si>
+  <si>
+    <t>অটো নবায়ন করা হবে না</t>
+  </si>
+  <si>
+    <t>পরবর্তি বিলিং সাইকেলে আপনার সাবস্ক্রিপশন অটো নবায়ন করা হবে না</t>
+  </si>
+  <si>
+    <t>আপনার সাবস্ক্রিপশন স্বয়ংক্রিয়ভাবে পুনঃ নবায়ন হবে</t>
+  </si>
+  <si>
+    <t>আপনার সাবস্ক্রিপশন পরবর্তী চক্রে স্বয়ংক্রিয়ভাবে পুনঃ নবায়ন হবে</t>
+  </si>
+  <si>
+    <t>আপনি আনসাবস্ক্রাইব করতে যাচ্ছেন!</t>
+  </si>
+  <si>
+    <t>আপনার পূর্ববর্তী সাবস্ক্রিপশনের মেয়াদ শেষ হয়ে গেছে। দেখতে পুনরায় সাবস্ক্রাইব করুন</t>
+  </si>
+  <si>
+    <t>প্ল্যান দেখুন</t>
+  </si>
+  <si>
+    <t>আপনার %s শেষ হতে চলেছে</t>
+  </si>
+  <si>
+    <t>বৈধ ইমেল ঠিকানা লিখুন</t>
+  </si>
+  <si>
+    <t>কোন প্যাকেজ পাওয়া যায়নি</t>
+  </si>
+  <si>
+    <t>কার্ড দিয়ে পে করুন</t>
+  </si>
+  <si>
+    <t>কার্ড দ্বারা পেমেন্ট</t>
+  </si>
+  <si>
+    <t>ট্রায়াল প্ল্যান বজায় রাখুন</t>
+  </si>
+  <si>
+    <t>পেমেন্ট এর পদ্ধতি সিলেক্ট করুন</t>
+  </si>
+  <si>
+    <t>ধন্যবাদ!</t>
+  </si>
+  <si>
+    <t>মেয়াদ উত্তীর্ণ হবার তারিখ</t>
+  </si>
+  <si>
+    <t>সিভিসি নম্বর লিখুন</t>
+  </si>
+  <si>
+    <t>ভুল কার্ড নাম্বার</t>
+  </si>
+  <si>
+    <t>ভুল মেয়াদ উত্তীর্ণের তারিখ</t>
+  </si>
+  <si>
+    <t>ভুল সিভিসি নম্বর</t>
+  </si>
+  <si>
+    <t>আপনার কার্ডটি গ্রহণযোগ্য নয়</t>
+  </si>
+  <si>
+    <t>সাবস্ক্রিপশন তথ্য পরীক্ষা করতে ব্যর্থ</t>
+  </si>
+  <si>
+    <t>দয়া করে আনসাবস্ক্রাইব এর ব্যাপারে নিশ্চিত হয়ে কনফার্ম করুন। আপনার বর্তমান প্ল্যান এর মেয়াদের পরে এই আনসাবস্ক্রাইব কার্যকর হবে। পরবর্তিতে যে কোন সময় আপনি আবার সাবস্ক্রাইব করতে পারবেন।</t>
+  </si>
+  <si>
+    <t>অভিনন্দন</t>
+  </si>
+  <si>
+    <t>চার্জিং সফল হয়েছে এবং আপনি আপনার সিলেক্ট করা প্ল্যান এ সাবস্ক্রাইব করেছেন। একাউন্ট পেজ থেকে যে কোন সময় আপনি আনসাবস্ক্রাইব করতে পারবেন।</t>
+  </si>
+  <si>
+    <t>দুঃখিত!</t>
+  </si>
+  <si>
+    <t>আপনার সাবস্ক্রিপ্শন সফল হয়নি।</t>
+  </si>
+  <si>
+    <t>কনফার্ম করুন</t>
+  </si>
+  <si>
+    <t>নবায়ন করুন</t>
+  </si>
+  <si>
+    <t>প্রোমো কোড আছে?</t>
+  </si>
+  <si>
+    <t>পপ্রোমো কোড দেয়া সফল হয়েছে</t>
+  </si>
+  <si>
+    <t>tv shows</t>
+  </si>
+  <si>
+    <t>my profile</t>
+  </si>
+  <si>
+    <t>we encountered an expected pb</t>
+  </si>
+  <si>
+    <t>invite friends</t>
+  </si>
+  <si>
+    <t>notification settings</t>
+  </si>
+  <si>
+    <t>permission gallery</t>
+  </si>
+  <si>
+    <t>confirmation sign out</t>
+  </si>
+  <si>
+    <t>not found</t>
+  </si>
+  <si>
+    <t>msg subscription trial ending</t>
+  </si>
+  <si>
+    <t>your subscription will not be auto renewed</t>
+  </si>
+  <si>
+    <t>your subscription will not be automatically renewed in the next cycle</t>
+  </si>
+  <si>
+    <t>your subscription will be auto renewed</t>
+  </si>
+  <si>
+    <t>your subscription will be automatically renewed in the next cycle</t>
+  </si>
+  <si>
+    <t>you are about to unsubscribe</t>
+  </si>
+  <si>
+    <t>msg subscription expired</t>
+  </si>
+  <si>
+    <t>button view plan</t>
+  </si>
+  <si>
+    <t>title trial ending</t>
+  </si>
+  <si>
+    <t>msg invalid email</t>
+  </si>
+  <si>
+    <t>package data not found</t>
+  </si>
+  <si>
+    <t>pay by card</t>
+  </si>
+  <si>
+    <t>pay by card caps</t>
+  </si>
+  <si>
+    <t>continue with trial plan</t>
+  </si>
+  <si>
+    <t>title subscribe dialog</t>
+  </si>
+  <si>
+    <t>enter expire msg</t>
+  </si>
+  <si>
+    <t>enter cvc number</t>
+  </si>
+  <si>
+    <t>invalid card number</t>
+  </si>
+  <si>
+    <t>invalid expire date</t>
+  </si>
+  <si>
+    <t>invalid cvc number</t>
+  </si>
+  <si>
+    <t>your card is invalid</t>
+  </si>
+  <si>
+    <t>msg failed to check subs info</t>
+  </si>
+  <si>
+    <t>if you are sure you would like to cancel your subscription please confirm cancellation will be effective at the end of your current subscription period you can come back anytime you want</t>
+  </si>
+  <si>
+    <t>you ve successfully subscribed to your selected plan and you have been charged accordingly you can un subscribe anytime from your account page</t>
+  </si>
+  <si>
+    <t>your subscription process has failed</t>
+  </si>
+  <si>
+    <t>have a promo code</t>
+  </si>
+  <si>
+    <t>promo code applied successfully</t>
+  </si>
+  <si>
+    <t>আর মাত্র %s দিন বাকি, আপনার %s শেষ হবার। বায়োস্কোপ উপভোগ করার জন্য যে কোন একটি প্রিমিয়াম প্ল্যান এ সাবস্ক্রাইব করুন।</t>
+  </si>
+  <si>
+    <t>Movies</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Congratulations</t>
+  </si>
+  <si>
+    <t>Sorry</t>
+  </si>
+  <si>
+    <t>Renew</t>
+  </si>
+  <si>
+    <t>cinema</t>
+  </si>
+  <si>
+    <t>Cinema</t>
+  </si>
+  <si>
+    <t>tv_show</t>
+  </si>
+  <si>
+    <t>Tv Shows</t>
+  </si>
+  <si>
+    <t>My Profile</t>
+  </si>
+  <si>
+    <t>We Encountered An Expected Pb</t>
+  </si>
+  <si>
+    <t>Invite Friends</t>
+  </si>
+  <si>
+    <t>Notification Settings</t>
+  </si>
+  <si>
+    <t>Permission Gallery</t>
+  </si>
+  <si>
+    <t>Confirmation Sign Out</t>
+  </si>
+  <si>
+    <t>Not Found</t>
+  </si>
+  <si>
+    <t>Msg Subscription Trial Ending</t>
+  </si>
+  <si>
+    <t>Your Subscription Will Not Be Auto Renewed</t>
+  </si>
+  <si>
+    <t>Your Subscription Will Not Be Automatically Renewed In The Next Cycle</t>
+  </si>
+  <si>
+    <t>Your Subscription Will Be Auto Renewed</t>
+  </si>
+  <si>
+    <t>Your Subscription Will Be Automatically Renewed In The Next Cycle</t>
+  </si>
+  <si>
+    <t>You Are About To Unsubscribe</t>
+  </si>
+  <si>
+    <t>Msg Subscription Expired</t>
+  </si>
+  <si>
+    <t>Button View Plan</t>
+  </si>
+  <si>
+    <t>Title Trial Ending</t>
+  </si>
+  <si>
+    <t>Msg Invalid Email</t>
+  </si>
+  <si>
+    <t>Package Data Not Found</t>
+  </si>
+  <si>
+    <t>Pay By Card</t>
+  </si>
+  <si>
+    <t>Pay By Card Caps</t>
+  </si>
+  <si>
+    <t>Continue With Trial Plan</t>
+  </si>
+  <si>
+    <t>Title Subscribe Dialog</t>
+  </si>
+  <si>
+    <t>Enter Expire Msg</t>
+  </si>
+  <si>
+    <t>Enter Cvc Number</t>
+  </si>
+  <si>
+    <t>Invalid Card Number</t>
+  </si>
+  <si>
+    <t>Invalid Expire Date</t>
+  </si>
+  <si>
+    <t>Invalid Cvc Number</t>
+  </si>
+  <si>
+    <t>Your Card Is Invalid</t>
+  </si>
+  <si>
+    <t>Msg Failed To Check Subs Info</t>
+  </si>
+  <si>
+    <t>If You Are Sure You Would Like To Cancel Your Subscription Please Confirm Cancellation Will Be Effective At The End Of Your Current Subscription Period You Can Come Back Anytime You Want</t>
+  </si>
+  <si>
+    <t>You Ve Successfully Subscribed To Your Selected Plan And You Have Been Charged Accordingly You Can Un Subscribe Anytime From Your Account Page</t>
+  </si>
+  <si>
+    <t>Your Subscription Process Has Failed</t>
+  </si>
+  <si>
+    <t>Have A Promo Code</t>
+  </si>
+  <si>
+    <t>Promo Code Applied Successfully</t>
+  </si>
+  <si>
+    <t>oo</t>
+  </si>
+  <si>
+    <t>profile_mine</t>
+  </si>
+  <si>
+    <t>u</t>
   </si>
 </sst>
 </file>
@@ -5712,7 +3313,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-5000445]0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5723,27 +3324,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000080"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF0000FF"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF008000"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -8906,8 +6486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CF7B10-8A83-C844-9233-3895305C52AA}">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:C116"/>
+    <sheetView topLeftCell="A88" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10181,6 +7761,1106 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C45ACD-84D1-2B4C-8B11-FDD5B344B611}">
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C4" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C5" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C6" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C7" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C8" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C9" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B10" t="s">
+        <v>728</v>
+      </c>
+      <c r="C10" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C11" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C12" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C13" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C15" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C16" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C17" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C18" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C19" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C20" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C21" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C22" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C23" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C24" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C25" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C26" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C27" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B28" t="s">
+        <v>722</v>
+      </c>
+      <c r="C28" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C29" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C30" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C31" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C32" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C33" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C34" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C35" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C36" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B37" t="s">
+        <v>726</v>
+      </c>
+      <c r="C37" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C38" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C39" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C40" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B43" t="s">
+        <v>723</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690C5D52-6B15-194B-A1ED-FBFB6A1C3A43}">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="69.1640625" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B1" t="str">
+        <f>PROPER(A1)</f>
+        <v>Movies</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B46" si="0">PROPER(A2)</f>
+        <v>Drama</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>Tv Shows</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Sports</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>More</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>My Profile</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>We Encountered An Expected Pb</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Invite Friends</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Notification Settings</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Description</v>
+      </c>
+      <c r="D10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Permission Gallery</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Confirmation Sign Out</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Not Found</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Msg Subscription Trial Ending</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Your Subscription Will Not Be Auto Renewed</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Your Subscription Will Not Be Automatically Renewed In The Next Cycle</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>Your Subscription Will Be Auto Renewed</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Your Subscription Will Be Automatically Renewed In The Next Cycle</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>You Are About To Unsubscribe</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Msg Subscription Expired</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Button View Plan</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Title Trial Ending</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>Msg Invalid Email</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>Package Data Not Found</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>Pay By Card</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>Pay By Card Caps</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>Continue With Trial Plan</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>Choose Payment Method</v>
+      </c>
+      <c r="D28" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>Title Subscribe Dialog</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>Enter Expire Msg</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>Enter Cvc Number</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>Invalid Card Number</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>Invalid Expire Date</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>Invalid Cvc Number</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>Your Card Is Invalid</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>Msg Failed To Check Subs Info</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>Current Plan</v>
+      </c>
+      <c r="D37" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>If You Are Sure You Would Like To Cancel Your Subscription Please Confirm Cancellation Will Be Effective At The End Of Your Current Subscription Period You Can Come Back Anytime You Want</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>Congratulations</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>You Ve Successfully Subscribed To Your Selected Plan And You Have Been Charged Accordingly You Can Un Subscribe Anytime From Your Account Page</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>Sorry</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>Your Subscription Process Has Failed</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>Confirm</v>
+      </c>
+      <c r="D43" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>Renew</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>Have A Promo Code</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>Promo Code Applied Successfully</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED7931A-D0A1-A744-A873-C9F6059F675B}">
   <dimension ref="A1:B166"/>
   <sheetViews>
@@ -11690,249 +10370,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C45ACD-84D1-2B4C-8B11-FDD5B344B611}">
-  <dimension ref="A1:A46"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:A46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>969</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/files/strings.xlsx
+++ b/files/strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/storex/dLab/andStudio/lime-strings/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935162A0-1FDD-6648-ADCC-35DBBC933287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFEAAC6-1D5E-E44E-AA81-46563111175E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{2A2A4A0D-8F67-1149-8B79-481C2E1F4E29}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{2A2A4A0D-8F67-1149-8B79-481C2E1F4E29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="1134">
   <si>
     <t>bangla</t>
   </si>
@@ -96,9 +96,6 @@
     <t>shake</t>
   </si>
   <si>
-    <t>shake_mode</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>app</t>
-  </si>
-  <si>
     <t>more_apps</t>
   </si>
   <si>
@@ -201,9 +195,6 @@
     <t>others</t>
   </si>
   <si>
-    <t>sent</t>
-  </si>
-  <si>
     <t>not_sent</t>
   </si>
   <si>
@@ -270,9 +261,6 @@
     <t>again</t>
   </si>
   <si>
-    <t>give_id_pass_please</t>
-  </si>
-  <si>
     <t>login_failed</t>
   </si>
   <si>
@@ -318,18 +306,12 @@
     <t>phone_no</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
     <t>form</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
     <t>percentage</t>
   </si>
   <si>
@@ -429,9 +411,6 @@
     <t>press_ok_button</t>
   </si>
   <si>
-    <t>write_your_name_please</t>
-  </si>
-  <si>
     <t>no_data_available</t>
   </si>
   <si>
@@ -504,9 +483,6 @@
     <t>ঝাঁকি</t>
   </si>
   <si>
-    <t>ঝাঁকি মোড</t>
-  </si>
-  <si>
     <t>সাপোর্ট</t>
   </si>
   <si>
@@ -744,9 +720,6 @@
     <t>হোম</t>
   </si>
   <si>
-    <t>উপহার</t>
-  </si>
-  <si>
     <t>হার</t>
   </si>
   <si>
@@ -942,9 +915,6 @@
     <t>Shake</t>
   </si>
   <si>
-    <t>Shake Mode</t>
-  </si>
-  <si>
     <t>Support</t>
   </si>
   <si>
@@ -954,9 +924,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>App</t>
-  </si>
-  <si>
     <t>More Apps</t>
   </si>
   <si>
@@ -1170,18 +1137,12 @@
     <t>Phone No</t>
   </si>
   <si>
-    <t>Picture</t>
-  </si>
-  <si>
     <t>Form</t>
   </si>
   <si>
     <t>Home</t>
   </si>
   <si>
-    <t>Gift</t>
-  </si>
-  <si>
     <t>Percentage</t>
   </si>
   <si>
@@ -2559,15 +2520,6 @@
     <t>Back to Home</t>
   </si>
   <si>
-    <t>msg_subscription_failure</t>
-  </si>
-  <si>
-    <t>msg_subscription_found</t>
-  </si>
-  <si>
-    <t>msg_subscription_successful</t>
-  </si>
-  <si>
     <t>voucher</t>
   </si>
   <si>
@@ -2643,12 +2595,6 @@
     <t>Verify Phone Number</t>
   </si>
   <si>
-    <t>msg_reset_all</t>
-  </si>
-  <si>
-    <t>msg_call_helpline</t>
-  </si>
-  <si>
     <t>otp_resend</t>
   </si>
   <si>
@@ -2682,9 +2628,6 @@
     <t>otp_get</t>
   </si>
   <si>
-    <t>feedback_give</t>
-  </si>
-  <si>
     <t>help_ask</t>
   </si>
   <si>
@@ -2709,48 +2652,21 @@
     <t>login_please</t>
   </si>
   <si>
-    <t>select_right_operator</t>
-  </si>
-  <si>
     <t>try_again_later</t>
   </si>
   <si>
     <t>try_again_with_proper_credential</t>
   </si>
   <si>
-    <t>que_quit_app_confirmation</t>
-  </si>
-  <si>
-    <t>que_send_data_confirmation</t>
-  </si>
-  <si>
-    <t>rate_please</t>
-  </si>
-  <si>
-    <t>Rate Please</t>
-  </si>
-  <si>
     <t>send_failed</t>
   </si>
   <si>
-    <t>msg_share_app</t>
-  </si>
-  <si>
-    <t>msg_somthing_went_wrong</t>
-  </si>
-  <si>
-    <t>msg_somthing_went_wrong_try_again</t>
-  </si>
-  <si>
     <t>otp_write_valid</t>
   </si>
   <si>
     <t>channel_all</t>
   </si>
   <si>
-    <t>click_to_update_profile</t>
-  </si>
-  <si>
     <t>Click to update your profile</t>
   </si>
   <si>
@@ -2772,9 +2688,6 @@
     <t>profile_your</t>
   </si>
   <si>
-    <t>no_favourite_item</t>
-  </si>
-  <si>
     <t>gps_on</t>
   </si>
   <si>
@@ -2826,102 +2739,24 @@
     <t>notification_settings</t>
   </si>
   <si>
-    <t>permission_gallery</t>
-  </si>
-  <si>
     <t>confirmation_sign_out</t>
   </si>
   <si>
     <t>not_found</t>
   </si>
   <si>
-    <t>msg_subscription_trial_ending</t>
-  </si>
-  <si>
-    <t>your_subscription_will_not_be_auto_renewed</t>
-  </si>
-  <si>
-    <t>your_subscription_will_not_be_automatically_renewed_in_the_next_cycle</t>
-  </si>
-  <si>
-    <t>your_subscription_will_be_auto_renewed</t>
-  </si>
-  <si>
-    <t>your_subscription_will_be_automatically_renewed_in_the_next_cycle</t>
-  </si>
-  <si>
-    <t>you_are_about_to_unsubscribe</t>
-  </si>
-  <si>
-    <t>msg_subscription_expired</t>
-  </si>
-  <si>
-    <t>button_view_plan</t>
-  </si>
-  <si>
-    <t>title_trial_ending</t>
-  </si>
-  <si>
-    <t>msg_invalid_email</t>
-  </si>
-  <si>
-    <t>package_data_not_found</t>
-  </si>
-  <si>
     <t>pay_by_card</t>
   </si>
   <si>
-    <t>pay_by_card_caps</t>
-  </si>
-  <si>
-    <t>continue_with_trial_plan</t>
-  </si>
-  <si>
-    <t>title_subscribe_dialog</t>
-  </si>
-  <si>
-    <t>enter_expire_msg</t>
-  </si>
-  <si>
-    <t>enter_cvc_number</t>
-  </si>
-  <si>
-    <t>invalid_card_number</t>
-  </si>
-  <si>
-    <t>invalid_expire_date</t>
-  </si>
-  <si>
-    <t>invalid_cvc_number</t>
-  </si>
-  <si>
-    <t>your_card_is_invalid</t>
-  </si>
-  <si>
-    <t>msg_failed_to_check_subs_info</t>
-  </si>
-  <si>
-    <t>if_you_are_sure_you_would_like_to_cancel_your_subscription_please_confirm_cancellation_will_be_effective_at_the_end_of_your_current_subscription_period_you_can_come_back_anytime_you_want</t>
-  </si>
-  <si>
     <t>congratulations</t>
   </si>
   <si>
-    <t>you_ve_successfully_subscribed_to_your_selected_plan_and_you_have_been_charged_accordingly_you_can_un_subscribe_anytime_from_your_account_page</t>
-  </si>
-  <si>
     <t>sorry</t>
   </si>
   <si>
-    <t>your_subscription_process_has_failed</t>
-  </si>
-  <si>
     <t>renew</t>
   </si>
   <si>
-    <t>have_a_promo_code</t>
-  </si>
-  <si>
     <t>promo_code_applied_successfully</t>
   </si>
   <si>
@@ -2946,45 +2781,18 @@
     <t>দুঃখিত, কোন অনাকাংখিত সমস্যা হয়েছে</t>
   </si>
   <si>
-    <t>ফ্রেন্ডদের ইনভাইট করুন</t>
-  </si>
-  <si>
     <t>নোটিফিকেশন সেটিংস</t>
   </si>
   <si>
-    <t>আপনার প্রোফাইল পেইজে ছবি আপলোড করার জন্য দয়া করে বায়স্কোপকে আপনার ডিভাইসের ছবি এবং মিডিয়া ফাইলস এক্সেস করার অনুমতি দিন</t>
-  </si>
-  <si>
     <t>আপনি কি বায়স্কোপ থেকে সাইন আউট করতে চান?</t>
   </si>
   <si>
-    <t>কোন প্রিয় আইটেম নেই</t>
-  </si>
-  <si>
-    <t>অটো নবায়ন করা হবে না</t>
-  </si>
-  <si>
-    <t>পরবর্তি বিলিং সাইকেলে আপনার সাবস্ক্রিপশন অটো নবায়ন করা হবে না</t>
-  </si>
-  <si>
-    <t>আপনার সাবস্ক্রিপশন স্বয়ংক্রিয়ভাবে পুনঃ নবায়ন হবে</t>
-  </si>
-  <si>
-    <t>আপনার সাবস্ক্রিপশন পরবর্তী চক্রে স্বয়ংক্রিয়ভাবে পুনঃ নবায়ন হবে</t>
-  </si>
-  <si>
     <t>আপনি আনসাবস্ক্রাইব করতে যাচ্ছেন!</t>
   </si>
   <si>
     <t>আপনার পূর্ববর্তী সাবস্ক্রিপশনের মেয়াদ শেষ হয়ে গেছে। দেখতে পুনরায় সাবস্ক্রাইব করুন</t>
   </si>
   <si>
-    <t>প্ল্যান দেখুন</t>
-  </si>
-  <si>
-    <t>আপনার %s শেষ হতে চলেছে</t>
-  </si>
-  <si>
     <t>বৈধ ইমেল ঠিকানা লিখুন</t>
   </si>
   <si>
@@ -2994,9 +2802,6 @@
     <t>কার্ড দিয়ে পে করুন</t>
   </si>
   <si>
-    <t>কার্ড দ্বারা পেমেন্ট</t>
-  </si>
-  <si>
     <t>ট্রায়াল প্ল্যান বজায় রাখুন</t>
   </si>
   <si>
@@ -3024,18 +2829,9 @@
     <t>আপনার কার্ডটি গ্রহণযোগ্য নয়</t>
   </si>
   <si>
-    <t>সাবস্ক্রিপশন তথ্য পরীক্ষা করতে ব্যর্থ</t>
-  </si>
-  <si>
-    <t>দয়া করে আনসাবস্ক্রাইব এর ব্যাপারে নিশ্চিত হয়ে কনফার্ম করুন। আপনার বর্তমান প্ল্যান এর মেয়াদের পরে এই আনসাবস্ক্রাইব কার্যকর হবে। পরবর্তিতে যে কোন সময় আপনি আবার সাবস্ক্রাইব করতে পারবেন।</t>
-  </si>
-  <si>
     <t>অভিনন্দন</t>
   </si>
   <si>
-    <t>চার্জিং সফল হয়েছে এবং আপনি আপনার সিলেক্ট করা প্ল্যান এ সাবস্ক্রাইব করেছেন। একাউন্ট পেজ থেকে যে কোন সময় আপনি আনসাবস্ক্রাইব করতে পারবেন।</t>
-  </si>
-  <si>
     <t>দুঃখিত!</t>
   </si>
   <si>
@@ -3159,9 +2955,6 @@
     <t>promo code applied successfully</t>
   </si>
   <si>
-    <t>আর মাত্র %s দিন বাকি, আপনার %s শেষ হবার। বায়োস্কোপ উপভোগ করার জন্য যে কোন একটি প্রিমিয়াম প্ল্যান এ সাবস্ক্রাইব করুন।</t>
-  </si>
-  <si>
     <t>Movies</t>
   </si>
   <si>
@@ -3303,7 +3096,346 @@
     <t>profile_mine</t>
   </si>
   <si>
-    <t>u</t>
+    <t>বন্ধুদের ইনভাইট করুন</t>
+  </si>
+  <si>
+    <t>বর্ণনা</t>
+  </si>
+  <si>
+    <t>Do you want to sign out?</t>
+  </si>
+  <si>
+    <t>email_enter</t>
+  </si>
+  <si>
+    <t>Enter valid email</t>
+  </si>
+  <si>
+    <t>trial_plan_continue</t>
+  </si>
+  <si>
+    <t>payment_method_choose</t>
+  </si>
+  <si>
+    <t>thank_you</t>
+  </si>
+  <si>
+    <t>Thank You!</t>
+  </si>
+  <si>
+    <t>cvc_number_enter</t>
+  </si>
+  <si>
+    <t>expire_date_enter</t>
+  </si>
+  <si>
+    <t>card_number_invalid</t>
+  </si>
+  <si>
+    <t>expire_date_invalid</t>
+  </si>
+  <si>
+    <t>cvc_number_invalid</t>
+  </si>
+  <si>
+    <t>card_invalid</t>
+  </si>
+  <si>
+    <t>subs_check_failed</t>
+  </si>
+  <si>
+    <t>চার্জিং সফল হয়েছে এবং আপনি আপনার সিলেক্ট করা প্ল্যান এ সাবস্ক্রাইব করেছেন।</t>
+  </si>
+  <si>
+    <t>You Ve Successfully Subscribed To Your Selected Plan And You Have Been Charged Accordingly.</t>
+  </si>
+  <si>
+    <t>subs_successful_msg</t>
+  </si>
+  <si>
+    <t>subs_unsuccessful_msg</t>
+  </si>
+  <si>
+    <t>promo_code_is_available</t>
+  </si>
+  <si>
+    <t>subs_cancel_msg</t>
+  </si>
+  <si>
+    <t>subs_expired_msg</t>
+  </si>
+  <si>
+    <t>Subscription Expired</t>
+  </si>
+  <si>
+    <t>সাবস্ক্রিপশন পরীক্ষা করতে ব্যর্থ</t>
+  </si>
+  <si>
+    <t>Subscription check failed</t>
+  </si>
+  <si>
+    <t>unexpected_problem</t>
+  </si>
+  <si>
+    <t>subs_failed_msg</t>
+  </si>
+  <si>
+    <t>subs_already_done_msg</t>
+  </si>
+  <si>
+    <t>এলার্ট</t>
+  </si>
+  <si>
+    <t>application</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>back_now</t>
+  </si>
+  <si>
+    <t>Go Back</t>
+  </si>
+  <si>
+    <t>পিছনে যান</t>
+  </si>
+  <si>
+    <t>back_home</t>
+  </si>
+  <si>
+    <t>Back Home</t>
+  </si>
+  <si>
+    <t>language_change</t>
+  </si>
+  <si>
+    <t>confirm_now</t>
+  </si>
+  <si>
+    <t>আপনি কি সাইন আউট করতে চান?</t>
+  </si>
+  <si>
+    <t>email_enter_valid</t>
+  </si>
+  <si>
+    <t>feedback_provide</t>
+  </si>
+  <si>
+    <t>premium_membership_enrollment</t>
+  </si>
+  <si>
+    <t>profile_click_to_update</t>
+  </si>
+  <si>
+    <t>app_click_again_to_close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">লোকেশন বন্ধ </t>
+  </si>
+  <si>
+    <t>লোকেশন চালু</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>You Welcome</t>
+  </si>
+  <si>
+    <t>watch_history</t>
+  </si>
+  <si>
+    <t>Watch History</t>
+  </si>
+  <si>
+    <t>হিস্ট্রি</t>
+  </si>
+  <si>
+    <t>id_pass_enter</t>
+  </si>
+  <si>
+    <t>image_upload_success</t>
+  </si>
+  <si>
+    <t>ইন্টারনেট বন্ধ</t>
+  </si>
+  <si>
+    <t>login_success</t>
+  </si>
+  <si>
+    <t>subscription_failure_msg</t>
+  </si>
+  <si>
+    <t>subscription_found_msg</t>
+  </si>
+  <si>
+    <t>subscription_success_msg</t>
+  </si>
+  <si>
+    <t>পূর্ণ নাম </t>
+  </si>
+  <si>
+    <t>নামের শেষ অংশ</t>
+  </si>
+  <si>
+    <t>কানেকশন এরর</t>
+  </si>
+  <si>
+    <t>পাওয়া যায়নি</t>
+  </si>
+  <si>
+    <t>favourite_item_none</t>
+  </si>
+  <si>
+    <t>history_none</t>
+  </si>
+  <si>
+    <t>payment_history_none</t>
+  </si>
+  <si>
+    <t>search_result_none</t>
+  </si>
+  <si>
+    <t>notification_on</t>
+  </si>
+  <si>
+    <t>Notification On</t>
+  </si>
+  <si>
+    <t>notification_off</t>
+  </si>
+  <si>
+    <t>Notification Off</t>
+  </si>
+  <si>
+    <t>watching_now</t>
+  </si>
+  <si>
+    <t>otp_send</t>
+  </si>
+  <si>
+    <t>Send Otp</t>
+  </si>
+  <si>
+    <t>সেন্ড ওটিপি</t>
+  </si>
+  <si>
+    <t>Otp Sent Failed</t>
+  </si>
+  <si>
+    <t>pay_with_card</t>
+  </si>
+  <si>
+    <t>Pay with Card</t>
+  </si>
+  <si>
+    <t>Invalid Phone No</t>
+  </si>
+  <si>
+    <t>Please check your internet connection</t>
+  </si>
+  <si>
+    <t>operator_select</t>
+  </si>
+  <si>
+    <t>প্রিমিয়াম</t>
+  </si>
+  <si>
+    <t>প্রাইভেসি পলিসি</t>
+  </si>
+  <si>
+    <t>profile_update_success</t>
+  </si>
+  <si>
+    <t>promo_code_applied_success</t>
+  </si>
+  <si>
+    <t>প্রোমো কোড দেয়া সফল হয়েছে</t>
+  </si>
+  <si>
+    <t>রিকমেন্ডেড</t>
+  </si>
+  <si>
+    <t>আপনার জন্য</t>
+  </si>
+  <si>
+    <t>for_you</t>
+  </si>
+  <si>
+    <t>For You</t>
+  </si>
+  <si>
+    <t>profile_picture_select</t>
+  </si>
+  <si>
+    <t>plan_select</t>
+  </si>
+  <si>
+    <t>send_success</t>
+  </si>
+  <si>
+    <t>somthing_wrong</t>
+  </si>
+  <si>
+    <t>somthing_wrong_try_again</t>
+  </si>
+  <si>
+    <t>subs_success_msg</t>
+  </si>
+  <si>
+    <t>try_again_please</t>
+  </si>
+  <si>
+    <t>profile_update</t>
+  </si>
+  <si>
+    <t>phone_number_verify</t>
+  </si>
+  <si>
+    <t>video_not_available</t>
+  </si>
+  <si>
+    <t>name_write_please</t>
+  </si>
+  <si>
+    <t>otp_send_failed</t>
+  </si>
+  <si>
+    <t>otp_send_success</t>
+  </si>
+  <si>
+    <t>auto_renew</t>
+  </si>
+  <si>
+    <t>sign_out_confirmation</t>
+  </si>
+  <si>
+    <t>app_close_confirmation</t>
+  </si>
+  <si>
+    <t>send_data_confirmation</t>
+  </si>
+  <si>
+    <t>প্রিয় ভিডিও</t>
+  </si>
+  <si>
+    <t>আপনার কোন প্রিয় ভিডিও নেই</t>
+  </si>
+  <si>
+    <t>call_helpline_msg</t>
+  </si>
+  <si>
+    <t>reset_all_msg</t>
+  </si>
+  <si>
+    <t>share_app_msg</t>
+  </si>
+  <si>
+    <t>profile_update_failed</t>
+  </si>
+  <si>
+    <t>active_plan_none</t>
   </si>
 </sst>
 </file>
@@ -3313,7 +3445,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-5000445]0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3325,6 +3457,19 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3348,10 +3493,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3666,10 +3813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3F0CAB-B764-494E-8312-86738EB4583E}">
-  <dimension ref="A1:C258"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <selection activeCell="D247" sqref="D247"/>
+    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="138" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3683,10 +3830,10 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3694,2789 +3841,3294 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>1133</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>820</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>345</v>
+      </c>
+      <c r="C4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>422</v>
       </c>
       <c r="B6" t="s">
-        <v>309</v>
+        <v>704</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>1064</v>
       </c>
       <c r="B7" t="s">
-        <v>718</v>
+        <v>767</v>
       </c>
       <c r="C7" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>1125</v>
       </c>
       <c r="B8" t="s">
-        <v>324</v>
+        <v>419</v>
       </c>
       <c r="C8" t="s">
-        <v>500</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>839</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>840</v>
+        <v>298</v>
       </c>
       <c r="C9" t="s">
-        <v>573</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>1050</v>
       </c>
       <c r="B10" t="s">
-        <v>389</v>
+        <v>1051</v>
       </c>
       <c r="C10" t="s">
-        <v>244</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>1123</v>
       </c>
       <c r="B11" t="s">
-        <v>282</v>
+        <v>705</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>1055</v>
       </c>
       <c r="B13" t="s">
-        <v>320</v>
+        <v>1056</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>437</v>
+        <v>1052</v>
       </c>
       <c r="B14" t="s">
-        <v>719</v>
+        <v>1053</v>
       </c>
       <c r="C14" t="s">
-        <v>501</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C15" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>397</v>
+        <v>273</v>
       </c>
       <c r="C16" t="s">
-        <v>252</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>383</v>
+        <v>274</v>
       </c>
       <c r="C17" t="s">
-        <v>238</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="C18" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>790</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>791</v>
+        <v>377</v>
       </c>
       <c r="C19" t="s">
-        <v>861</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>438</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s">
-        <v>720</v>
+        <v>384</v>
       </c>
       <c r="C20" t="s">
-        <v>507</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>313</v>
+        <v>370</v>
       </c>
       <c r="C21" t="s">
-        <v>508</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>440</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>721</v>
+        <v>354</v>
       </c>
       <c r="C22" t="s">
-        <v>510</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>903</v>
+        <v>777</v>
       </c>
       <c r="B23" t="s">
-        <v>717</v>
+        <v>778</v>
       </c>
       <c r="C23" t="s">
-        <v>497</v>
+        <v>845</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="B24" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="C24" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>779</v>
+        <v>1129</v>
       </c>
       <c r="B25" t="s">
-        <v>780</v>
+        <v>408</v>
       </c>
       <c r="C25" t="s">
-        <v>498</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>422</v>
+        <v>302</v>
       </c>
       <c r="C26" t="s">
-        <v>280</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>904</v>
-      </c>
-      <c r="B27" t="s">
-        <v>905</v>
-      </c>
-      <c r="C27" t="s">
-        <v>277</v>
+      <c r="A27" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" t="s">
-        <v>370</v>
-      </c>
-      <c r="C28" t="s">
-        <v>225</v>
+      <c r="A28" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>123</v>
+        <v>876</v>
       </c>
       <c r="B29" t="s">
-        <v>408</v>
+        <v>704</v>
       </c>
       <c r="C29" t="s">
-        <v>263</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" t="s">
-        <v>409</v>
-      </c>
-      <c r="C30" t="s">
-        <v>264</v>
+      <c r="A30" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="B31" t="s">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="C31" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>442</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>723</v>
+        <v>359</v>
       </c>
       <c r="C32" t="s">
-        <v>512</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>443</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>724</v>
+        <v>395</v>
       </c>
       <c r="C33" t="s">
-        <v>513</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>444</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>725</v>
+        <v>396</v>
       </c>
       <c r="C34" t="s">
-        <v>514</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="C35" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>445</v>
-      </c>
-      <c r="B36">
-        <v>880</v>
-      </c>
-      <c r="C36" s="1">
-        <v>880</v>
+        <v>429</v>
+      </c>
+      <c r="B36" t="s">
+        <v>710</v>
+      </c>
+      <c r="C36" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>446</v>
-      </c>
-      <c r="B37" t="s">
-        <v>726</v>
-      </c>
-      <c r="C37" t="s">
-        <v>515</v>
+      <c r="A37" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>430</v>
       </c>
       <c r="B38" t="s">
-        <v>298</v>
+        <v>711</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B39" t="s">
-        <v>414</v>
-      </c>
-      <c r="C39" t="s">
-        <v>269</v>
+      <c r="A39" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="B40" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="C40" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="C41" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>448</v>
-      </c>
-      <c r="B42" t="s">
-        <v>728</v>
-      </c>
-      <c r="C42" t="s">
-        <v>517</v>
+        <v>432</v>
+      </c>
+      <c r="B42">
+        <v>880</v>
+      </c>
+      <c r="C42" s="1">
+        <v>880</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>433</v>
       </c>
       <c r="B43" t="s">
-        <v>410</v>
+        <v>713</v>
       </c>
       <c r="C43" t="s">
-        <v>265</v>
+        <v>502</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>449</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>729</v>
+        <v>289</v>
       </c>
       <c r="C44" t="s">
-        <v>518</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>452</v>
-      </c>
-      <c r="B45">
-        <v>1834927083</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1834548739</v>
+      <c r="A45" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>107</v>
-      </c>
-      <c r="B46" t="s">
-        <v>391</v>
-      </c>
-      <c r="C46" t="s">
-        <v>246</v>
+      <c r="A46" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>453</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>730</v>
+        <v>401</v>
       </c>
       <c r="C47" t="s">
-        <v>520</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>434</v>
       </c>
       <c r="B48" t="s">
-        <v>312</v>
+        <v>714</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>503</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>284</v>
+        <v>388</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>435</v>
       </c>
       <c r="B50" t="s">
-        <v>355</v>
+        <v>715</v>
       </c>
       <c r="C50" t="s">
-        <v>211</v>
+        <v>504</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>795</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>796</v>
+        <v>397</v>
       </c>
       <c r="C51" t="s">
-        <v>521</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>436</v>
       </c>
       <c r="B52" t="s">
-        <v>394</v>
+        <v>716</v>
       </c>
       <c r="C52" t="s">
-        <v>249</v>
+        <v>505</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" t="s">
-        <v>384</v>
-      </c>
-      <c r="C53" t="s">
-        <v>239</v>
+      <c r="A53" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>454</v>
-      </c>
-      <c r="B54" t="s">
-        <v>734</v>
-      </c>
-      <c r="C54" t="s">
-        <v>526</v>
+        <v>439</v>
+      </c>
+      <c r="B54">
+        <v>1834927083</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1834548739</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>456</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>736</v>
+        <v>378</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="B56" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="C56" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" t="s">
-        <v>293</v>
-      </c>
-      <c r="C57" t="s">
-        <v>146</v>
+      <c r="A57" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>882</v>
+        <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>859</v>
+        <v>301</v>
       </c>
       <c r="C58" t="s">
-        <v>860</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="B59" t="s">
-        <v>368</v>
+        <v>275</v>
       </c>
       <c r="C59" t="s">
-        <v>529</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="C60" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" t="s">
-        <v>308</v>
-      </c>
-      <c r="C61" t="s">
-        <v>162</v>
+      <c r="A61" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" t="s">
-        <v>406</v>
-      </c>
-      <c r="C62" t="s">
-        <v>261</v>
+      <c r="A62" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>782</v>
       </c>
       <c r="B63" t="s">
-        <v>381</v>
+        <v>783</v>
       </c>
       <c r="C63" t="s">
-        <v>236</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="C64" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B65" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="C65" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>441</v>
       </c>
       <c r="B66" t="s">
-        <v>388</v>
+        <v>721</v>
       </c>
       <c r="C66" t="s">
-        <v>243</v>
+        <v>513</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>884</v>
+        <v>443</v>
       </c>
       <c r="B67" t="s">
-        <v>403</v>
+        <v>723</v>
       </c>
       <c r="C67" t="s">
-        <v>258</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>442</v>
       </c>
       <c r="B68" t="s">
-        <v>404</v>
+        <v>722</v>
       </c>
       <c r="C68" t="s">
-        <v>259</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>1083</v>
       </c>
       <c r="B69" t="s">
-        <v>285</v>
+        <v>764</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>915</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
-        <v>916</v>
+        <v>284</v>
+      </c>
+      <c r="C70" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>913</v>
+        <v>1061</v>
       </c>
       <c r="B71" t="s">
-        <v>914</v>
+        <v>843</v>
+      </c>
+      <c r="C71" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="C72" t="s">
-        <v>167</v>
+        <v>516</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>1108</v>
       </c>
       <c r="B73" t="s">
-        <v>393</v>
-      </c>
-      <c r="C73" t="s">
-        <v>248</v>
+        <v>1109</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="C74" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>883</v>
+        <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>327</v>
+        <v>297</v>
       </c>
       <c r="C75" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>459</v>
+        <v>115</v>
       </c>
       <c r="B76" t="s">
-        <v>739</v>
+        <v>393</v>
       </c>
       <c r="C76" t="s">
-        <v>533</v>
+        <v>252</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="C77" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>460</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>740</v>
+        <v>375</v>
       </c>
       <c r="C78" t="s">
-        <v>534</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>865</v>
       </c>
       <c r="B79" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C79" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>315</v>
+        <v>391</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C81" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>886</v>
       </c>
       <c r="B82" t="s">
-        <v>319</v>
-      </c>
-      <c r="C82" t="s">
-        <v>172</v>
+        <v>887</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>65</v>
+        <v>884</v>
       </c>
       <c r="B83" t="s">
-        <v>350</v>
-      </c>
-      <c r="C83" t="s">
-        <v>200</v>
+        <v>885</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>922</v>
+        <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>922</v>
+        <v>303</v>
       </c>
       <c r="C84" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>317</v>
+        <v>380</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>875</v>
+        <v>42</v>
       </c>
       <c r="B86" t="s">
-        <v>819</v>
+        <v>315</v>
       </c>
       <c r="C86" t="s">
-        <v>820</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>806</v>
+        <v>864</v>
       </c>
       <c r="B87" t="s">
-        <v>808</v>
+        <v>316</v>
       </c>
       <c r="C87" t="s">
-        <v>535</v>
+        <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>807</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>809</v>
+        <v>385</v>
       </c>
       <c r="C88" t="s">
-        <v>536</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>447</v>
       </c>
       <c r="B89" t="s">
-        <v>369</v>
+        <v>727</v>
       </c>
       <c r="C89" t="s">
-        <v>224</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>45</v>
+        <v>1084</v>
       </c>
       <c r="B90" t="s">
-        <v>328</v>
+        <v>792</v>
       </c>
       <c r="C90" t="s">
-        <v>180</v>
+        <v>519</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>889</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>831</v>
+        <v>368</v>
       </c>
       <c r="C91" t="s">
-        <v>544</v>
+        <v>227</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>917</v>
+        <v>31</v>
       </c>
       <c r="B92" t="s">
-        <v>920</v>
+        <v>304</v>
+      </c>
+      <c r="C92" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>918</v>
+        <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>919</v>
+        <v>291</v>
       </c>
       <c r="C93" t="s">
-        <v>274</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="C94" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>462</v>
+        <v>62</v>
       </c>
       <c r="B95" t="s">
-        <v>742</v>
+        <v>339</v>
       </c>
       <c r="C95" t="s">
-        <v>537</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>1072</v>
       </c>
       <c r="B96" t="s">
-        <v>412</v>
+        <v>346</v>
       </c>
       <c r="C96" t="s">
-        <v>267</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>59</v>
+        <v>893</v>
       </c>
       <c r="B97" t="s">
-        <v>344</v>
+        <v>893</v>
       </c>
       <c r="C97" t="s">
-        <v>541</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="C98" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>890</v>
+        <v>857</v>
       </c>
       <c r="B99" t="s">
-        <v>755</v>
+        <v>806</v>
       </c>
       <c r="C99" t="s">
-        <v>555</v>
+        <v>807</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>827</v>
+        <v>793</v>
       </c>
       <c r="B100" t="s">
-        <v>828</v>
+        <v>795</v>
       </c>
       <c r="C100" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>463</v>
+        <v>1073</v>
       </c>
       <c r="B101" t="s">
-        <v>829</v>
+        <v>796</v>
       </c>
       <c r="C101" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B102" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C102" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B103" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="C103" t="s">
-        <v>223</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>51</v>
+        <v>870</v>
       </c>
       <c r="B104" t="s">
-        <v>334</v>
+        <v>1099</v>
       </c>
       <c r="C104" t="s">
-        <v>186</v>
+        <v>531</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>888</v>
       </c>
       <c r="B105" t="s">
-        <v>392</v>
-      </c>
-      <c r="C105" t="s">
-        <v>247</v>
+        <v>891</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>53</v>
+        <v>889</v>
       </c>
       <c r="B106" t="s">
-        <v>336</v>
+        <v>890</v>
       </c>
       <c r="C106" t="s">
-        <v>188</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>90</v>
-      </c>
-      <c r="B107" t="s">
-        <v>374</v>
-      </c>
-      <c r="C107" t="s">
-        <v>229</v>
+      <c r="A107" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="B108" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
       <c r="C108" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>116</v>
+        <v>1057</v>
       </c>
       <c r="B109" t="s">
-        <v>400</v>
+        <v>708</v>
       </c>
       <c r="C109" t="s">
-        <v>255</v>
+        <v>497</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>25</v>
+        <v>449</v>
       </c>
       <c r="B110" t="s">
-        <v>307</v>
+        <v>729</v>
       </c>
       <c r="C110" t="s">
-        <v>161</v>
+        <v>524</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>870</v>
+        <v>121</v>
       </c>
       <c r="B111" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="C111" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>869</v>
+        <v>56</v>
       </c>
       <c r="B112" t="s">
-        <v>423</v>
+        <v>333</v>
       </c>
       <c r="C112" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>899</v>
+        <v>75</v>
       </c>
       <c r="B113" t="s">
-        <v>420</v>
+        <v>350</v>
       </c>
       <c r="C113" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>900</v>
+        <v>871</v>
       </c>
       <c r="B114" t="s">
-        <v>769</v>
+        <v>742</v>
       </c>
       <c r="C114" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>901</v>
+        <v>1075</v>
       </c>
       <c r="B115" t="s">
-        <v>769</v>
+        <v>815</v>
       </c>
       <c r="C115" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>841</v>
+        <v>450</v>
       </c>
       <c r="B116" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
       <c r="C116" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>842</v>
+        <v>57</v>
       </c>
       <c r="B117" t="s">
-        <v>771</v>
+        <v>334</v>
       </c>
       <c r="C117" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>843</v>
+        <v>79</v>
       </c>
       <c r="B118" t="s">
-        <v>772</v>
+        <v>356</v>
       </c>
       <c r="C118" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>464</v>
+        <v>49</v>
       </c>
       <c r="B119" t="s">
-        <v>743</v>
+        <v>323</v>
       </c>
       <c r="C119" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>465</v>
+        <v>102</v>
       </c>
       <c r="B120" t="s">
-        <v>744</v>
+        <v>379</v>
       </c>
       <c r="C120" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>51</v>
+      </c>
+      <c r="B121" t="s">
+        <v>325</v>
+      </c>
+      <c r="C121" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>86</v>
+      </c>
+      <c r="B122" t="s">
+        <v>363</v>
+      </c>
+      <c r="C122" t="s">
+        <v>221</v>
+      </c>
+      <c r="G122" s="4"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>87</v>
+      </c>
+      <c r="B123" t="s">
+        <v>364</v>
+      </c>
+      <c r="C123" t="s">
+        <v>222</v>
+      </c>
+      <c r="G123" s="4"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>110</v>
+      </c>
+      <c r="B124" t="s">
+        <v>387</v>
+      </c>
+      <c r="C124" t="s">
+        <v>246</v>
+      </c>
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>23</v>
       </c>
-      <c r="B121" t="s">
-        <v>305</v>
-      </c>
-      <c r="C121" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>880</v>
-      </c>
-      <c r="B122" t="s">
-        <v>737</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="B126" t="s">
+        <v>296</v>
+      </c>
+      <c r="C126" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>451</v>
+      </c>
+      <c r="B127" t="s">
+        <v>730</v>
+      </c>
+      <c r="C127" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>452</v>
+      </c>
+      <c r="B128" t="s">
+        <v>731</v>
+      </c>
+      <c r="C128" t="s">
         <v>530</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>907</v>
-      </c>
-      <c r="B123" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>906</v>
-      </c>
-      <c r="B124" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>910</v>
-      </c>
-      <c r="B125" t="s">
-        <v>363</v>
-      </c>
-      <c r="C125" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>22</v>
-      </c>
-      <c r="B126" t="s">
-        <v>304</v>
-      </c>
-      <c r="C126" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>466</v>
-      </c>
-      <c r="B127" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>781</v>
-      </c>
-      <c r="B128" t="s">
-        <v>782</v>
-      </c>
-      <c r="C128" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="B129" t="s">
-        <v>402</v>
+        <v>295</v>
       </c>
       <c r="C129" t="s">
-        <v>257</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>862</v>
       </c>
       <c r="B130" t="s">
-        <v>297</v>
+        <v>724</v>
       </c>
       <c r="C130" t="s">
-        <v>151</v>
+        <v>517</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>832</v>
+        <v>879</v>
       </c>
       <c r="B131" t="s">
-        <v>833</v>
-      </c>
-      <c r="C131" t="s">
-        <v>545</v>
+        <v>880</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>878</v>
       </c>
       <c r="B132" t="s">
-        <v>417</v>
-      </c>
-      <c r="C132" t="s">
-        <v>271</v>
+        <v>728</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>912</v>
+        <v>1120</v>
       </c>
       <c r="B133" t="s">
-        <v>777</v>
+        <v>403</v>
       </c>
       <c r="C133" t="s">
-        <v>583</v>
+        <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>804</v>
+        <v>882</v>
       </c>
       <c r="B134" t="s">
-        <v>805</v>
+        <v>352</v>
       </c>
       <c r="C134" t="s">
-        <v>532</v>
+        <v>211</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>467</v>
+        <v>21</v>
       </c>
       <c r="B135" t="s">
-        <v>746</v>
+        <v>294</v>
       </c>
       <c r="C135" t="s">
-        <v>546</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>834</v>
+        <v>453</v>
       </c>
       <c r="B136" t="s">
-        <v>747</v>
-      </c>
-      <c r="C136" t="s">
-        <v>547</v>
+        <v>732</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>792</v>
+        <v>768</v>
       </c>
       <c r="B137" t="s">
-        <v>793</v>
+        <v>769</v>
       </c>
       <c r="C137" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B138" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C138" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="C139" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="B140" t="s">
-        <v>339</v>
+        <v>404</v>
       </c>
       <c r="C140" t="s">
-        <v>191</v>
+        <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>468</v>
+        <v>779</v>
       </c>
       <c r="B141" t="s">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="C141" t="s">
-        <v>548</v>
+        <v>496</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="B142" t="s">
-        <v>289</v>
+        <v>382</v>
       </c>
       <c r="C142" t="s">
-        <v>142</v>
+        <v>241</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B143" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="C143" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>6</v>
-      </c>
-      <c r="B144" t="s">
-        <v>288</v>
-      </c>
-      <c r="C144" t="s">
-        <v>141</v>
+      <c r="A144" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B145" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C145" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>872</v>
+        <v>1089</v>
       </c>
       <c r="B146" t="s">
-        <v>794</v>
-      </c>
-      <c r="C146" t="s">
-        <v>519</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>878</v>
+        <v>1087</v>
       </c>
       <c r="B147" t="s">
-        <v>799</v>
-      </c>
-      <c r="C147" t="s">
-        <v>524</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>881</v>
-      </c>
-      <c r="B148" t="s">
-        <v>738</v>
-      </c>
-      <c r="C148" t="s">
-        <v>531</v>
+      <c r="A148" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>885</v>
+        <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>732</v>
+        <v>280</v>
       </c>
       <c r="C149" t="s">
-        <v>862</v>
+        <v>135</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>871</v>
+        <v>4</v>
       </c>
       <c r="B150" t="s">
-        <v>783</v>
+        <v>277</v>
       </c>
       <c r="C150" t="s">
-        <v>503</v>
+        <v>133</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>835</v>
+        <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>836</v>
+        <v>279</v>
       </c>
       <c r="C151" t="s">
-        <v>550</v>
+        <v>134</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>902</v>
+        <v>1100</v>
       </c>
       <c r="B152" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="C152" t="s">
-        <v>863</v>
+        <v>568</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>471</v>
+        <v>52</v>
       </c>
       <c r="B153" t="s">
-        <v>750</v>
+        <v>326</v>
       </c>
       <c r="C153" t="s">
-        <v>551</v>
+        <v>181</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>472</v>
+        <v>854</v>
       </c>
       <c r="B154" t="s">
-        <v>751</v>
+        <v>781</v>
       </c>
       <c r="C154" t="s">
-        <v>552</v>
+        <v>506</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>69</v>
+        <v>860</v>
       </c>
       <c r="B155" t="s">
-        <v>354</v>
+        <v>786</v>
       </c>
       <c r="C155" t="s">
-        <v>204</v>
+        <v>511</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>72</v>
+        <v>863</v>
       </c>
       <c r="B156" t="s">
-        <v>426</v>
+        <v>725</v>
       </c>
       <c r="C156" t="s">
-        <v>207</v>
+        <v>518</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>74</v>
+        <v>866</v>
       </c>
       <c r="B157" t="s">
-        <v>428</v>
+        <v>719</v>
       </c>
       <c r="C157" t="s">
-        <v>209</v>
+        <v>846</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>75</v>
+        <v>853</v>
       </c>
       <c r="B158" t="s">
-        <v>429</v>
+        <v>770</v>
       </c>
       <c r="C158" t="s">
-        <v>210</v>
+        <v>490</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>73</v>
+        <v>1092</v>
       </c>
       <c r="B159" t="s">
-        <v>427</v>
+        <v>1093</v>
       </c>
       <c r="C159" t="s">
-        <v>208</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>71</v>
+        <v>1121</v>
       </c>
       <c r="B160" t="s">
-        <v>425</v>
-      </c>
-      <c r="C160" t="s">
-        <v>206</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>70</v>
+        <v>1122</v>
       </c>
       <c r="B161" t="s">
-        <v>424</v>
+        <v>823</v>
       </c>
       <c r="C161" t="s">
-        <v>205</v>
+        <v>537</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>474</v>
+        <v>875</v>
       </c>
       <c r="B162" t="s">
-        <v>753</v>
+        <v>798</v>
       </c>
       <c r="C162" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="B163" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="C163" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>475</v>
-      </c>
-      <c r="B164" t="s">
-        <v>754</v>
-      </c>
-      <c r="C164" t="s">
-        <v>554</v>
+      <c r="A164" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>888</v>
+        <v>66</v>
       </c>
       <c r="B165" t="s">
-        <v>749</v>
+        <v>343</v>
       </c>
       <c r="C165" t="s">
-        <v>549</v>
+        <v>196</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="C166" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B167" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="C167" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B168" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="C168" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>886</v>
+        <v>70</v>
       </c>
       <c r="B169" t="s">
-        <v>733</v>
+        <v>414</v>
       </c>
       <c r="C169" t="s">
-        <v>525</v>
+        <v>200</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>876</v>
+        <v>68</v>
       </c>
       <c r="B170" t="s">
-        <v>867</v>
+        <v>412</v>
       </c>
       <c r="C170" t="s">
-        <v>575</v>
+        <v>198</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>879</v>
+        <v>67</v>
       </c>
       <c r="B171" t="s">
-        <v>797</v>
+        <v>411</v>
       </c>
       <c r="C171" t="s">
-        <v>522</v>
+        <v>197</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>102</v>
+        <v>461</v>
       </c>
       <c r="B172" t="s">
-        <v>386</v>
+        <v>740</v>
       </c>
       <c r="C172" t="s">
-        <v>241</v>
+        <v>824</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>94</v>
-      </c>
-      <c r="B173" t="s">
-        <v>378</v>
-      </c>
-      <c r="C173" t="s">
-        <v>233</v>
+      <c r="A173" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>89</v>
+        <v>460</v>
       </c>
       <c r="B174" t="s">
-        <v>373</v>
+        <v>739</v>
       </c>
       <c r="C174" t="s">
-        <v>228</v>
+        <v>540</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="B175" t="s">
-        <v>756</v>
+        <v>741</v>
+      </c>
+      <c r="C175" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>120</v>
+        <v>1085</v>
       </c>
       <c r="B176" t="s">
-        <v>405</v>
+        <v>733</v>
       </c>
       <c r="C176" t="s">
-        <v>260</v>
+        <v>533</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>133</v>
+        <v>1026</v>
       </c>
       <c r="B177" t="s">
-        <v>418</v>
+        <v>709</v>
       </c>
       <c r="C177" t="s">
-        <v>273</v>
+        <v>498</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>130</v>
+        <v>869</v>
       </c>
       <c r="B178" t="s">
-        <v>415</v>
+        <v>736</v>
       </c>
       <c r="C178" t="s">
-        <v>430</v>
+        <v>536</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>478</v>
+        <v>92</v>
       </c>
       <c r="B179" t="s">
-        <v>757</v>
+        <v>369</v>
+      </c>
+      <c r="C179" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="B180" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="C180" t="s">
-        <v>153</v>
+        <v>223</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>873</v>
+        <v>89</v>
       </c>
       <c r="B181" t="s">
-        <v>874</v>
+        <v>366</v>
       </c>
       <c r="C181" t="s">
-        <v>557</v>
+        <v>224</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>911</v>
+        <v>867</v>
       </c>
       <c r="B182" t="s">
-        <v>362</v>
+        <v>1098</v>
       </c>
       <c r="C182" t="s">
-        <v>218</v>
+        <v>512</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>122</v>
+        <v>858</v>
       </c>
       <c r="B183" t="s">
-        <v>407</v>
+        <v>851</v>
       </c>
       <c r="C183" t="s">
-        <v>262</v>
+        <v>562</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>894</v>
+        <v>861</v>
       </c>
       <c r="B184" t="s">
-        <v>432</v>
+        <v>784</v>
       </c>
       <c r="C184" t="s">
-        <v>276</v>
+        <v>509</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>895</v>
+        <v>1118</v>
       </c>
       <c r="B185" t="s">
-        <v>431</v>
-      </c>
-      <c r="C185" t="s">
-        <v>272</v>
+        <v>852</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>896</v>
+        <v>96</v>
       </c>
       <c r="B186" t="s">
-        <v>897</v>
+        <v>373</v>
       </c>
       <c r="C186" t="s">
-        <v>558</v>
+        <v>232</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>481</v>
+        <v>1111</v>
       </c>
       <c r="B187" t="s">
-        <v>760</v>
+        <v>752</v>
+      </c>
+      <c r="C187" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>480</v>
+        <v>85</v>
       </c>
       <c r="B188" t="s">
-        <v>759</v>
+        <v>362</v>
+      </c>
+      <c r="C188" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>50</v>
+        <v>464</v>
       </c>
       <c r="B189" t="s">
-        <v>333</v>
-      </c>
-      <c r="C189" t="s">
-        <v>185</v>
+        <v>743</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>848</v>
+        <v>1062</v>
       </c>
       <c r="B190" t="s">
-        <v>849</v>
+        <v>706</v>
       </c>
       <c r="C190" t="s">
-        <v>855</v>
+        <v>488</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>482</v>
+        <v>114</v>
       </c>
       <c r="B191" t="s">
-        <v>761</v>
+        <v>392</v>
       </c>
       <c r="C191" t="s">
-        <v>559</v>
+        <v>251</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="B192" t="s">
-        <v>329</v>
+        <v>405</v>
       </c>
       <c r="C192" t="s">
-        <v>181</v>
+        <v>264</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>909</v>
+        <v>124</v>
+      </c>
+      <c r="B193" t="s">
+        <v>402</v>
+      </c>
+      <c r="C193" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>47</v>
+        <v>465</v>
       </c>
       <c r="B194" t="s">
-        <v>330</v>
-      </c>
-      <c r="C194" t="s">
-        <v>182</v>
+        <v>744</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B195" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="C195" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>39</v>
+        <v>1063</v>
       </c>
       <c r="B196" t="s">
-        <v>321</v>
+        <v>877</v>
       </c>
       <c r="C196" t="s">
-        <v>174</v>
+        <v>268</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>40</v>
-      </c>
-      <c r="B197" t="s">
-        <v>322</v>
-      </c>
-      <c r="C197" t="s">
-        <v>175</v>
+      <c r="A197" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>483</v>
+        <v>1110</v>
       </c>
       <c r="B198" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="C198" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>41</v>
+        <v>1117</v>
       </c>
       <c r="B199" t="s">
-        <v>323</v>
+        <v>761</v>
       </c>
       <c r="C199" t="s">
-        <v>176</v>
+        <v>809</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>484</v>
-      </c>
-      <c r="B200" t="s">
-        <v>763</v>
-      </c>
-      <c r="C200" t="s">
-        <v>561</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>784</v>
+        <v>1103</v>
       </c>
       <c r="B201" t="s">
-        <v>785</v>
+        <v>856</v>
       </c>
       <c r="C201" t="s">
-        <v>504</v>
+        <v>544</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>857</v>
+        <v>883</v>
       </c>
       <c r="B202" t="s">
-        <v>764</v>
+        <v>351</v>
       </c>
       <c r="C202" t="s">
-        <v>562</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>891</v>
-      </c>
-      <c r="B203" t="s">
-        <v>812</v>
-      </c>
-      <c r="C203" t="s">
-        <v>581</v>
+      <c r="A203" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>485</v>
-      </c>
-      <c r="B204" t="s">
-        <v>765</v>
-      </c>
-      <c r="C204" t="s">
-        <v>563</v>
+      <c r="A204" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>898</v>
+        <v>116</v>
       </c>
       <c r="B205" t="s">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="C205" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>128</v>
+        <v>466</v>
       </c>
       <c r="B206" t="s">
-        <v>413</v>
+        <v>745</v>
       </c>
       <c r="C206" t="s">
-        <v>268</v>
+        <v>545</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>55</v>
+        <v>468</v>
       </c>
       <c r="B207" t="s">
-        <v>338</v>
-      </c>
-      <c r="C207" t="s">
-        <v>190</v>
+        <v>747</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>80</v>
+        <v>467</v>
       </c>
       <c r="B208" t="s">
-        <v>364</v>
-      </c>
-      <c r="C208" t="s">
-        <v>220</v>
+        <v>746</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="B209" t="s">
-        <v>419</v>
+        <v>322</v>
       </c>
       <c r="C209" t="s">
-        <v>275</v>
+        <v>177</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>8</v>
+        <v>832</v>
       </c>
       <c r="B210" t="s">
-        <v>290</v>
+        <v>833</v>
       </c>
       <c r="C210" t="s">
-        <v>143</v>
+        <v>839</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="B211" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="C211" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>19</v>
-      </c>
-      <c r="B212" t="s">
-        <v>301</v>
-      </c>
-      <c r="C212" t="s">
-        <v>155</v>
+      <c r="A212" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B213" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="C213" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>10</v>
-      </c>
-      <c r="B214" t="s">
-        <v>292</v>
-      </c>
-      <c r="C214" t="s">
-        <v>145</v>
+        <v>881</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B215" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="C215" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B216" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="C216" t="s">
-        <v>566</v>
+        <v>175</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B217" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="C217" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="B218" t="s">
-        <v>396</v>
+        <v>311</v>
       </c>
       <c r="C218" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>88</v>
+        <v>1130</v>
       </c>
       <c r="B219" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="C219" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>29</v>
+        <v>470</v>
       </c>
       <c r="B220" t="s">
-        <v>311</v>
+        <v>749</v>
       </c>
       <c r="C220" t="s">
-        <v>165</v>
+        <v>547</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B221" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C221" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>786</v>
+        <v>471</v>
       </c>
       <c r="B222" t="s">
-        <v>787</v>
+        <v>750</v>
       </c>
       <c r="C222" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>490</v>
+        <v>1086</v>
       </c>
       <c r="B223" t="s">
-        <v>773</v>
+        <v>734</v>
       </c>
       <c r="C223" t="s">
-        <v>572</v>
+        <v>534</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>21</v>
+        <v>771</v>
       </c>
       <c r="B224" t="s">
-        <v>303</v>
+        <v>772</v>
       </c>
       <c r="C224" t="s">
-        <v>157</v>
+        <v>491</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>126</v>
+        <v>1126</v>
       </c>
       <c r="B225" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C225" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>825</v>
+        <v>874</v>
       </c>
       <c r="B226" t="s">
-        <v>826</v>
+        <v>329</v>
       </c>
       <c r="C226" t="s">
-        <v>856</v>
+        <v>184</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>103</v>
+        <v>1112</v>
       </c>
       <c r="B227" t="s">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="C227" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="B228" t="s">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="C228" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B229" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="C229" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>921</v>
+        <v>127</v>
       </c>
       <c r="B230" t="s">
-        <v>343</v>
+        <v>406</v>
       </c>
       <c r="C230" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="B231" t="s">
-        <v>371</v>
+        <v>281</v>
       </c>
       <c r="C231" t="s">
-        <v>226</v>
+        <v>136</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="B232" t="s">
-        <v>359</v>
+        <v>754</v>
       </c>
       <c r="C232" t="s">
-        <v>215</v>
+        <v>551</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>433</v>
+        <v>19</v>
       </c>
       <c r="B233" t="s">
-        <v>434</v>
+        <v>292</v>
       </c>
       <c r="C233" t="s">
-        <v>576</v>
+        <v>148</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>892</v>
+        <v>10</v>
       </c>
       <c r="B234" t="s">
-        <v>358</v>
+        <v>283</v>
       </c>
       <c r="C234" t="s">
-        <v>214</v>
+        <v>138</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>893</v>
+        <v>1131</v>
       </c>
       <c r="B235" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="C235" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>788</v>
+        <v>475</v>
       </c>
       <c r="B236" t="s">
-        <v>789</v>
+        <v>755</v>
       </c>
       <c r="C236" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>43</v>
-      </c>
-      <c r="B237" t="s">
-        <v>325</v>
-      </c>
-      <c r="C237" t="s">
-        <v>177</v>
+        <v>1124</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>491</v>
+        <v>59</v>
       </c>
       <c r="B238" t="s">
-        <v>774</v>
+        <v>336</v>
       </c>
       <c r="C238" t="s">
-        <v>822</v>
+        <v>190</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>492</v>
+        <v>60</v>
       </c>
       <c r="B239" t="s">
-        <v>775</v>
+        <v>337</v>
       </c>
       <c r="C239" t="s">
-        <v>821</v>
+        <v>553</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B240" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="C240" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B241" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="C241" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>68</v>
+        <v>476</v>
       </c>
       <c r="B242" t="s">
-        <v>353</v>
+        <v>756</v>
       </c>
       <c r="C242" t="s">
-        <v>203</v>
+        <v>554</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>865</v>
+        <v>825</v>
       </c>
       <c r="B243" t="s">
-        <v>868</v>
+        <v>756</v>
+      </c>
+      <c r="C243" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>9</v>
+        <v>1113</v>
       </c>
       <c r="B244" t="s">
-        <v>291</v>
+        <v>756</v>
       </c>
       <c r="C244" t="s">
-        <v>144</v>
+        <v>554</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>864</v>
+        <v>1114</v>
       </c>
       <c r="B245" t="s">
-        <v>866</v>
+        <v>756</v>
       </c>
       <c r="C245" t="s">
-        <v>923</v>
+        <v>555</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>36</v>
-      </c>
-      <c r="B246" t="s">
-        <v>318</v>
-      </c>
-      <c r="C246" t="s">
-        <v>171</v>
+      <c r="A246" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>844</v>
+        <v>84</v>
       </c>
       <c r="B247" t="s">
-        <v>845</v>
+        <v>361</v>
       </c>
       <c r="C247" t="s">
-        <v>852</v>
+        <v>219</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>877</v>
-      </c>
-      <c r="B248" t="s">
-        <v>851</v>
-      </c>
-      <c r="C248" t="s">
-        <v>853</v>
+      <c r="A248" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>887</v>
+        <v>27</v>
       </c>
       <c r="B249" t="s">
-        <v>847</v>
+        <v>300</v>
       </c>
       <c r="C249" t="s">
-        <v>854</v>
+        <v>157</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>816</v>
+        <v>26</v>
       </c>
       <c r="B250" t="s">
-        <v>817</v>
+        <v>299</v>
       </c>
       <c r="C250" t="s">
-        <v>578</v>
+        <v>156</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>493</v>
+        <v>1048</v>
       </c>
       <c r="B251" t="s">
-        <v>776</v>
+        <v>758</v>
       </c>
       <c r="C251" t="s">
-        <v>579</v>
+        <v>557</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>814</v>
-      </c>
-      <c r="B252" t="s">
-        <v>815</v>
-      </c>
-      <c r="C252" t="s">
-        <v>580</v>
+      <c r="A252" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>34</v>
-      </c>
-      <c r="B253" t="s">
-        <v>316</v>
-      </c>
-      <c r="C253" t="s">
-        <v>169</v>
+      <c r="A253" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>823</v>
-      </c>
-      <c r="B254" t="s">
-        <v>824</v>
-      </c>
-      <c r="C254" t="s">
-        <v>577</v>
+      <c r="A254" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>131</v>
+        <v>1047</v>
       </c>
       <c r="B255" t="s">
-        <v>416</v>
+        <v>757</v>
       </c>
       <c r="C255" t="s">
-        <v>270</v>
+        <v>556</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>494</v>
-      </c>
-      <c r="B256" t="s">
-        <v>582</v>
-      </c>
-      <c r="C256" t="s">
-        <v>582</v>
+      <c r="A256" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>115</v>
-      </c>
-      <c r="B257" t="s">
-        <v>399</v>
-      </c>
-      <c r="C257" t="s">
-        <v>254</v>
+      <c r="A257" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B258" t="s">
+        <v>759</v>
+      </c>
+      <c r="C258" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>773</v>
+      </c>
+      <c r="B259" t="s">
+        <v>774</v>
+      </c>
+      <c r="C259" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>477</v>
+      </c>
+      <c r="B260" t="s">
+        <v>760</v>
+      </c>
+      <c r="C260" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B261" t="s">
+        <v>757</v>
+      </c>
+      <c r="C261" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B262" t="s">
+        <v>758</v>
+      </c>
+      <c r="C262" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B263" t="s">
+        <v>759</v>
+      </c>
+      <c r="C263" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>20</v>
+      </c>
+      <c r="B264" t="s">
+        <v>293</v>
+      </c>
+      <c r="C264" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>120</v>
+      </c>
+      <c r="B265" t="s">
+        <v>398</v>
+      </c>
+      <c r="C265" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>812</v>
+      </c>
+      <c r="B266" t="s">
+        <v>813</v>
+      </c>
+      <c r="C266" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>97</v>
+      </c>
+      <c r="B267" t="s">
+        <v>374</v>
+      </c>
+      <c r="C267" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>50</v>
+      </c>
+      <c r="B269" t="s">
+        <v>324</v>
+      </c>
+      <c r="C269" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>47</v>
+      </c>
+      <c r="B270" t="s">
+        <v>321</v>
+      </c>
+      <c r="C270" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>892</v>
+      </c>
+      <c r="B271" t="s">
+        <v>332</v>
+      </c>
+      <c r="C271" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>83</v>
+      </c>
+      <c r="B272" t="s">
+        <v>360</v>
+      </c>
+      <c r="C272" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>420</v>
+      </c>
+      <c r="B274" t="s">
+        <v>421</v>
+      </c>
+      <c r="C274" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>872</v>
+      </c>
+      <c r="B275" t="s">
+        <v>347</v>
+      </c>
+      <c r="C275" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B276" t="s">
+        <v>348</v>
+      </c>
+      <c r="C276" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>873</v>
+      </c>
+      <c r="B277" t="s">
+        <v>349</v>
+      </c>
+      <c r="C277" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>775</v>
+      </c>
+      <c r="B280" t="s">
+        <v>776</v>
+      </c>
+      <c r="C280" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>41</v>
+      </c>
+      <c r="B281" t="s">
+        <v>314</v>
+      </c>
+      <c r="C281" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>479</v>
+      </c>
+      <c r="B282" t="s">
+        <v>762</v>
+      </c>
+      <c r="C282" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>63</v>
+      </c>
+      <c r="B283" t="s">
+        <v>340</v>
+      </c>
+      <c r="C283" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>64</v>
+      </c>
+      <c r="B284" t="s">
+        <v>341</v>
+      </c>
+      <c r="C284" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>65</v>
+      </c>
+      <c r="B285" t="s">
+        <v>342</v>
+      </c>
+      <c r="C285" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>9</v>
+      </c>
+      <c r="B286" t="s">
+        <v>282</v>
+      </c>
+      <c r="C286" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B287" t="s">
+        <v>850</v>
+      </c>
+      <c r="C287" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>34</v>
+      </c>
+      <c r="B288" t="s">
+        <v>307</v>
+      </c>
+      <c r="C288" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>828</v>
+      </c>
+      <c r="B289" t="s">
+        <v>829</v>
+      </c>
+      <c r="C289" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>859</v>
+      </c>
+      <c r="B290" t="s">
+        <v>835</v>
+      </c>
+      <c r="C290" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>868</v>
+      </c>
+      <c r="B291" t="s">
+        <v>831</v>
+      </c>
+      <c r="C291" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C292" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>803</v>
+      </c>
+      <c r="B293" t="s">
+        <v>804</v>
+      </c>
+      <c r="C293" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>480</v>
+      </c>
+      <c r="B294" t="s">
+        <v>763</v>
+      </c>
+      <c r="C294" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>801</v>
+      </c>
+      <c r="B295" t="s">
+        <v>802</v>
+      </c>
+      <c r="C295" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B296" t="s">
+        <v>735</v>
+      </c>
+      <c r="C296" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C297" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>32</v>
+      </c>
+      <c r="B298" t="s">
+        <v>305</v>
+      </c>
+      <c r="C298" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>810</v>
+      </c>
+      <c r="B299" t="s">
+        <v>811</v>
+      </c>
+      <c r="C299" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>481</v>
+      </c>
+      <c r="B300" t="s">
+        <v>569</v>
+      </c>
+      <c r="C300" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>109</v>
+      </c>
+      <c r="B301" t="s">
+        <v>386</v>
+      </c>
+      <c r="C301" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
         <v>14</v>
       </c>
-      <c r="B258" t="s">
-        <v>296</v>
-      </c>
-      <c r="C258" t="s">
-        <v>150</v>
+      <c r="B302" t="s">
+        <v>287</v>
+      </c>
+      <c r="C302" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:C258">
-    <sortCondition ref="A238"/>
+  <sortState ref="A1:C302">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6486,8 +7138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CF7B10-8A83-C844-9233-3895305C52AA}">
   <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="A13" sqref="A1:C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6499,249 +7151,249 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>841</v>
+        <v>1047</v>
       </c>
       <c r="B1" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="C1" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>842</v>
+        <v>1048</v>
       </c>
       <c r="B2" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="C2" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>843</v>
+        <v>1038</v>
       </c>
       <c r="B3" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="C3" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B4" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="C4" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="B5" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="C5" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="C6" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C7" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="B8" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="C8" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="B9" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="C9" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="B10" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="C10" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="B11" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="C11" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="B12" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="C12" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="B13" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="C13" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="B14" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="C14" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="B15" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="C15" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C16" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="B17" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="C17" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="B18" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="C18" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B19" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="C19" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B20" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="C20" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B21" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="C21" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B22" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="C22" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B23">
         <v>880</v>
@@ -6752,62 +7404,62 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B24" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="C24" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B25" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="C25" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B26" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="C26" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="B27" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="C27" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>872</v>
+        <v>854</v>
       </c>
       <c r="B28" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="C28" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="B29">
         <v>1834927083</v>
@@ -6818,376 +7470,376 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="B30" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="C30" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="B31" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="C31" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="B32" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="C32" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="B33" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="C33" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="B34" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="C34" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="B35" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="C35" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="B36" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="C36" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B37" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="C37" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B38" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="C38" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="B39" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="C39" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C40" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="B41" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="C41" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="B42" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="C42" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="B43" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="C43" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B44" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="C44" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="B45" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="C45" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C46" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="B47" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="C47" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="B48" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="C48" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="B49" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="C49" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="B50" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="C50" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C51" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="B52" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="C52" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B53" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="C53" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C54" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B56" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="C56" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="B57" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="C57" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="B58" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="C58" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="B59" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C59" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="B60" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="C60" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="B61" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="C61" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="B62" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="C62" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="B63" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="C63" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -7195,125 +7847,125 @@
         <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B65" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="C65" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="B66" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="C66" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="B67" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="C67" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="B68" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="C68" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="B69" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="C69" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="B70" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="C70" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="B71" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="C71" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="B72" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="C72" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="B73" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="B74" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="B75" t="s">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="C75" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -7321,100 +7973,100 @@
         <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B77" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="C77" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="B78" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B79" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="B80" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="C80" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="B81" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="C81" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="B82" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="C82" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="B83" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="C83" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="B84" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="C84" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="B85" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="C85" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -7422,205 +8074,205 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="C86" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="B87" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="C87" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="B88" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="C88" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="B89" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="C89" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="B90" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="C90" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="B91" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="C91" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C92" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="B93" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="C93" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="B94" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="C94" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="B95" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="C95" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="B96" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="C96" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="B97" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="C97" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="B98" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="B99" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="C99" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="B100" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="C100" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="B101" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="C101" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="B102" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="C102" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B103" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C103" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="B104" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="C104" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -7628,131 +8280,131 @@
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="C105" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
       <c r="B106" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="C106" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="B107" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="C107" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="B108" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="C108" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="B109" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="C109" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B110" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="C110" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="B111" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="C111" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="B112" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="C112" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="B113" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="C113" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="B114" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="C114" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="B115" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="C115" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="B116" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="C116" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -7762,526 +8414,416 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C45ACD-84D1-2B4C-8B11-FDD5B344B611}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="132" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.83203125" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" customWidth="1"/>
-    <col min="3" max="3" width="35.5" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="3" max="3" width="55.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>1049</v>
+        <v>1034</v>
       </c>
       <c r="B1" t="s">
-        <v>1050</v>
+        <v>1011</v>
       </c>
       <c r="C1" t="s">
-        <v>963</v>
+        <v>930</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>925</v>
+        <v>1031</v>
       </c>
       <c r="B2" t="s">
-        <v>1043</v>
+        <v>1008</v>
       </c>
       <c r="C2" t="s">
-        <v>964</v>
+        <v>927</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1051</v>
+        <v>980</v>
       </c>
       <c r="B3" t="s">
-        <v>1052</v>
+        <v>981</v>
       </c>
       <c r="C3" t="s">
-        <v>965</v>
+        <v>908</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>926</v>
+        <v>429</v>
       </c>
       <c r="B4" t="s">
-        <v>1044</v>
+        <v>710</v>
       </c>
       <c r="C4" t="s">
-        <v>966</v>
+        <v>934</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>927</v>
+        <v>901</v>
       </c>
       <c r="B5" t="s">
-        <v>1045</v>
+        <v>1022</v>
       </c>
       <c r="C5" t="s">
-        <v>967</v>
+        <v>916</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1088</v>
+        <v>904</v>
       </c>
       <c r="B6" t="s">
-        <v>1053</v>
+        <v>977</v>
       </c>
       <c r="C6" t="s">
-        <v>968</v>
+        <v>931</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>1089</v>
+        <v>433</v>
       </c>
       <c r="B7" t="s">
-        <v>1054</v>
+        <v>713</v>
       </c>
       <c r="C7" t="s">
-        <v>969</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>928</v>
+        <v>1029</v>
       </c>
       <c r="B8" t="s">
-        <v>1055</v>
+        <v>1007</v>
       </c>
       <c r="C8" t="s">
-        <v>970</v>
+        <v>926</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C9" t="s">
         <v>929</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C9" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B10" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="C10" t="s">
-        <v>518</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>930</v>
+        <v>896</v>
       </c>
       <c r="B11" t="s">
-        <v>1057</v>
+        <v>974</v>
       </c>
       <c r="C11" t="s">
-        <v>972</v>
+        <v>909</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>931</v>
+        <v>1023</v>
       </c>
       <c r="B12" t="s">
-        <v>1058</v>
+        <v>1024</v>
       </c>
       <c r="C12" t="s">
-        <v>973</v>
+        <v>919</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>932</v>
+        <v>1030</v>
       </c>
       <c r="B13" t="s">
-        <v>1059</v>
+        <v>1006</v>
       </c>
       <c r="C13" t="s">
-        <v>974</v>
+        <v>925</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>933</v>
+        <v>1032</v>
       </c>
       <c r="B14" t="s">
-        <v>1060</v>
+        <v>1009</v>
       </c>
       <c r="C14" t="s">
-        <v>1041</v>
+        <v>928</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>934</v>
+        <v>899</v>
       </c>
       <c r="B15" t="s">
-        <v>1061</v>
+        <v>986</v>
       </c>
       <c r="C15" t="s">
-        <v>975</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>935</v>
+        <v>898</v>
       </c>
       <c r="B16" t="s">
-        <v>1062</v>
+        <v>976</v>
       </c>
       <c r="C16" t="s">
-        <v>976</v>
+        <v>912</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>936</v>
+        <v>902</v>
       </c>
       <c r="B17" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C17" t="s">
-        <v>977</v>
+        <v>990</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>937</v>
+        <v>900</v>
       </c>
       <c r="B18" t="s">
-        <v>1064</v>
+        <v>987</v>
       </c>
       <c r="C18" t="s">
-        <v>978</v>
+        <v>915</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>938</v>
+        <v>459</v>
       </c>
       <c r="B19" t="s">
-        <v>1065</v>
+        <v>738</v>
       </c>
       <c r="C19" t="s">
-        <v>979</v>
+        <v>920</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>939</v>
+        <v>903</v>
       </c>
       <c r="B20" t="s">
-        <v>1066</v>
+        <v>1002</v>
       </c>
       <c r="C20" t="s">
-        <v>980</v>
+        <v>921</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>940</v>
+        <v>1026</v>
       </c>
       <c r="B21" t="s">
-        <v>1067</v>
+        <v>709</v>
       </c>
       <c r="C21" t="s">
-        <v>981</v>
+        <v>923</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>941</v>
+        <v>1019</v>
       </c>
       <c r="B22" t="s">
-        <v>1068</v>
+        <v>984</v>
       </c>
       <c r="C22" t="s">
-        <v>982</v>
+        <v>913</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>942</v>
+        <v>907</v>
       </c>
       <c r="B23" t="s">
-        <v>1069</v>
+        <v>1017</v>
       </c>
       <c r="C23" t="s">
-        <v>983</v>
+        <v>937</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>943</v>
+        <v>1040</v>
       </c>
       <c r="B24" t="s">
-        <v>1070</v>
+        <v>1016</v>
       </c>
       <c r="C24" t="s">
-        <v>984</v>
+        <v>936</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>944</v>
+        <v>906</v>
       </c>
       <c r="B25" t="s">
-        <v>1071</v>
+        <v>979</v>
       </c>
       <c r="C25" t="s">
-        <v>985</v>
+        <v>935</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>945</v>
+        <v>905</v>
       </c>
       <c r="B26" t="s">
-        <v>1072</v>
+        <v>978</v>
       </c>
       <c r="C26" t="s">
-        <v>986</v>
+        <v>932</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>946</v>
+        <v>897</v>
       </c>
       <c r="B27" t="s">
-        <v>1073</v>
+        <v>975</v>
       </c>
       <c r="C27" t="s">
-        <v>987</v>
+        <v>911</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>441</v>
+        <v>1041</v>
       </c>
       <c r="B28" t="s">
-        <v>722</v>
+        <v>996</v>
       </c>
       <c r="C28" t="s">
-        <v>988</v>
+        <v>917</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>947</v>
+        <v>1035</v>
       </c>
       <c r="B29" t="s">
-        <v>1074</v>
+        <v>1045</v>
       </c>
       <c r="C29" t="s">
-        <v>989</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>948</v>
+        <v>1038</v>
       </c>
       <c r="B30" t="s">
-        <v>1075</v>
+        <v>1037</v>
       </c>
       <c r="C30" t="s">
-        <v>990</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>949</v>
+        <v>1039</v>
       </c>
       <c r="B31" t="s">
-        <v>1076</v>
+        <v>1015</v>
       </c>
       <c r="C31" t="s">
-        <v>991</v>
+        <v>933</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>950</v>
+        <v>1042</v>
       </c>
       <c r="B32" t="s">
-        <v>1077</v>
+        <v>1043</v>
       </c>
       <c r="C32" t="s">
-        <v>992</v>
+        <v>918</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>951</v>
+        <v>1027</v>
       </c>
       <c r="B33" t="s">
-        <v>1078</v>
+        <v>1028</v>
       </c>
       <c r="C33" t="s">
-        <v>993</v>
+        <v>924</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>952</v>
+        <v>1025</v>
       </c>
       <c r="B34" t="s">
-        <v>1079</v>
+        <v>1004</v>
       </c>
       <c r="C34" t="s">
-        <v>994</v>
+        <v>922</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>953</v>
+        <v>982</v>
       </c>
       <c r="B35" t="s">
-        <v>1080</v>
+        <v>983</v>
       </c>
       <c r="C35" t="s">
-        <v>995</v>
+        <v>910</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>954</v>
+        <v>1046</v>
       </c>
       <c r="B36" t="s">
-        <v>1081</v>
+        <v>985</v>
       </c>
       <c r="C36" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B37" t="s">
-        <v>726</v>
-      </c>
-      <c r="C37" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C38" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C39" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C40" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="B43" t="s">
-        <v>723</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C44" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C45" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1005</v>
+        <v>914</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:C47">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8302,557 +8844,557 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>924</v>
+        <v>895</v>
       </c>
       <c r="B1" t="str">
         <f>PROPER(A1)</f>
         <v>Movies</v>
       </c>
       <c r="D1" t="s">
-        <v>1042</v>
+        <v>973</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>925</v>
+        <v>896</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B46" si="0">PROPER(A2)</f>
         <v>Drama</v>
       </c>
       <c r="D2" t="s">
-        <v>1043</v>
+        <v>974</v>
       </c>
       <c r="G2" t="s">
-        <v>1087</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1006</v>
+        <v>938</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
         <v>Tv Shows</v>
       </c>
       <c r="D3" t="s">
-        <v>1052</v>
+        <v>983</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>926</v>
+        <v>897</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>Sports</v>
       </c>
       <c r="D4" t="s">
-        <v>1044</v>
+        <v>975</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>927</v>
+        <v>898</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>More</v>
       </c>
       <c r="D5" t="s">
-        <v>1045</v>
+        <v>976</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>1007</v>
+        <v>939</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>My Profile</v>
       </c>
       <c r="D6" t="s">
-        <v>1053</v>
+        <v>984</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>1008</v>
+        <v>940</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>We Encountered An Expected Pb</v>
       </c>
       <c r="D7" t="s">
-        <v>1054</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>1009</v>
+        <v>941</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>Invite Friends</v>
       </c>
       <c r="D8" t="s">
-        <v>1055</v>
+        <v>986</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>1010</v>
+        <v>942</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>Notification Settings</v>
       </c>
       <c r="D9" t="s">
-        <v>1056</v>
+        <v>987</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>Description</v>
       </c>
       <c r="D10" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>1011</v>
+        <v>943</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>Permission Gallery</v>
       </c>
       <c r="D11" t="s">
-        <v>1057</v>
+        <v>988</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1012</v>
+        <v>944</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>Confirmation Sign Out</v>
       </c>
       <c r="D12" t="s">
-        <v>1058</v>
+        <v>989</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>1013</v>
+        <v>945</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>Not Found</v>
       </c>
       <c r="D13" t="s">
-        <v>1059</v>
+        <v>990</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>1014</v>
+        <v>946</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>Msg Subscription Trial Ending</v>
       </c>
       <c r="D14" t="s">
-        <v>1060</v>
+        <v>991</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1015</v>
+        <v>947</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>Your Subscription Will Not Be Auto Renewed</v>
       </c>
       <c r="D15" t="s">
-        <v>1061</v>
+        <v>992</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1016</v>
+        <v>948</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>Your Subscription Will Not Be Automatically Renewed In The Next Cycle</v>
       </c>
       <c r="D16" t="s">
-        <v>1062</v>
+        <v>993</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1017</v>
+        <v>949</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>Your Subscription Will Be Auto Renewed</v>
       </c>
       <c r="D17" t="s">
-        <v>1063</v>
+        <v>994</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>1018</v>
+        <v>950</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>Your Subscription Will Be Automatically Renewed In The Next Cycle</v>
       </c>
       <c r="D18" t="s">
-        <v>1064</v>
+        <v>995</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>1019</v>
+        <v>951</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>You Are About To Unsubscribe</v>
       </c>
       <c r="D19" t="s">
-        <v>1065</v>
+        <v>996</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>1020</v>
+        <v>952</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>Msg Subscription Expired</v>
       </c>
       <c r="D20" t="s">
-        <v>1066</v>
+        <v>997</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>1021</v>
+        <v>953</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>Button View Plan</v>
       </c>
       <c r="D21" t="s">
-        <v>1067</v>
+        <v>998</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>1022</v>
+        <v>954</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>Title Trial Ending</v>
       </c>
       <c r="D22" t="s">
-        <v>1068</v>
+        <v>999</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>1023</v>
+        <v>955</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>Msg Invalid Email</v>
       </c>
       <c r="D23" t="s">
-        <v>1069</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>1024</v>
+        <v>956</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>Package Data Not Found</v>
       </c>
       <c r="D24" t="s">
-        <v>1070</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>1025</v>
+        <v>957</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>Pay By Card</v>
       </c>
       <c r="D25" t="s">
-        <v>1071</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>1026</v>
+        <v>958</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>Pay By Card Caps</v>
       </c>
       <c r="D26" t="s">
-        <v>1072</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>1027</v>
+        <v>959</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>Continue With Trial Plan</v>
       </c>
       <c r="D27" t="s">
-        <v>1073</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>Choose Payment Method</v>
       </c>
       <c r="D28" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>1028</v>
+        <v>960</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>Title Subscribe Dialog</v>
       </c>
       <c r="D29" t="s">
-        <v>1074</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>1029</v>
+        <v>961</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>Enter Expire Msg</v>
       </c>
       <c r="D30" t="s">
-        <v>1075</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>1030</v>
+        <v>962</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>Enter Cvc Number</v>
       </c>
       <c r="D31" t="s">
-        <v>1076</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>1031</v>
+        <v>963</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>Invalid Card Number</v>
       </c>
       <c r="D32" t="s">
-        <v>1077</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>1032</v>
+        <v>964</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
         <v>Invalid Expire Date</v>
       </c>
       <c r="D33" t="s">
-        <v>1078</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>1033</v>
+        <v>965</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
         <v>Invalid Cvc Number</v>
       </c>
       <c r="D34" t="s">
-        <v>1079</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>1034</v>
+        <v>966</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>Your Card Is Invalid</v>
       </c>
       <c r="D35" t="s">
-        <v>1080</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>1035</v>
+        <v>967</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>Msg Failed To Check Subs Info</v>
       </c>
       <c r="D36" t="s">
-        <v>1081</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>Current Plan</v>
       </c>
       <c r="D37" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>1036</v>
+        <v>968</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>If You Are Sure You Would Like To Cancel Your Subscription Please Confirm Cancellation Will Be Effective At The End Of Your Current Subscription Period You Can Come Back Anytime You Want</v>
       </c>
       <c r="D38" t="s">
-        <v>1082</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>956</v>
+        <v>904</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>Congratulations</v>
       </c>
       <c r="D39" t="s">
-        <v>1046</v>
+        <v>977</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1037</v>
+        <v>969</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>You Ve Successfully Subscribed To Your Selected Plan And You Have Been Charged Accordingly You Can Un Subscribe Anytime From Your Account Page</v>
       </c>
       <c r="D40" t="s">
-        <v>1083</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>958</v>
+        <v>905</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>Sorry</v>
       </c>
       <c r="D41" t="s">
-        <v>1047</v>
+        <v>978</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>1038</v>
+        <v>970</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>Your Subscription Process Has Failed</v>
       </c>
       <c r="D42" t="s">
-        <v>1084</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
         <v>Confirm</v>
       </c>
       <c r="D43" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>960</v>
+        <v>906</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
         <v>Renew</v>
       </c>
       <c r="D44" t="s">
-        <v>1048</v>
+        <v>979</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>1039</v>
+        <v>971</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
         <v>Have A Promo Code</v>
       </c>
       <c r="D45" t="s">
-        <v>1085</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>1040</v>
+        <v>972</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
         <v>Promo Code Applied Successfully</v>
       </c>
       <c r="D46" t="s">
-        <v>1086</v>
+        <v>1017</v>
       </c>
     </row>
   </sheetData>
@@ -8875,7 +9417,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="B1" t="str">
         <f>PROPER(A1)</f>
@@ -8884,7 +9426,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B65" si="0">PROPER(A2)</f>
@@ -8893,7 +9435,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
@@ -8902,7 +9444,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -8911,7 +9453,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -8920,7 +9462,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
@@ -8929,7 +9471,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
@@ -8938,7 +9480,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
@@ -8947,7 +9489,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
@@ -8956,7 +9498,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
@@ -8965,7 +9507,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
@@ -8974,7 +9516,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
@@ -8983,7 +9525,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
@@ -8992,7 +9534,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
@@ -9001,7 +9543,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
@@ -9010,7 +9552,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -9019,7 +9561,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -9028,7 +9570,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
@@ -9037,7 +9579,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
@@ -9046,7 +9588,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
@@ -9055,7 +9597,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
@@ -9064,7 +9606,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
@@ -9073,7 +9615,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
@@ -9082,7 +9624,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
@@ -9091,7 +9633,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
@@ -9100,7 +9642,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -9109,7 +9651,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
@@ -9118,7 +9660,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
@@ -9127,7 +9669,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
@@ -9136,7 +9678,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
@@ -9145,7 +9687,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
@@ -9154,7 +9696,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -9163,7 +9705,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -9172,7 +9714,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -9181,7 +9723,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -9190,7 +9732,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
@@ -9199,7 +9741,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
@@ -9208,7 +9750,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
@@ -9217,7 +9759,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
@@ -9226,7 +9768,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
@@ -9235,7 +9777,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
@@ -9244,7 +9786,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
@@ -9253,7 +9795,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
@@ -9262,7 +9804,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
@@ -9271,7 +9813,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
@@ -9280,7 +9822,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
@@ -9289,7 +9831,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
@@ -9298,7 +9840,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="0"/>
@@ -9307,7 +9849,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="0"/>
@@ -9316,7 +9858,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="0"/>
@@ -9325,7 +9867,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="0"/>
@@ -9334,7 +9876,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="0"/>
@@ -9343,7 +9885,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="0"/>
@@ -9352,7 +9894,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="0"/>
@@ -9361,7 +9903,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="0"/>
@@ -9370,7 +9912,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="0"/>
@@ -9379,7 +9921,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="0"/>
@@ -9388,7 +9930,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="0"/>
@@ -9397,7 +9939,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="0"/>
@@ -9406,7 +9948,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="0"/>
@@ -9415,7 +9957,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="0"/>
@@ -9424,7 +9966,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="0"/>
@@ -9433,7 +9975,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="0"/>
@@ -9442,7 +9984,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="0"/>
@@ -9451,7 +9993,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="0"/>
@@ -9460,7 +10002,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" ref="B66:B129" si="1">PROPER(A66)</f>
@@ -9469,7 +10011,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="1"/>
@@ -9478,7 +10020,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="1"/>
@@ -9487,7 +10029,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="1"/>
@@ -9496,7 +10038,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="1"/>
@@ -9505,7 +10047,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="1"/>
@@ -9514,7 +10056,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="1"/>
@@ -9523,7 +10065,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="1"/>
@@ -9532,7 +10074,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="1"/>
@@ -9541,7 +10083,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="1"/>
@@ -9550,7 +10092,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="1"/>
@@ -9559,7 +10101,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="1"/>
@@ -9568,7 +10110,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="1"/>
@@ -9577,7 +10119,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="1"/>
@@ -9586,7 +10128,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="1"/>
@@ -9595,7 +10137,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="1"/>
@@ -9604,7 +10146,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="1"/>
@@ -9613,7 +10155,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="1"/>
@@ -9622,7 +10164,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="1"/>
@@ -9631,7 +10173,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="1"/>
@@ -9640,7 +10182,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="1"/>
@@ -9649,7 +10191,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="1"/>
@@ -9658,7 +10200,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="1"/>
@@ -9676,7 +10218,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="1"/>
@@ -9685,7 +10227,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="1"/>
@@ -9694,7 +10236,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="1"/>
@@ -9703,7 +10245,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="1"/>
@@ -9712,7 +10254,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="1"/>
@@ -9721,7 +10263,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="1"/>
@@ -9730,7 +10272,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="1"/>
@@ -9739,7 +10281,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="1"/>
@@ -9748,7 +10290,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="1"/>
@@ -9757,7 +10299,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="1"/>
@@ -9766,7 +10308,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="1"/>
@@ -9775,7 +10317,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="1"/>
@@ -9784,7 +10326,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="1"/>
@@ -9793,7 +10335,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="1"/>
@@ -9811,7 +10353,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="1"/>
@@ -9820,7 +10362,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="1"/>
@@ -9829,7 +10371,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="1"/>
@@ -9838,7 +10380,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="1"/>
@@ -9847,7 +10389,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="1"/>
@@ -9856,7 +10398,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="1"/>
@@ -9865,7 +10407,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="1"/>
@@ -9874,7 +10416,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="1"/>
@@ -9883,7 +10425,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="1"/>
@@ -9892,7 +10434,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="1"/>
@@ -9901,7 +10443,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="1"/>
@@ -9910,7 +10452,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="1"/>
@@ -9919,7 +10461,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="1"/>
@@ -9928,7 +10470,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="B118" t="str">
         <f t="shared" si="1"/>
@@ -9937,7 +10479,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="B119" t="str">
         <f t="shared" si="1"/>
@@ -9946,7 +10488,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="B120" t="str">
         <f t="shared" si="1"/>
@@ -9955,7 +10497,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="B121" t="str">
         <f t="shared" si="1"/>
@@ -9964,7 +10506,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="B122" t="str">
         <f t="shared" si="1"/>
@@ -9973,7 +10515,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="B123" t="str">
         <f t="shared" si="1"/>
@@ -9982,7 +10524,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="B124" t="str">
         <f t="shared" si="1"/>
@@ -9991,7 +10533,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="B125" t="str">
         <f t="shared" si="1"/>
@@ -10000,7 +10542,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="B126" t="str">
         <f t="shared" si="1"/>
@@ -10009,7 +10551,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="B127" t="str">
         <f t="shared" si="1"/>
@@ -10018,7 +10560,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="1"/>
@@ -10027,7 +10569,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="B129" t="str">
         <f t="shared" si="1"/>
@@ -10036,7 +10578,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="B130" t="str">
         <f t="shared" ref="B130:B166" si="2">PROPER(A130)</f>
@@ -10045,7 +10587,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="B131" t="str">
         <f t="shared" si="2"/>
@@ -10054,7 +10596,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B132" t="str">
         <f t="shared" si="2"/>
@@ -10063,7 +10605,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="B133" t="str">
         <f t="shared" si="2"/>
@@ -10072,7 +10614,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="2"/>
@@ -10081,7 +10623,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="2"/>
@@ -10090,7 +10632,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="2"/>
@@ -10099,7 +10641,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="B137" t="str">
         <f t="shared" si="2"/>
@@ -10108,7 +10650,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="B138" t="str">
         <f t="shared" si="2"/>
@@ -10117,7 +10659,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="B139" t="str">
         <f t="shared" si="2"/>
@@ -10126,7 +10668,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="B140" t="str">
         <f t="shared" si="2"/>
@@ -10135,7 +10677,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="B141" t="str">
         <f t="shared" si="2"/>
@@ -10144,7 +10686,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="B142" t="str">
         <f t="shared" si="2"/>
@@ -10153,7 +10695,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B143" t="str">
         <f t="shared" si="2"/>
@@ -10162,7 +10704,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="B144" t="str">
         <f t="shared" si="2"/>
@@ -10171,7 +10713,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="B145" t="str">
         <f t="shared" si="2"/>
@@ -10180,7 +10722,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="B146" t="str">
         <f t="shared" si="2"/>
@@ -10189,7 +10731,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="B147" t="str">
         <f t="shared" si="2"/>
@@ -10198,7 +10740,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="B148" t="str">
         <f t="shared" si="2"/>
@@ -10207,7 +10749,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="B149" t="str">
         <f t="shared" si="2"/>
@@ -10216,7 +10758,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="B150" t="str">
         <f t="shared" si="2"/>
@@ -10225,7 +10767,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="B151" t="str">
         <f t="shared" si="2"/>
@@ -10234,7 +10776,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
       <c r="B152" t="str">
         <f t="shared" si="2"/>
@@ -10243,7 +10785,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="B153" t="str">
         <f t="shared" si="2"/>
@@ -10252,7 +10794,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B154" t="str">
         <f t="shared" si="2"/>
@@ -10261,7 +10803,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="B155" t="str">
         <f t="shared" si="2"/>
@@ -10270,7 +10812,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="B156" t="str">
         <f t="shared" si="2"/>
@@ -10288,7 +10830,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
       <c r="B158" t="str">
         <f t="shared" si="2"/>
@@ -10297,7 +10839,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="B159" t="str">
         <f t="shared" si="2"/>
@@ -10306,7 +10848,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="2"/>
@@ -10315,7 +10857,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="B161" t="str">
         <f t="shared" si="2"/>
@@ -10324,7 +10866,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="B162" t="str">
         <f t="shared" si="2"/>
@@ -10333,7 +10875,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="B163" t="str">
         <f t="shared" si="2"/>
@@ -10342,7 +10884,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B164" t="str">
         <f t="shared" si="2"/>
@@ -10351,7 +10893,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="B165" t="str">
         <f t="shared" si="2"/>
@@ -10360,7 +10902,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="B166" t="str">
         <f t="shared" si="2"/>

--- a/files/strings.xlsx
+++ b/files/strings.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/storex/dLab/andStudio/lime-strings/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFEAAC6-1D5E-E44E-AA81-46563111175E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FD3DCF-9FB7-CE4F-BF01-D2F00AD8FECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{2A2A4A0D-8F67-1149-8B79-481C2E1F4E29}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{2A2A4A0D-8F67-1149-8B79-481C2E1F4E29}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="number" sheetId="8" r:id="rId2"/>
+    <sheet name="dummy" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="1201">
   <si>
     <t>bangla</t>
   </si>
@@ -3436,16 +3438,218 @@
   </si>
   <si>
     <t>active_plan_none</t>
+  </si>
+  <si>
+    <t>ইতোমধ্যে শেষ হয়ে গিয়েছে চলতি বিপিএলের ৭টি ম্যাচ। কিন্তু এখনো পর্যন্ত সে অর্থে বাংলাদেশের কেউই জ্বলে উঠতে পারেননি ব্যাট হাতে। বুধবার সবশেষ ম্যাচে তরুণ আফিফ হোসেন ধ্রুবর ৪৫ রানের ইনিংসটিই এখনো পর্যন্ত বাংলাদেশি ব্যাটসম্যানদের সেরা ইনিংস। এছাড়া ঢাকা ডায়নামাইটসের প্রথম ম্যাচে ১৪ বলে ৩৮ রানের তুফান চালিয়েছিলেন শুভাগত হোম।</t>
+  </si>
+  <si>
+    <t>চারিগ্রাম প্রাথমিক বিদ্যালয়</t>
+  </si>
+  <si>
+    <t>ইনাম আহমেদ</t>
+  </si>
+  <si>
+    <t>ফরিদা ইয়াসমিন</t>
+  </si>
+  <si>
+    <t>পরিদর্শক</t>
+  </si>
+  <si>
+    <t>ছড়া লেখা প্রতিযোগিতা</t>
+  </si>
+  <si>
+    <t>ইতোমধ্যে শেষ হয়ে গিয়েছে চলতি বিপিএলের ৭টি ম্যাচ। কিন্তু এখনো পর্যন্ত সে অর্থে বাংলাদেশের কেউই জ্বলে উঠতে পারেননি ব্যাট হাতে। বুধবার সবশেষ ম্যাচে তরুণ আফিফ হোসেন ধ্রুবর ৪৫ রানের ইনিংসটিই এখনো পর্যন্ত বাংলাদেশি ব্যাটসম্যানদের সেরা ইনিংস।</t>
+  </si>
+  <si>
+    <t>dummy_date_time</t>
+  </si>
+  <si>
+    <t>dummy_text_small</t>
+  </si>
+  <si>
+    <t>dummy_text_medium</t>
+  </si>
+  <si>
+    <t>dummy_text_big</t>
+  </si>
+  <si>
+    <t>Charigram High School</t>
+  </si>
+  <si>
+    <t>Inam Ahmed</t>
+  </si>
+  <si>
+    <t>Farida Yesmin</t>
+  </si>
+  <si>
+    <t>Inspector</t>
+  </si>
+  <si>
+    <t>Rhymes Contest</t>
+  </si>
+  <si>
+    <t>Sport includes all forms of competitive physical activity or games which, through casual or organised participation, aim to use, maintain or improve physical ability and skills while providing enjoyment to participants</t>
+  </si>
+  <si>
+    <t>Sport includes all forms of competitive physical activity or games which, through casual or organised participation</t>
+  </si>
+  <si>
+    <t>dummy_date</t>
+  </si>
+  <si>
+    <t>dummy_designation</t>
+  </si>
+  <si>
+    <t>dummy_mobile_no</t>
+  </si>
+  <si>
+    <t>dummy_name_female</t>
+  </si>
+  <si>
+    <t>dummy_name_male</t>
+  </si>
+  <si>
+    <t>dummy_name_school</t>
+  </si>
+  <si>
+    <t>num_0</t>
+  </si>
+  <si>
+    <t>num_1</t>
+  </si>
+  <si>
+    <t>num_2</t>
+  </si>
+  <si>
+    <t>num_3</t>
+  </si>
+  <si>
+    <t>num_4</t>
+  </si>
+  <si>
+    <t>num_5</t>
+  </si>
+  <si>
+    <t>num_6</t>
+  </si>
+  <si>
+    <t>num_7</t>
+  </si>
+  <si>
+    <t>num_8</t>
+  </si>
+  <si>
+    <t>num_9</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>nine</t>
+  </si>
+  <si>
+    <t>শুন্য</t>
+  </si>
+  <si>
+    <t>এক</t>
+  </si>
+  <si>
+    <t>দুই</t>
+  </si>
+  <si>
+    <t>তিন</t>
+  </si>
+  <si>
+    <t>চার</t>
+  </si>
+  <si>
+    <t>পাঁচ</t>
+  </si>
+  <si>
+    <t>ছয়</t>
+  </si>
+  <si>
+    <t>সাত</t>
+  </si>
+  <si>
+    <t>আট</t>
+  </si>
+  <si>
+    <t>নয়</t>
+  </si>
+  <si>
+    <t>num_0_spl</t>
+  </si>
+  <si>
+    <t>num_1_spl</t>
+  </si>
+  <si>
+    <t>num_2_spl</t>
+  </si>
+  <si>
+    <t>num_3_spl</t>
+  </si>
+  <si>
+    <t>num_4_spl</t>
+  </si>
+  <si>
+    <t>num_5_spl</t>
+  </si>
+  <si>
+    <t>num_6_spl</t>
+  </si>
+  <si>
+    <t>num_7_spl</t>
+  </si>
+  <si>
+    <t>num_8_spl</t>
+  </si>
+  <si>
+    <t>num_9_spl</t>
+  </si>
+  <si>
+    <t>gps_open_confirmation</t>
+  </si>
+  <si>
+    <t>আপনি কি লোকেশন সার্ভিসটি অন করতে চান?</t>
+  </si>
+  <si>
+    <t>Do you want to open gps?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-5000445]0"/>
+    <numFmt numFmtId="167" formatCode="[$-5000000]dd/mm/yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3472,6 +3676,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3493,12 +3703,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3813,10 +4026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3F0CAB-B764-494E-8312-86738EB4583E}">
-  <dimension ref="A1:G302"/>
+  <dimension ref="A1:G300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="138" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4410,332 +4623,332 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>439</v>
-      </c>
-      <c r="B54">
-        <v>1834927083</v>
-      </c>
-      <c r="C54" s="1">
-        <v>1834548739</v>
+        <v>101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>378</v>
+      </c>
+      <c r="C54" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>440</v>
       </c>
       <c r="B55" t="s">
-        <v>378</v>
+        <v>717</v>
       </c>
       <c r="C55" t="s">
-        <v>237</v>
+        <v>507</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>440</v>
-      </c>
-      <c r="B56" t="s">
-        <v>717</v>
-      </c>
-      <c r="C56" t="s">
-        <v>507</v>
+      <c r="A56" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>919</v>
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>301</v>
+      </c>
+      <c r="C57" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B58" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>275</v>
+        <v>344</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" t="s">
-        <v>344</v>
-      </c>
-      <c r="C60" t="s">
-        <v>203</v>
+      <c r="A60" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>928</v>
+      <c r="A62" t="s">
+        <v>782</v>
+      </c>
+      <c r="B62" t="s">
+        <v>783</v>
+      </c>
+      <c r="C62" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>782</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>783</v>
+        <v>381</v>
       </c>
       <c r="C63" t="s">
-        <v>508</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B64" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>94</v>
+        <v>441</v>
       </c>
       <c r="B65" t="s">
-        <v>371</v>
+        <v>721</v>
       </c>
       <c r="C65" t="s">
-        <v>230</v>
+        <v>513</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B66" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C66" t="s">
-        <v>513</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B67" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C67" t="s">
-        <v>142</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>442</v>
+        <v>1083</v>
       </c>
       <c r="B68" t="s">
-        <v>722</v>
+        <v>764</v>
       </c>
       <c r="C68" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1083</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>764</v>
+        <v>284</v>
       </c>
       <c r="C69" t="s">
-        <v>1128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>1061</v>
       </c>
       <c r="B70" t="s">
-        <v>284</v>
+        <v>843</v>
       </c>
       <c r="C70" t="s">
-        <v>139</v>
+        <v>844</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1061</v>
+        <v>80</v>
       </c>
       <c r="B71" t="s">
-        <v>843</v>
+        <v>357</v>
       </c>
       <c r="C71" t="s">
-        <v>844</v>
+        <v>516</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>1108</v>
       </c>
       <c r="B72" t="s">
-        <v>357</v>
-      </c>
-      <c r="C72" t="s">
-        <v>516</v>
+        <v>1109</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1108</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>1107</v>
+        <v>367</v>
+      </c>
+      <c r="C73" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="B74" t="s">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="C74" t="s">
-        <v>226</v>
+        <v>154</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s">
-        <v>297</v>
+        <v>393</v>
       </c>
       <c r="C75" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="C76" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="C77" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>865</v>
       </c>
       <c r="B78" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>865</v>
+        <v>113</v>
       </c>
       <c r="B79" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C79" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>391</v>
+        <v>276</v>
       </c>
       <c r="C80" t="s">
-        <v>250</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>3</v>
+        <v>886</v>
       </c>
       <c r="B81" t="s">
-        <v>276</v>
-      </c>
-      <c r="C81" t="s">
-        <v>132</v>
+        <v>887</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B82" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>884</v>
+        <v>1198</v>
       </c>
       <c r="B83" t="s">
-        <v>885</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>1066</v>
+        <v>1200</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -6457,7 +6670,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>476</v>
+        <v>1113</v>
       </c>
       <c r="B242" t="s">
         <v>756</v>
@@ -6468,7 +6681,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>825</v>
+        <v>1114</v>
       </c>
       <c r="B243" t="s">
         <v>756</v>
@@ -6478,656 +6691,634 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B244" t="s">
-        <v>756</v>
-      </c>
-      <c r="C244" t="s">
-        <v>554</v>
+      <c r="A244" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1114</v>
+        <v>84</v>
       </c>
       <c r="B245" t="s">
-        <v>756</v>
+        <v>361</v>
       </c>
       <c r="C245" t="s">
-        <v>555</v>
+        <v>219</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>932</v>
+        <v>911</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="B247" t="s">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="C247" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="C248" s="3" t="s">
-        <v>911</v>
+      <c r="A248" t="s">
+        <v>26</v>
+      </c>
+      <c r="B248" t="s">
+        <v>299</v>
+      </c>
+      <c r="C248" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>27</v>
+        <v>1048</v>
       </c>
       <c r="B249" t="s">
-        <v>300</v>
+        <v>758</v>
       </c>
       <c r="C249" t="s">
-        <v>157</v>
+        <v>557</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>26</v>
-      </c>
-      <c r="B250" t="s">
-        <v>299</v>
-      </c>
-      <c r="C250" t="s">
-        <v>156</v>
+      <c r="A250" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B251" t="s">
-        <v>758</v>
-      </c>
-      <c r="C251" t="s">
-        <v>557</v>
+      <c r="A251" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>996</v>
+        <v>1043</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C253" s="3" t="s">
-        <v>1044</v>
+      <c r="A253" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B253" t="s">
+        <v>757</v>
+      </c>
+      <c r="C253" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>1043</v>
+        <v>1015</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>918</v>
+        <v>933</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B255" t="s">
-        <v>757</v>
-      </c>
-      <c r="C255" t="s">
-        <v>556</v>
+      <c r="A255" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>933</v>
+      <c r="A256" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B256" t="s">
+        <v>759</v>
+      </c>
+      <c r="C256" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C257" s="3" t="s">
-        <v>1036</v>
+      <c r="A257" t="s">
+        <v>773</v>
+      </c>
+      <c r="B257" t="s">
+        <v>774</v>
+      </c>
+      <c r="C257" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1038</v>
+        <v>477</v>
       </c>
       <c r="B258" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C258" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>773</v>
+        <v>1076</v>
       </c>
       <c r="B259" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="C259" t="s">
-        <v>492</v>
+        <v>556</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>477</v>
+        <v>1077</v>
       </c>
       <c r="B260" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C260" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B261" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="C261" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1077</v>
+        <v>20</v>
       </c>
       <c r="B262" t="s">
-        <v>758</v>
+        <v>293</v>
       </c>
       <c r="C262" t="s">
-        <v>557</v>
+        <v>149</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1078</v>
+        <v>120</v>
       </c>
       <c r="B263" t="s">
-        <v>759</v>
+        <v>398</v>
       </c>
       <c r="C263" t="s">
-        <v>558</v>
+        <v>257</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>20</v>
+        <v>812</v>
       </c>
       <c r="B264" t="s">
-        <v>293</v>
+        <v>813</v>
       </c>
       <c r="C264" t="s">
-        <v>149</v>
+        <v>840</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B265" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="C265" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>812</v>
-      </c>
-      <c r="B266" t="s">
-        <v>813</v>
-      </c>
-      <c r="C266" t="s">
-        <v>840</v>
+      <c r="A266" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="B267" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="C267" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>924</v>
+      <c r="A268" t="s">
+        <v>47</v>
+      </c>
+      <c r="B268" t="s">
+        <v>321</v>
+      </c>
+      <c r="C268" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>50</v>
+        <v>892</v>
       </c>
       <c r="B269" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="C269" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B270" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="C270" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>892</v>
-      </c>
-      <c r="B271" t="s">
-        <v>332</v>
-      </c>
-      <c r="C271" t="s">
-        <v>187</v>
+      <c r="A271" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>83</v>
+        <v>420</v>
       </c>
       <c r="B272" t="s">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="C272" t="s">
-        <v>218</v>
+        <v>563</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>922</v>
+      <c r="A273" t="s">
+        <v>872</v>
+      </c>
+      <c r="B273" t="s">
+        <v>347</v>
+      </c>
+      <c r="C273" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>420</v>
+        <v>1116</v>
       </c>
       <c r="B274" t="s">
-        <v>421</v>
+        <v>348</v>
       </c>
       <c r="C274" t="s">
-        <v>563</v>
+        <v>207</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B275" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C275" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B276" t="s">
-        <v>348</v>
-      </c>
-      <c r="C276" t="s">
-        <v>207</v>
+      <c r="A276" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>873</v>
-      </c>
-      <c r="B277" t="s">
-        <v>349</v>
-      </c>
-      <c r="C277" t="s">
-        <v>208</v>
+      <c r="A277" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="B278" s="3" t="s">
-        <v>983</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>910</v>
+      <c r="A278" t="s">
+        <v>775</v>
+      </c>
+      <c r="B278" t="s">
+        <v>776</v>
+      </c>
+      <c r="C278" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>914</v>
+      <c r="A279" t="s">
+        <v>41</v>
+      </c>
+      <c r="B279" t="s">
+        <v>314</v>
+      </c>
+      <c r="C279" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>775</v>
+        <v>479</v>
       </c>
       <c r="B280" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="C280" t="s">
-        <v>493</v>
+        <v>808</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B281" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="C281" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>479</v>
+        <v>64</v>
       </c>
       <c r="B282" t="s">
-        <v>762</v>
+        <v>341</v>
       </c>
       <c r="C282" t="s">
-        <v>808</v>
+        <v>194</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B283" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C283" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="B284" t="s">
-        <v>341</v>
+        <v>282</v>
       </c>
       <c r="C284" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>65</v>
+        <v>1119</v>
       </c>
       <c r="B285" t="s">
-        <v>342</v>
+        <v>850</v>
       </c>
       <c r="C285" t="s">
-        <v>195</v>
+        <v>894</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B286" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="C286" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1119</v>
+        <v>828</v>
       </c>
       <c r="B287" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
       <c r="C287" t="s">
-        <v>894</v>
+        <v>836</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>34</v>
+        <v>859</v>
       </c>
       <c r="B288" t="s">
-        <v>307</v>
+        <v>835</v>
       </c>
       <c r="C288" t="s">
-        <v>163</v>
+        <v>837</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>828</v>
+        <v>868</v>
       </c>
       <c r="B289" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C289" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>859</v>
+        <v>1069</v>
       </c>
       <c r="B290" t="s">
-        <v>835</v>
+        <v>1070</v>
       </c>
       <c r="C290" t="s">
-        <v>837</v>
+        <v>521</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>868</v>
+        <v>803</v>
       </c>
       <c r="B291" t="s">
-        <v>831</v>
+        <v>804</v>
       </c>
       <c r="C291" t="s">
-        <v>838</v>
+        <v>565</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1069</v>
+        <v>480</v>
       </c>
       <c r="B292" t="s">
-        <v>1070</v>
+        <v>763</v>
       </c>
       <c r="C292" t="s">
-        <v>521</v>
+        <v>566</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B293" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C293" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>480</v>
+        <v>1091</v>
       </c>
       <c r="B294" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
       <c r="C294" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>801</v>
+        <v>1067</v>
       </c>
       <c r="B295" t="s">
-        <v>802</v>
+        <v>1068</v>
       </c>
       <c r="C295" t="s">
-        <v>567</v>
+        <v>520</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1091</v>
+        <v>32</v>
       </c>
       <c r="B296" t="s">
-        <v>735</v>
+        <v>305</v>
       </c>
       <c r="C296" t="s">
-        <v>535</v>
+        <v>161</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1067</v>
+        <v>810</v>
       </c>
       <c r="B297" t="s">
-        <v>1068</v>
+        <v>811</v>
       </c>
       <c r="C297" t="s">
-        <v>520</v>
+        <v>564</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>32</v>
+        <v>481</v>
       </c>
       <c r="B298" t="s">
-        <v>305</v>
+        <v>569</v>
       </c>
       <c r="C298" t="s">
-        <v>161</v>
+        <v>569</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>810</v>
+        <v>109</v>
       </c>
       <c r="B299" t="s">
-        <v>811</v>
+        <v>386</v>
       </c>
       <c r="C299" t="s">
-        <v>564</v>
+        <v>245</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>481</v>
+        <v>14</v>
       </c>
       <c r="B300" t="s">
-        <v>569</v>
+        <v>287</v>
       </c>
       <c r="C300" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
-        <v>109</v>
-      </c>
-      <c r="B301" t="s">
-        <v>386</v>
-      </c>
-      <c r="C301" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>14</v>
-      </c>
-      <c r="B302" t="s">
-        <v>287</v>
-      </c>
-      <c r="C302" t="s">
         <v>143</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:C302">
+  <sortState ref="A1:C300">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7135,11 +7326,387 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEA4152-B241-2B40-986A-12C65FDBD0D0}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView zoomScale="137" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E8B14F-D8DF-7442-B880-5BE5847F9131}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B1" s="7">
+        <v>43059</v>
+      </c>
+      <c r="C1" s="5">
+        <v>43059</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43496.627465277779</v>
+      </c>
+      <c r="C2" s="6">
+        <v>43496.627465277779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1731487887</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1731487887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CF7B10-8A83-C844-9233-3895305C52AA}">
   <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A13" sqref="A1:C116"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8412,7 +8979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C45ACD-84D1-2B4C-8B11-FDD5B344B611}">
   <dimension ref="A1:C36"/>
   <sheetViews>
@@ -8828,7 +9395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690C5D52-6B15-194B-A1ED-FBFB6A1C3A43}">
   <dimension ref="A1:G46"/>
   <sheetViews>
@@ -9402,7 +9969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED7931A-D0A1-A744-A873-C9F6059F675B}">
   <dimension ref="A1:B166"/>
   <sheetViews>
